--- a/data/out/wiki/men/uefa/wc/goals_wc_uefa.xlsx
+++ b/data/out/wiki/men/uefa/wc/goals_wc_uefa.xlsx
@@ -633,7 +633,7 @@
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr">
         <is>
-          <t>['Argentina', 'Bulgaria']</t>
+          <t>['Bulgaria', 'Italy', 'Argentina']</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -669,11 +669,11 @@
       <c r="Y2" t="inlineStr"/>
       <c r="Z2" t="inlineStr"/>
       <c r="AA2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>['Argentina', 'Bulgaria']</t>
+          <t>['Argentina', 'Bulgaria', 'Italy']</t>
         </is>
       </c>
       <c r="AC2" t="n">
@@ -729,7 +729,7 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>['Italy', 'Argentina']</t>
+          <t>['Bulgaria', 'Italy', 'Argentina']</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
@@ -789,21 +789,21 @@
         <v>1</v>
       </c>
       <c r="AA3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>['Argentina', 'Italy']</t>
+          <t>['Argentina', 'Italy', 'Bulgaria']</t>
         </is>
       </c>
       <c r="AC3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE3" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AF3" t="n">
         <v>-1</v>
@@ -857,7 +857,7 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>['Italy', 'Argentina']</t>
+          <t>['Bulgaria', 'Italy', 'Argentina']</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
@@ -917,21 +917,21 @@
         <v>0</v>
       </c>
       <c r="AA4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>['Argentina', 'Italy']</t>
+          <t>['Argentina', 'Italy', 'Bulgaria']</t>
         </is>
       </c>
       <c r="AC4" t="n">
         <v>0</v>
       </c>
       <c r="AD4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE4" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="AF4" t="n">
         <v>-2</v>
@@ -985,7 +985,7 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>['Italy', 'Argentina']</t>
+          <t>['Bulgaria', 'Italy', 'Argentina']</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
@@ -1045,21 +1045,21 @@
         <v>1</v>
       </c>
       <c r="AA5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>['Argentina', 'Italy']</t>
+          <t>['Argentina', 'Italy', 'Bulgaria']</t>
         </is>
       </c>
       <c r="AC5" t="n">
         <v>0</v>
       </c>
       <c r="AD5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE5" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AF5" t="n">
         <v>-1</v>
@@ -1113,7 +1113,7 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>['Italy', 'Argentina']</t>
+          <t>['Bulgaria', 'Italy', 'Argentina']</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
@@ -1173,21 +1173,21 @@
         <v>0</v>
       </c>
       <c r="AA6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB6" t="inlineStr">
         <is>
-          <t>['Argentina', 'Italy']</t>
+          <t>['Argentina', 'Italy', 'Bulgaria']</t>
         </is>
       </c>
       <c r="AC6" t="n">
         <v>0</v>
       </c>
       <c r="AD6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE6" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="AF6" t="n">
         <v>-2</v>
@@ -1241,7 +1241,7 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>['Italy', 'Argentina']</t>
+          <t>['Bulgaria', 'Italy', 'Argentina']</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
@@ -1301,24 +1301,24 @@
         <v>0</v>
       </c>
       <c r="AA7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB7" t="inlineStr">
         <is>
-          <t>['Argentina', 'Italy']</t>
+          <t>['Argentina', 'Italy', 'Bulgaria']</t>
         </is>
       </c>
       <c r="AC7" t="n">
         <v>0</v>
       </c>
       <c r="AD7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE7" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="AF7" t="n">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="AG7" t="n">
         <v>1873</v>
@@ -1369,7 +1369,7 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>['Italy', 'Argentina']</t>
+          <t>['Bulgaria', 'Italy', 'Argentina']</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
@@ -1429,24 +1429,24 @@
         <v>0</v>
       </c>
       <c r="AA8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>['Argentina', 'Italy']</t>
+          <t>['Argentina', 'Italy', 'Bulgaria']</t>
         </is>
       </c>
       <c r="AC8" t="n">
         <v>0</v>
       </c>
       <c r="AD8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE8" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AF8" t="n">
         <v>-2</v>
-      </c>
-      <c r="AF8" t="n">
-        <v>-4</v>
       </c>
       <c r="AG8" t="n">
         <v>1623</v>
@@ -1497,7 +1497,7 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>['Italy', 'Argentina']</t>
+          <t>['Bulgaria', 'Italy', 'Argentina']</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
@@ -1557,24 +1557,24 @@
         <v>0</v>
       </c>
       <c r="AA9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB9" t="inlineStr">
         <is>
-          <t>['Argentina', 'Italy']</t>
+          <t>['Argentina', 'Italy', 'Bulgaria']</t>
         </is>
       </c>
       <c r="AC9" t="n">
         <v>0</v>
       </c>
       <c r="AD9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE9" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="AF9" t="n">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="AG9" t="n">
         <v>1623</v>
@@ -1611,7 +1611,7 @@
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr">
         <is>
-          <t>['Paraguay', 'Mexico']</t>
+          <t>['Mexico', 'Paraguay', 'Belgium']</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
@@ -1647,11 +1647,11 @@
       <c r="Y10" t="inlineStr"/>
       <c r="Z10" t="inlineStr"/>
       <c r="AA10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB10" t="inlineStr">
         <is>
-          <t>['Mexico', 'Paraguay']</t>
+          <t>['Mexico', 'Paraguay', 'Belgium']</t>
         </is>
       </c>
       <c r="AC10" t="n">
@@ -1707,7 +1707,7 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>['Mexico', 'Belgium']</t>
+          <t>['Mexico', 'Paraguay', 'Belgium']</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
@@ -1767,24 +1767,24 @@
         <v>1</v>
       </c>
       <c r="AA11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB11" t="inlineStr">
         <is>
-          <t>['Mexico', 'Belgium']</t>
+          <t>['Mexico', 'Belgium', 'Paraguay']</t>
         </is>
       </c>
       <c r="AC11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE11" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="AF11" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="AG11" t="n">
         <v>1811</v>
@@ -1835,7 +1835,7 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>['Paraguay', 'Mexico']</t>
+          <t>['Mexico', 'Paraguay', 'Belgium']</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
@@ -1895,24 +1895,24 @@
         <v>1</v>
       </c>
       <c r="AA12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB12" t="inlineStr">
         <is>
-          <t>['Mexico', 'Paraguay']</t>
+          <t>['Mexico', 'Paraguay', 'Belgium']</t>
         </is>
       </c>
       <c r="AC12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AE12" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="AF12" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="AG12" t="n">
         <v>1811</v>
@@ -1963,7 +1963,7 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>['Paraguay', 'Mexico']</t>
+          <t>['Mexico', 'Paraguay', 'Belgium']</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
@@ -2023,24 +2023,24 @@
         <v>0</v>
       </c>
       <c r="AA13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB13" t="inlineStr">
         <is>
-          <t>['Mexico', 'Paraguay']</t>
+          <t>['Mexico', 'Paraguay', 'Belgium']</t>
         </is>
       </c>
       <c r="AC13" t="n">
         <v>0</v>
       </c>
       <c r="AD13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AE13" t="n">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="AF13" t="n">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="AG13" t="n">
         <v>1616</v>
@@ -2091,7 +2091,7 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>['Mexico', 'Belgium']</t>
+          <t>['Mexico', 'Paraguay', 'Belgium']</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
@@ -2151,24 +2151,24 @@
         <v>0</v>
       </c>
       <c r="AA14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB14" t="inlineStr">
         <is>
-          <t>['Mexico', 'Belgium']</t>
+          <t>['Mexico', 'Belgium', 'Paraguay']</t>
         </is>
       </c>
       <c r="AC14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD14" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AE14" t="n">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="AF14" t="n">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="AG14" t="n">
         <v>1811</v>
@@ -2219,7 +2219,7 @@
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>['Paraguay', 'Mexico']</t>
+          <t>['Mexico', 'Paraguay', 'Belgium']</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
@@ -2279,24 +2279,24 @@
         <v>0</v>
       </c>
       <c r="AA15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB15" t="inlineStr">
         <is>
-          <t>['Mexico', 'Paraguay']</t>
+          <t>['Mexico', 'Paraguay', 'Belgium']</t>
         </is>
       </c>
       <c r="AC15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD15" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AE15" t="n">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="AF15" t="n">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="AG15" t="n">
         <v>1811</v>
@@ -2333,7 +2333,7 @@
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr">
         <is>
-          <t>['Soviet Union', 'France']</t>
+          <t>['Soviet Union', 'France', 'Hungary']</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
@@ -2369,11 +2369,11 @@
       <c r="Y16" t="inlineStr"/>
       <c r="Z16" t="inlineStr"/>
       <c r="AA16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB16" t="inlineStr">
         <is>
-          <t>['Soviet Union', 'France']</t>
+          <t>['Soviet Union', 'France', 'Hungary']</t>
         </is>
       </c>
       <c r="AC16" t="n">
@@ -2429,7 +2429,7 @@
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>['Soviet Union', 'France']</t>
+          <t>['Soviet Union', 'France', 'Hungary']</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
@@ -2489,11 +2489,11 @@
         <v>1</v>
       </c>
       <c r="AA17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB17" t="inlineStr">
         <is>
-          <t>['France', 'Soviet Union']</t>
+          <t>['France', 'Soviet Union', 'Hungary']</t>
         </is>
       </c>
       <c r="AC17" t="n">
@@ -2503,10 +2503,10 @@
         <v>0</v>
       </c>
       <c r="AE17" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="AF17" t="n">
-        <v>-11</v>
+        <v>2</v>
       </c>
       <c r="AG17" t="n">
         <v>1892</v>
@@ -2557,7 +2557,7 @@
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>['Soviet Union', 'France']</t>
+          <t>['Soviet Union', 'France', 'Hungary']</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
@@ -2617,11 +2617,11 @@
         <v>0</v>
       </c>
       <c r="AA18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB18" t="inlineStr">
         <is>
-          <t>['Soviet Union', 'France']</t>
+          <t>['Soviet Union', 'France', 'Hungary']</t>
         </is>
       </c>
       <c r="AC18" t="n">
@@ -2631,10 +2631,10 @@
         <v>0</v>
       </c>
       <c r="AE18" t="n">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="AF18" t="n">
-        <v>-7</v>
+        <v>1</v>
       </c>
       <c r="AG18" t="n">
         <v>1942</v>
@@ -2685,7 +2685,7 @@
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>['Soviet Union', 'France']</t>
+          <t>['Soviet Union', 'France', 'Hungary']</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
@@ -2745,11 +2745,11 @@
         <v>0</v>
       </c>
       <c r="AA19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB19" t="inlineStr">
         <is>
-          <t>['Soviet Union', 'France']</t>
+          <t>['Soviet Union', 'France', 'Hungary']</t>
         </is>
       </c>
       <c r="AC19" t="n">
@@ -2759,10 +2759,10 @@
         <v>0</v>
       </c>
       <c r="AE19" t="n">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="AF19" t="n">
-        <v>-9</v>
+        <v>2</v>
       </c>
       <c r="AG19" t="n">
         <v>1892</v>
@@ -2813,7 +2813,7 @@
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>['Soviet Union', 'France']</t>
+          <t>['Soviet Union', 'France', 'Hungary']</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
@@ -2873,11 +2873,11 @@
         <v>0</v>
       </c>
       <c r="AA20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB20" t="inlineStr">
         <is>
-          <t>['Soviet Union', 'France']</t>
+          <t>['Soviet Union', 'France', 'Hungary']</t>
         </is>
       </c>
       <c r="AC20" t="n">
@@ -2887,10 +2887,10 @@
         <v>0</v>
       </c>
       <c r="AE20" t="n">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="AF20" t="n">
-        <v>-9</v>
+        <v>1</v>
       </c>
       <c r="AG20" t="n">
         <v>1942</v>
@@ -2941,7 +2941,7 @@
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>['Soviet Union', 'France']</t>
+          <t>['Soviet Union', 'France', 'Hungary']</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
@@ -3001,11 +3001,11 @@
         <v>0</v>
       </c>
       <c r="AA21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB21" t="inlineStr">
         <is>
-          <t>['Soviet Union', 'France']</t>
+          <t>['Soviet Union', 'France', 'Hungary']</t>
         </is>
       </c>
       <c r="AC21" t="n">
@@ -3015,10 +3015,10 @@
         <v>0</v>
       </c>
       <c r="AE21" t="n">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="AF21" t="n">
-        <v>-11</v>
+        <v>2</v>
       </c>
       <c r="AG21" t="n">
         <v>1892</v>
@@ -3055,7 +3055,7 @@
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr">
         <is>
-          <t>['Spain', 'Brazil']</t>
+          <t>['Brazil', 'Northern Ireland', 'Spain']</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
@@ -3091,11 +3091,11 @@
       <c r="Y22" t="inlineStr"/>
       <c r="Z22" t="inlineStr"/>
       <c r="AA22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB22" t="inlineStr">
         <is>
-          <t>['Brazil', 'Spain']</t>
+          <t>['Brazil', 'Spain', 'Northern Ireland']</t>
         </is>
       </c>
       <c r="AC22" t="n">
@@ -3151,7 +3151,7 @@
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>['Spain', 'Brazil']</t>
+          <t>['Algeria', 'Brazil', 'Spain']</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
@@ -3211,18 +3211,18 @@
         <v>0</v>
       </c>
       <c r="AA23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB23" t="inlineStr">
         <is>
-          <t>['Brazil', 'Spain']</t>
+          <t>['Brazil', 'Spain', 'Algeria']</t>
         </is>
       </c>
       <c r="AC23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE23" t="n">
         <v>-1</v>
@@ -3279,7 +3279,7 @@
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>['Spain', 'Brazil']</t>
+          <t>['Brazil', 'Northern Ireland', 'Spain']</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
@@ -3347,10 +3347,10 @@
         </is>
       </c>
       <c r="AC24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AE24" t="n">
         <v>-3</v>
@@ -3407,7 +3407,7 @@
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>['Spain', 'Brazil']</t>
+          <t>['Algeria', 'Brazil', 'Spain']</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
@@ -3478,7 +3478,7 @@
         <v>0</v>
       </c>
       <c r="AD25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AE25" t="n">
         <v>-3</v>
@@ -3535,7 +3535,7 @@
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>['Spain', 'Brazil']</t>
+          <t>['Brazil', 'Northern Ireland', 'Spain']</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
@@ -3606,7 +3606,7 @@
         <v>0</v>
       </c>
       <c r="AD26" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AE26" t="n">
         <v>-3</v>
@@ -3663,7 +3663,7 @@
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>['Spain', 'Brazil']</t>
+          <t>['Brazil', 'Northern Ireland', 'Spain']</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
@@ -3734,7 +3734,7 @@
         <v>0</v>
       </c>
       <c r="AD27" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AE27" t="n">
         <v>-3</v>
@@ -3791,7 +3791,7 @@
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>['Spain', 'Brazil']</t>
+          <t>['Brazil', 'Northern Ireland', 'Spain']</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
@@ -3862,7 +3862,7 @@
         <v>0</v>
       </c>
       <c r="AD28" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AE28" t="n">
         <v>-3</v>
@@ -3905,7 +3905,7 @@
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr">
         <is>
-          <t>['West Germany', 'Denmark']</t>
+          <t>['Denmark', 'Uruguay', 'West Germany']</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
@@ -3941,11 +3941,11 @@
       <c r="Y29" t="inlineStr"/>
       <c r="Z29" t="inlineStr"/>
       <c r="AA29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB29" t="inlineStr">
         <is>
-          <t>['Denmark', 'West Germany']</t>
+          <t>['Denmark', 'West Germany', 'Uruguay']</t>
         </is>
       </c>
       <c r="AC29" t="n">
@@ -4001,7 +4001,7 @@
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>['West Germany', 'Denmark']</t>
+          <t>['Denmark', 'Uruguay', 'West Germany']</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
@@ -4061,11 +4061,11 @@
         <v>1</v>
       </c>
       <c r="AA30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB30" t="inlineStr">
         <is>
-          <t>['Denmark', 'West Germany']</t>
+          <t>['Denmark', 'West Germany', 'Uruguay']</t>
         </is>
       </c>
       <c r="AC30" t="n">
@@ -4078,7 +4078,7 @@
         <v>-1</v>
       </c>
       <c r="AF30" t="n">
-        <v>-5</v>
+        <v>3</v>
       </c>
       <c r="AG30" t="n">
         <v>1892</v>
@@ -4129,7 +4129,7 @@
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>['West Germany', 'Denmark']</t>
+          <t>['Denmark', 'Uruguay', 'West Germany']</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
@@ -4189,11 +4189,11 @@
         <v>1</v>
       </c>
       <c r="AA31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB31" t="inlineStr">
         <is>
-          <t>['Denmark', 'West Germany']</t>
+          <t>['Denmark', 'West Germany', 'Uruguay']</t>
         </is>
       </c>
       <c r="AC31" t="n">
@@ -4206,7 +4206,7 @@
         <v>-1</v>
       </c>
       <c r="AF31" t="n">
-        <v>-4</v>
+        <v>3</v>
       </c>
       <c r="AG31" t="n">
         <v>1892</v>
@@ -4243,7 +4243,7 @@
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr">
         <is>
-          <t>['Poland', 'Portugal']</t>
+          <t>['Portugal', 'Morocco', 'Poland']</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
@@ -4279,11 +4279,11 @@
       <c r="Y32" t="inlineStr"/>
       <c r="Z32" t="inlineStr"/>
       <c r="AA32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB32" t="inlineStr">
         <is>
-          <t>['Poland', 'Portugal']</t>
+          <t>['Poland', 'Portugal', 'Morocco']</t>
         </is>
       </c>
       <c r="AC32" t="n">
@@ -4339,7 +4339,7 @@
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>['Poland', 'Portugal']</t>
+          <t>['England', 'Portugal', 'Poland']</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
@@ -4399,18 +4399,18 @@
         <v>1</v>
       </c>
       <c r="AA33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB33" t="inlineStr">
         <is>
-          <t>['Poland', 'Portugal']</t>
+          <t>['Poland', 'Portugal', 'England']</t>
         </is>
       </c>
       <c r="AC33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE33" t="n">
         <v>0</v>
@@ -4467,7 +4467,7 @@
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>['Portugal', 'England']</t>
+          <t>['England', 'Portugal', 'Morocco']</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
@@ -4527,24 +4527,24 @@
         <v>0</v>
       </c>
       <c r="AA34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB34" t="inlineStr">
         <is>
-          <t>['England', 'Portugal']</t>
+          <t>['England', 'Portugal', 'Morocco']</t>
         </is>
       </c>
       <c r="AC34" t="n">
         <v>1</v>
       </c>
       <c r="AD34" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE34" t="n">
         <v>0</v>
       </c>
       <c r="AF34" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AG34" t="n">
         <v>1992</v>
@@ -4595,7 +4595,7 @@
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>['Morocco', 'England']</t>
+          <t>['England', 'Morocco', 'Poland']</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
@@ -4655,24 +4655,24 @@
         <v>0</v>
       </c>
       <c r="AA35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB35" t="inlineStr">
         <is>
-          <t>['Morocco', 'England']</t>
+          <t>['Morocco', 'England', 'Poland']</t>
         </is>
       </c>
       <c r="AC35" t="n">
         <v>1</v>
       </c>
       <c r="AD35" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AE35" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AF35" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AG35" t="n">
         <v>1807</v>
@@ -4723,7 +4723,7 @@
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>['Morocco', 'England']</t>
+          <t>['England', 'Morocco', 'Poland']</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
@@ -4783,24 +4783,24 @@
         <v>0</v>
       </c>
       <c r="AA36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB36" t="inlineStr">
         <is>
-          <t>['Morocco', 'England']</t>
+          <t>['Morocco', 'England', 'Poland']</t>
         </is>
       </c>
       <c r="AC36" t="n">
         <v>0</v>
       </c>
       <c r="AD36" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AE36" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AF36" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="AG36" t="n">
         <v>1807</v>
@@ -4851,7 +4851,7 @@
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>['Morocco', 'England']</t>
+          <t>['England', 'Morocco', 'Poland']</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
@@ -4911,24 +4911,24 @@
         <v>0</v>
       </c>
       <c r="AA37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB37" t="inlineStr">
         <is>
-          <t>['Morocco', 'England']</t>
+          <t>['Morocco', 'England', 'Poland']</t>
         </is>
       </c>
       <c r="AC37" t="n">
         <v>0</v>
       </c>
       <c r="AD37" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AE37" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AF37" t="n">
-        <v>-4</v>
+        <v>0</v>
       </c>
       <c r="AG37" t="n">
         <v>1992</v>
@@ -4979,7 +4979,7 @@
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>['Morocco', 'England']</t>
+          <t>['England', 'Morocco', 'Poland']</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
@@ -5039,24 +5039,24 @@
         <v>0</v>
       </c>
       <c r="AA38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB38" t="inlineStr">
         <is>
-          <t>['Morocco', 'England']</t>
+          <t>['Morocco', 'England', 'Poland']</t>
         </is>
       </c>
       <c r="AC38" t="n">
         <v>0</v>
       </c>
       <c r="AD38" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AE38" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AF38" t="n">
-        <v>-4</v>
+        <v>-1</v>
       </c>
       <c r="AG38" t="n">
         <v>1807</v>
@@ -5107,7 +5107,7 @@
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>['Morocco', 'England']</t>
+          <t>['England', 'Morocco', 'Poland']</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
@@ -5167,24 +5167,24 @@
         <v>0</v>
       </c>
       <c r="AA39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB39" t="inlineStr">
         <is>
-          <t>['Morocco', 'England']</t>
+          <t>['Morocco', 'England', 'Poland']</t>
         </is>
       </c>
       <c r="AC39" t="n">
         <v>0</v>
       </c>
       <c r="AD39" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AE39" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AF39" t="n">
-        <v>-4</v>
+        <v>0</v>
       </c>
       <c r="AG39" t="n">
         <v>1807</v>
@@ -5221,7 +5221,7 @@
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr">
         <is>
-          <t>['Czechoslovakia', 'Italy']</t>
+          <t>['Austria', 'Italy', 'Czechoslovakia']</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
@@ -5317,7 +5317,7 @@
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>['Czechoslovakia', 'Italy']</t>
+          <t>['Austria', 'Italy', 'Czechoslovakia']</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
@@ -5445,7 +5445,7 @@
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>['Czechoslovakia', 'Italy']</t>
+          <t>['Austria', 'Italy', 'Czechoslovakia']</t>
         </is>
       </c>
       <c r="K42" t="inlineStr">
@@ -5573,7 +5573,7 @@
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>['Czechoslovakia', 'Italy']</t>
+          <t>['Austria', 'Italy', 'Czechoslovakia']</t>
         </is>
       </c>
       <c r="K43" t="inlineStr">
@@ -5633,24 +5633,24 @@
         <v>0</v>
       </c>
       <c r="AA43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB43" t="inlineStr">
         <is>
-          <t>['Italy', 'Czechoslovakia']</t>
+          <t>['Italy', 'Czechoslovakia', 'Austria']</t>
         </is>
       </c>
       <c r="AC43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE43" t="n">
         <v>-2</v>
       </c>
       <c r="AF43" t="n">
-        <v>-4</v>
+        <v>-7</v>
       </c>
       <c r="AG43" t="n">
         <v>1766</v>
@@ -5701,7 +5701,7 @@
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>['Czechoslovakia', 'Italy']</t>
+          <t>['Austria', 'Italy', 'Czechoslovakia']</t>
         </is>
       </c>
       <c r="K44" t="inlineStr">
@@ -5761,24 +5761,24 @@
         <v>0</v>
       </c>
       <c r="AA44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB44" t="inlineStr">
         <is>
-          <t>['Italy', 'Czechoslovakia']</t>
+          <t>['Italy', 'Czechoslovakia', 'Austria']</t>
         </is>
       </c>
       <c r="AC44" t="n">
         <v>0</v>
       </c>
       <c r="AD44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE44" t="n">
         <v>-2</v>
       </c>
       <c r="AF44" t="n">
-        <v>-3</v>
+        <v>-7</v>
       </c>
       <c r="AG44" t="n">
         <v>1966</v>
@@ -5829,7 +5829,7 @@
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>['Czechoslovakia', 'Italy']</t>
+          <t>['Austria', 'Italy', 'Czechoslovakia']</t>
         </is>
       </c>
       <c r="K45" t="inlineStr">
@@ -5897,10 +5897,10 @@
         </is>
       </c>
       <c r="AC45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD45" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AE45" t="n">
         <v>-2</v>
@@ -5943,7 +5943,7 @@
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr">
         <is>
-          <t>['Romania', 'Cameroon']</t>
+          <t>['Romania', 'Cameroon', 'Argentina']</t>
         </is>
       </c>
       <c r="K46" t="inlineStr">
@@ -5979,11 +5979,11 @@
       <c r="Y46" t="inlineStr"/>
       <c r="Z46" t="inlineStr"/>
       <c r="AA46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB46" t="inlineStr">
         <is>
-          <t>['Cameroon', 'Romania']</t>
+          <t>['Cameroon', 'Romania', 'Argentina']</t>
         </is>
       </c>
       <c r="AC46" t="n">
@@ -6039,7 +6039,7 @@
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>['Romania', 'Cameroon']</t>
+          <t>['Romania', 'Cameroon', 'Argentina']</t>
         </is>
       </c>
       <c r="K47" t="inlineStr">
@@ -6099,11 +6099,11 @@
         <v>2</v>
       </c>
       <c r="AA47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB47" t="inlineStr">
         <is>
-          <t>['Cameroon', 'Romania']</t>
+          <t>['Cameroon', 'Romania', 'Argentina']</t>
         </is>
       </c>
       <c r="AC47" t="n">
@@ -6113,10 +6113,10 @@
         <v>0</v>
       </c>
       <c r="AE47" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AF47" t="n">
-        <v>0</v>
+        <v>-4</v>
       </c>
       <c r="AG47" t="n">
         <v>1634</v>
@@ -6167,7 +6167,7 @@
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>['Romania', 'Cameroon']</t>
+          <t>['Romania', 'Cameroon', 'Argentina']</t>
         </is>
       </c>
       <c r="K48" t="inlineStr">
@@ -6227,11 +6227,11 @@
         <v>2</v>
       </c>
       <c r="AA48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB48" t="inlineStr">
         <is>
-          <t>['Cameroon', 'Romania']</t>
+          <t>['Cameroon', 'Romania', 'Argentina']</t>
         </is>
       </c>
       <c r="AC48" t="n">
@@ -6241,10 +6241,10 @@
         <v>0</v>
       </c>
       <c r="AE48" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AF48" t="n">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="AG48" t="n">
         <v>1634</v>
@@ -6295,7 +6295,7 @@
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>['Romania', 'Cameroon']</t>
+          <t>['Romania', 'Cameroon', 'Argentina']</t>
         </is>
       </c>
       <c r="K49" t="inlineStr">
@@ -6355,11 +6355,11 @@
         <v>2</v>
       </c>
       <c r="AA49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB49" t="inlineStr">
         <is>
-          <t>['Cameroon', 'Romania']</t>
+          <t>['Cameroon', 'Romania', 'Argentina']</t>
         </is>
       </c>
       <c r="AC49" t="n">
@@ -6369,10 +6369,10 @@
         <v>0</v>
       </c>
       <c r="AE49" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AF49" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AG49" t="n">
         <v>1634</v>
@@ -6423,7 +6423,7 @@
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>['Cameroon', 'Argentina']</t>
+          <t>['Romania', 'Cameroon', 'Argentina']</t>
         </is>
       </c>
       <c r="K50" t="inlineStr">
@@ -6483,24 +6483,24 @@
         <v>2</v>
       </c>
       <c r="AA50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB50" t="inlineStr">
         <is>
-          <t>['Cameroon', 'Argentina']</t>
+          <t>['Cameroon', 'Argentina', 'Romania']</t>
         </is>
       </c>
       <c r="AC50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE50" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AF50" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="AG50" t="n">
         <v>1795</v>
@@ -6551,7 +6551,7 @@
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>['Cameroon', 'Argentina']</t>
+          <t>['Romania', 'Cameroon', 'Argentina']</t>
         </is>
       </c>
       <c r="K51" t="inlineStr">
@@ -6611,24 +6611,24 @@
         <v>2</v>
       </c>
       <c r="AA51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB51" t="inlineStr">
         <is>
-          <t>['Cameroon', 'Argentina']</t>
+          <t>['Cameroon', 'Argentina', 'Romania']</t>
         </is>
       </c>
       <c r="AC51" t="n">
         <v>0</v>
       </c>
       <c r="AD51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE51" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AF51" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AG51" t="n">
         <v>1634</v>
@@ -6679,7 +6679,7 @@
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>['Romania', 'Cameroon']</t>
+          <t>['Romania', 'Cameroon', 'Argentina']</t>
         </is>
       </c>
       <c r="K52" t="inlineStr">
@@ -6739,24 +6739,24 @@
         <v>2</v>
       </c>
       <c r="AA52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB52" t="inlineStr">
         <is>
-          <t>['Cameroon', 'Romania']</t>
+          <t>['Cameroon', 'Romania', 'Argentina']</t>
         </is>
       </c>
       <c r="AC52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD52" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AE52" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AF52" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AG52" t="n">
         <v>1795</v>
@@ -6793,7 +6793,7 @@
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr">
         <is>
-          <t>['Costa Rica', 'Brazil']</t>
+          <t>['Costa Rica', 'Brazil', 'Scotland']</t>
         </is>
       </c>
       <c r="K53" t="inlineStr">
@@ -6829,11 +6829,11 @@
       <c r="Y53" t="inlineStr"/>
       <c r="Z53" t="inlineStr"/>
       <c r="AA53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB53" t="inlineStr">
         <is>
-          <t>['Brazil', 'Costa Rica']</t>
+          <t>['Brazil', 'Costa Rica', 'Scotland']</t>
         </is>
       </c>
       <c r="AC53" t="n">
@@ -6889,7 +6889,7 @@
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>['Scotland', 'Brazil']</t>
+          <t>['Sweden', 'Brazil', 'Scotland']</t>
         </is>
       </c>
       <c r="K54" t="inlineStr">
@@ -6949,11 +6949,11 @@
         <v>0</v>
       </c>
       <c r="AA54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB54" t="inlineStr">
         <is>
-          <t>['Brazil', 'Scotland']</t>
+          <t>['Brazil', 'Scotland', 'Sweden']</t>
         </is>
       </c>
       <c r="AC54" t="n">
@@ -6963,10 +6963,10 @@
         <v>1</v>
       </c>
       <c r="AE54" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AF54" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AG54" t="n">
         <v>1953</v>
@@ -7017,7 +7017,7 @@
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>['Costa Rica', 'Brazil']</t>
+          <t>['Costa Rica', 'Brazil', 'Scotland']</t>
         </is>
       </c>
       <c r="K55" t="inlineStr">
@@ -7077,11 +7077,11 @@
         <v>1</v>
       </c>
       <c r="AA55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB55" t="inlineStr">
         <is>
-          <t>['Brazil', 'Costa Rica']</t>
+          <t>['Brazil', 'Costa Rica', 'Scotland']</t>
         </is>
       </c>
       <c r="AC55" t="n">
@@ -7091,10 +7091,10 @@
         <v>2</v>
       </c>
       <c r="AE55" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AF55" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AG55" t="n">
         <v>1953</v>
@@ -7145,7 +7145,7 @@
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>['Costa Rica', 'Brazil']</t>
+          <t>['Costa Rica', 'Brazil', 'Scotland']</t>
         </is>
       </c>
       <c r="K56" t="inlineStr">
@@ -7213,10 +7213,10 @@
         </is>
       </c>
       <c r="AC56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD56" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AE56" t="n">
         <v>-1</v>
@@ -7273,7 +7273,7 @@
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>['Costa Rica', 'Brazil']</t>
+          <t>['Costa Rica', 'Brazil', 'Scotland']</t>
         </is>
       </c>
       <c r="K57" t="inlineStr">
@@ -7344,7 +7344,7 @@
         <v>0</v>
       </c>
       <c r="AD57" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AE57" t="n">
         <v>-2</v>
@@ -7387,7 +7387,7 @@
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr">
         <is>
-          <t>['West Germany', 'Yugoslavia']</t>
+          <t>['Yugoslavia', 'West Germany', 'Colombia']</t>
         </is>
       </c>
       <c r="K58" t="inlineStr">
@@ -7423,11 +7423,11 @@
       <c r="Y58" t="inlineStr"/>
       <c r="Z58" t="inlineStr"/>
       <c r="AA58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB58" t="inlineStr">
         <is>
-          <t>['West Germany', 'Yugoslavia']</t>
+          <t>['West Germany', 'Yugoslavia', 'Colombia']</t>
         </is>
       </c>
       <c r="AC58" t="n">
@@ -7483,7 +7483,7 @@
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>['West Germany', 'Yugoslavia']</t>
+          <t>['Yugoslavia', 'West Germany', 'Colombia']</t>
         </is>
       </c>
       <c r="K59" t="inlineStr">
@@ -7543,11 +7543,11 @@
         <v>0</v>
       </c>
       <c r="AA59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB59" t="inlineStr">
         <is>
-          <t>['West Germany', 'Yugoslavia']</t>
+          <t>['West Germany', 'Yugoslavia', 'Colombia']</t>
         </is>
       </c>
       <c r="AC59" t="n">
@@ -7557,10 +7557,10 @@
         <v>0</v>
       </c>
       <c r="AE59" t="n">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="AF59" t="n">
-        <v>2</v>
+        <v>-8</v>
       </c>
       <c r="AG59" t="n">
         <v>1894</v>
@@ -7611,7 +7611,7 @@
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>['West Germany', 'Yugoslavia']</t>
+          <t>['Yugoslavia', 'West Germany', 'Colombia']</t>
         </is>
       </c>
       <c r="K60" t="inlineStr">
@@ -7671,11 +7671,11 @@
         <v>0</v>
       </c>
       <c r="AA60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB60" t="inlineStr">
         <is>
-          <t>['West Germany', 'Yugoslavia']</t>
+          <t>['West Germany', 'Yugoslavia', 'Colombia']</t>
         </is>
       </c>
       <c r="AC60" t="n">
@@ -7685,10 +7685,10 @@
         <v>0</v>
       </c>
       <c r="AE60" t="n">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="AF60" t="n">
-        <v>1</v>
+        <v>-9</v>
       </c>
       <c r="AG60" t="n">
         <v>1894</v>
@@ -7739,7 +7739,7 @@
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>['West Germany', 'Yugoslavia']</t>
+          <t>['Yugoslavia', 'West Germany', 'Colombia']</t>
         </is>
       </c>
       <c r="K61" t="inlineStr">
@@ -7799,11 +7799,11 @@
         <v>0</v>
       </c>
       <c r="AA61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB61" t="inlineStr">
         <is>
-          <t>['West Germany', 'Yugoslavia']</t>
+          <t>['West Germany', 'Yugoslavia', 'Colombia']</t>
         </is>
       </c>
       <c r="AC61" t="n">
@@ -7813,10 +7813,10 @@
         <v>0</v>
       </c>
       <c r="AE61" t="n">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="AF61" t="n">
-        <v>2</v>
+        <v>-8</v>
       </c>
       <c r="AG61" t="n">
         <v>1894</v>
@@ -7867,7 +7867,7 @@
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>['West Germany', 'Yugoslavia']</t>
+          <t>['Yugoslavia', 'West Germany', 'Colombia']</t>
         </is>
       </c>
       <c r="K62" t="inlineStr">
@@ -7927,11 +7927,11 @@
         <v>0</v>
       </c>
       <c r="AA62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB62" t="inlineStr">
         <is>
-          <t>['West Germany', 'Yugoslavia']</t>
+          <t>['West Germany', 'Yugoslavia', 'Colombia']</t>
         </is>
       </c>
       <c r="AC62" t="n">
@@ -7941,10 +7941,10 @@
         <v>0</v>
       </c>
       <c r="AE62" t="n">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="AF62" t="n">
-        <v>1</v>
+        <v>-9</v>
       </c>
       <c r="AG62" t="n">
         <v>1894</v>
@@ -7995,7 +7995,7 @@
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>['West Germany', 'Yugoslavia']</t>
+          <t>['Yugoslavia', 'West Germany', 'Colombia']</t>
         </is>
       </c>
       <c r="K63" t="inlineStr">
@@ -8055,11 +8055,11 @@
         <v>0</v>
       </c>
       <c r="AA63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB63" t="inlineStr">
         <is>
-          <t>['West Germany', 'Yugoslavia']</t>
+          <t>['West Germany', 'Yugoslavia', 'Colombia']</t>
         </is>
       </c>
       <c r="AC63" t="n">
@@ -8072,7 +8072,7 @@
         <v>-2</v>
       </c>
       <c r="AF63" t="n">
-        <v>0</v>
+        <v>-8</v>
       </c>
       <c r="AG63" t="n">
         <v>1995</v>
@@ -8123,7 +8123,7 @@
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>['West Germany', 'Yugoslavia']</t>
+          <t>['Yugoslavia', 'West Germany', 'Colombia']</t>
         </is>
       </c>
       <c r="K64" t="inlineStr">
@@ -8183,11 +8183,11 @@
         <v>0</v>
       </c>
       <c r="AA64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB64" t="inlineStr">
         <is>
-          <t>['West Germany', 'Yugoslavia']</t>
+          <t>['West Germany', 'Yugoslavia', 'Colombia']</t>
         </is>
       </c>
       <c r="AC64" t="n">
@@ -8197,10 +8197,10 @@
         <v>0</v>
       </c>
       <c r="AE64" t="n">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="AF64" t="n">
-        <v>1</v>
+        <v>-9</v>
       </c>
       <c r="AG64" t="n">
         <v>1995</v>
@@ -8251,7 +8251,7 @@
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>['West Germany', 'Yugoslavia']</t>
+          <t>['Yugoslavia', 'West Germany', 'Colombia']</t>
         </is>
       </c>
       <c r="K65" t="inlineStr">
@@ -8311,11 +8311,11 @@
         <v>0</v>
       </c>
       <c r="AA65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB65" t="inlineStr">
         <is>
-          <t>['West Germany', 'Yugoslavia']</t>
+          <t>['West Germany', 'Yugoslavia', 'Colombia']</t>
         </is>
       </c>
       <c r="AC65" t="n">
@@ -8325,10 +8325,10 @@
         <v>0</v>
       </c>
       <c r="AE65" t="n">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="AF65" t="n">
-        <v>0</v>
+        <v>-10</v>
       </c>
       <c r="AG65" t="n">
         <v>1894</v>
@@ -8365,7 +8365,7 @@
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr">
         <is>
-          <t>['Spain', 'Belgium']</t>
+          <t>['Uruguay', 'Belgium', 'Spain']</t>
         </is>
       </c>
       <c r="K66" t="inlineStr">
@@ -8461,7 +8461,7 @@
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>['Spain', 'Belgium']</t>
+          <t>['Uruguay', 'Belgium', 'Spain']</t>
         </is>
       </c>
       <c r="K67" t="inlineStr">
@@ -8589,7 +8589,7 @@
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>['Spain', 'Belgium']</t>
+          <t>['Uruguay', 'Belgium', 'Spain']</t>
         </is>
       </c>
       <c r="K68" t="inlineStr">
@@ -8717,7 +8717,7 @@
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>['Spain', 'Belgium']</t>
+          <t>['Uruguay', 'Belgium', 'Spain']</t>
         </is>
       </c>
       <c r="K69" t="inlineStr">
@@ -8845,7 +8845,7 @@
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>['Spain', 'Belgium']</t>
+          <t>['Uruguay', 'Belgium', 'Spain']</t>
         </is>
       </c>
       <c r="K70" t="inlineStr">
@@ -8905,21 +8905,21 @@
         <v>0</v>
       </c>
       <c r="AA70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB70" t="inlineStr">
         <is>
-          <t>['Spain', 'Belgium']</t>
+          <t>['Spain', 'Belgium', 'Uruguay']</t>
         </is>
       </c>
       <c r="AC70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE70" t="n">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="AF70" t="n">
         <v>-4</v>
@@ -8959,7 +8959,7 @@
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr">
         <is>
-          <t>['Netherlands', 'England']</t>
+          <t>['England', 'Ireland', 'Netherlands']</t>
         </is>
       </c>
       <c r="K71" t="inlineStr">
@@ -8995,11 +8995,11 @@
       <c r="Y71" t="inlineStr"/>
       <c r="Z71" t="inlineStr"/>
       <c r="AA71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB71" t="inlineStr">
         <is>
-          <t>['England', 'Netherlands']</t>
+          <t>['England', 'Netherlands', 'Ireland']</t>
         </is>
       </c>
       <c r="AC71" t="n">
@@ -9055,7 +9055,7 @@
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>['Netherlands', 'England']</t>
+          <t>['England', 'Egypt', 'Netherlands']</t>
         </is>
       </c>
       <c r="K72" t="inlineStr">
@@ -9115,24 +9115,24 @@
         <v>0</v>
       </c>
       <c r="AA72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB72" t="inlineStr">
         <is>
-          <t>['Netherlands', 'England']</t>
+          <t>['Netherlands', 'England', 'Egypt']</t>
         </is>
       </c>
       <c r="AC72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE72" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AF72" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AG72" t="n">
         <v>1892</v>
@@ -9183,7 +9183,7 @@
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>['Netherlands', 'England']</t>
+          <t>['England', 'Egypt', 'Netherlands']</t>
         </is>
       </c>
       <c r="K73" t="inlineStr">
@@ -9251,10 +9251,10 @@
         </is>
       </c>
       <c r="AC73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD73" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AE73" t="n">
         <v>-2</v>
@@ -9311,7 +9311,7 @@
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>['Netherlands', 'England']</t>
+          <t>['England', 'Ireland', 'Netherlands']</t>
         </is>
       </c>
       <c r="K74" t="inlineStr">
@@ -9382,7 +9382,7 @@
         <v>1</v>
       </c>
       <c r="AD74" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AE74" t="n">
         <v>0</v>
@@ -9425,7 +9425,7 @@
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr">
         <is>
-          <t>['Switzerland', 'United States']</t>
+          <t>['United States', 'Romania', 'Switzerland']</t>
         </is>
       </c>
       <c r="K75" t="inlineStr">
@@ -9461,11 +9461,11 @@
       <c r="Y75" t="inlineStr"/>
       <c r="Z75" t="inlineStr"/>
       <c r="AA75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB75" t="inlineStr">
         <is>
-          <t>['Switzerland', 'United States']</t>
+          <t>['Switzerland', 'United States', 'Romania']</t>
         </is>
       </c>
       <c r="AC75" t="n">
@@ -9521,7 +9521,7 @@
       </c>
       <c r="J76" t="inlineStr">
         <is>
-          <t>['Romania', 'Switzerland']</t>
+          <t>['Romania', 'United States', 'Switzerland']</t>
         </is>
       </c>
       <c r="K76" t="inlineStr">
@@ -9581,21 +9581,21 @@
         <v>1</v>
       </c>
       <c r="AA76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB76" t="inlineStr">
         <is>
-          <t>['Romania', 'Switzerland']</t>
+          <t>['Romania', 'Switzerland', 'United States']</t>
         </is>
       </c>
       <c r="AC76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE76" t="n">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="AF76" t="n">
         <v>-3</v>
@@ -9649,7 +9649,7 @@
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>['Romania', 'Switzerland']</t>
+          <t>['Romania', 'United States', 'Switzerland']</t>
         </is>
       </c>
       <c r="K77" t="inlineStr">
@@ -9709,21 +9709,21 @@
         <v>3</v>
       </c>
       <c r="AA77" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB77" t="inlineStr">
         <is>
-          <t>['Romania', 'Switzerland']</t>
+          <t>['Romania', 'Switzerland', 'United States']</t>
         </is>
       </c>
       <c r="AC77" t="n">
         <v>0</v>
       </c>
       <c r="AD77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE77" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AF77" t="n">
         <v>-2</v>
@@ -9777,7 +9777,7 @@
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>['Romania', 'Switzerland']</t>
+          <t>['Romania', 'United States', 'Switzerland']</t>
         </is>
       </c>
       <c r="K78" t="inlineStr">
@@ -9837,21 +9837,21 @@
         <v>3</v>
       </c>
       <c r="AA78" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB78" t="inlineStr">
         <is>
-          <t>['Romania', 'Switzerland']</t>
+          <t>['Romania', 'Switzerland', 'United States']</t>
         </is>
       </c>
       <c r="AC78" t="n">
         <v>0</v>
       </c>
       <c r="AD78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE78" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AF78" t="n">
         <v>-1</v>
@@ -9891,7 +9891,7 @@
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr">
         <is>
-          <t>['Sweden', 'Brazil']</t>
+          <t>['Sweden', 'Cameroon', 'Brazil']</t>
         </is>
       </c>
       <c r="K79" t="inlineStr">
@@ -9987,7 +9987,7 @@
       </c>
       <c r="J80" t="inlineStr">
         <is>
-          <t>['Sweden', 'Brazil']</t>
+          <t>['Sweden', 'Russia', 'Brazil']</t>
         </is>
       </c>
       <c r="K80" t="inlineStr">
@@ -10115,7 +10115,7 @@
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>['Sweden', 'Brazil']</t>
+          <t>['Sweden', 'Russia', 'Brazil']</t>
         </is>
       </c>
       <c r="K81" t="inlineStr">
@@ -10243,7 +10243,7 @@
       </c>
       <c r="J82" t="inlineStr">
         <is>
-          <t>['Sweden', 'Brazil']</t>
+          <t>['Sweden', 'Russia', 'Brazil']</t>
         </is>
       </c>
       <c r="K82" t="inlineStr">
@@ -10371,7 +10371,7 @@
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t>['Sweden', 'Brazil']</t>
+          <t>['Sweden', 'Russia', 'Brazil']</t>
         </is>
       </c>
       <c r="K83" t="inlineStr">
@@ -10499,7 +10499,7 @@
       </c>
       <c r="J84" t="inlineStr">
         <is>
-          <t>['Sweden', 'Brazil']</t>
+          <t>['Sweden', 'Russia', 'Brazil']</t>
         </is>
       </c>
       <c r="K84" t="inlineStr">
@@ -10627,7 +10627,7 @@
       </c>
       <c r="J85" t="inlineStr">
         <is>
-          <t>['Sweden', 'Brazil']</t>
+          <t>['Sweden', 'Russia', 'Brazil']</t>
         </is>
       </c>
       <c r="K85" t="inlineStr">
@@ -10755,7 +10755,7 @@
       </c>
       <c r="J86" t="inlineStr">
         <is>
-          <t>['Sweden', 'Brazil']</t>
+          <t>['Sweden', 'Russia', 'Brazil']</t>
         </is>
       </c>
       <c r="K86" t="inlineStr">
@@ -10883,7 +10883,7 @@
       </c>
       <c r="J87" t="inlineStr">
         <is>
-          <t>['Sweden', 'Brazil']</t>
+          <t>['Sweden', 'Russia', 'Brazil']</t>
         </is>
       </c>
       <c r="K87" t="inlineStr">
@@ -10943,24 +10943,24 @@
         <v>0</v>
       </c>
       <c r="AA87" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB87" t="inlineStr">
         <is>
-          <t>['Brazil', 'Sweden']</t>
+          <t>['Brazil', 'Sweden', 'Russia']</t>
         </is>
       </c>
       <c r="AC87" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD87" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE87" t="n">
         <v>-2</v>
       </c>
       <c r="AF87" t="n">
-        <v>-2</v>
+        <v>-7</v>
       </c>
       <c r="AG87" t="n">
         <v>1868</v>
@@ -11011,7 +11011,7 @@
       </c>
       <c r="J88" t="inlineStr">
         <is>
-          <t>['Sweden', 'Brazil']</t>
+          <t>['Sweden', 'Russia', 'Brazil']</t>
         </is>
       </c>
       <c r="K88" t="inlineStr">
@@ -11071,24 +11071,24 @@
         <v>0</v>
       </c>
       <c r="AA88" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB88" t="inlineStr">
         <is>
-          <t>['Brazil', 'Sweden']</t>
+          <t>['Brazil', 'Sweden', 'Russia']</t>
         </is>
       </c>
       <c r="AC88" t="n">
         <v>0</v>
       </c>
       <c r="AD88" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE88" t="n">
         <v>-2</v>
       </c>
       <c r="AF88" t="n">
-        <v>-1</v>
+        <v>-9</v>
       </c>
       <c r="AG88" t="n">
         <v>1868</v>
@@ -11125,7 +11125,7 @@
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr">
         <is>
-          <t>['Spain', 'Germany']</t>
+          <t>['South Korea', 'Germany', 'Spain']</t>
         </is>
       </c>
       <c r="K89" t="inlineStr">
@@ -11161,11 +11161,11 @@
       <c r="Y89" t="inlineStr"/>
       <c r="Z89" t="inlineStr"/>
       <c r="AA89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB89" t="inlineStr">
         <is>
-          <t>['Germany', 'Spain']</t>
+          <t>['Germany', 'Spain', 'South Korea']</t>
         </is>
       </c>
       <c r="AC89" t="n">
@@ -11221,7 +11221,7 @@
       </c>
       <c r="J90" t="inlineStr">
         <is>
-          <t>['Spain', 'Germany']</t>
+          <t>['South Korea', 'Germany', 'Spain']</t>
         </is>
       </c>
       <c r="K90" t="inlineStr">
@@ -11289,10 +11289,10 @@
         </is>
       </c>
       <c r="AC90" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD90" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE90" t="n">
         <v>-1</v>
@@ -11349,7 +11349,7 @@
       </c>
       <c r="J91" t="inlineStr">
         <is>
-          <t>['Spain', 'Germany']</t>
+          <t>['South Korea', 'Germany', 'Spain']</t>
         </is>
       </c>
       <c r="K91" t="inlineStr">
@@ -11420,7 +11420,7 @@
         <v>0</v>
       </c>
       <c r="AD91" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE91" t="n">
         <v>-3</v>
@@ -11477,7 +11477,7 @@
       </c>
       <c r="J92" t="inlineStr">
         <is>
-          <t>['Spain', 'Germany']</t>
+          <t>['South Korea', 'Germany', 'Spain']</t>
         </is>
       </c>
       <c r="K92" t="inlineStr">
@@ -11548,7 +11548,7 @@
         <v>0</v>
       </c>
       <c r="AD92" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE92" t="n">
         <v>-3</v>
@@ -11605,7 +11605,7 @@
       </c>
       <c r="J93" t="inlineStr">
         <is>
-          <t>['Spain', 'Germany']</t>
+          <t>['South Korea', 'Germany', 'Spain']</t>
         </is>
       </c>
       <c r="K93" t="inlineStr">
@@ -11676,7 +11676,7 @@
         <v>0</v>
       </c>
       <c r="AD93" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE93" t="n">
         <v>-3</v>
@@ -11733,7 +11733,7 @@
       </c>
       <c r="J94" t="inlineStr">
         <is>
-          <t>['Spain', 'Germany']</t>
+          <t>['South Korea', 'Germany', 'Spain']</t>
         </is>
       </c>
       <c r="K94" t="inlineStr">
@@ -11804,7 +11804,7 @@
         <v>0</v>
       </c>
       <c r="AD94" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE94" t="n">
         <v>-3</v>
@@ -11861,7 +11861,7 @@
       </c>
       <c r="J95" t="inlineStr">
         <is>
-          <t>['Spain', 'Germany']</t>
+          <t>['South Korea', 'Germany', 'Spain']</t>
         </is>
       </c>
       <c r="K95" t="inlineStr">
@@ -11932,7 +11932,7 @@
         <v>0</v>
       </c>
       <c r="AD95" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE95" t="n">
         <v>-3</v>
@@ -11989,7 +11989,7 @@
       </c>
       <c r="J96" t="inlineStr">
         <is>
-          <t>['Spain', 'Germany']</t>
+          <t>['South Korea', 'Germany', 'Spain']</t>
         </is>
       </c>
       <c r="K96" t="inlineStr">
@@ -12060,7 +12060,7 @@
         <v>0</v>
       </c>
       <c r="AD96" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE96" t="n">
         <v>-3</v>
@@ -12117,7 +12117,7 @@
       </c>
       <c r="J97" t="inlineStr">
         <is>
-          <t>['Spain', 'Germany']</t>
+          <t>['South Korea', 'Germany', 'Spain']</t>
         </is>
       </c>
       <c r="K97" t="inlineStr">
@@ -12188,7 +12188,7 @@
         <v>0</v>
       </c>
       <c r="AD97" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE97" t="n">
         <v>-3</v>
@@ -12245,7 +12245,7 @@
       </c>
       <c r="J98" t="inlineStr">
         <is>
-          <t>['Spain', 'Germany']</t>
+          <t>['South Korea', 'Germany', 'Spain']</t>
         </is>
       </c>
       <c r="K98" t="inlineStr">
@@ -12316,7 +12316,7 @@
         <v>0</v>
       </c>
       <c r="AD98" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE98" t="n">
         <v>-3</v>
@@ -12359,7 +12359,7 @@
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr">
         <is>
-          <t>['Nigeria', 'Argentina']</t>
+          <t>['Bulgaria', 'Nigeria', 'Argentina']</t>
         </is>
       </c>
       <c r="K99" t="inlineStr">
@@ -12395,11 +12395,11 @@
       <c r="Y99" t="inlineStr"/>
       <c r="Z99" t="inlineStr"/>
       <c r="AA99" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB99" t="inlineStr">
         <is>
-          <t>['Argentina', 'Nigeria']</t>
+          <t>['Argentina', 'Nigeria', 'Bulgaria']</t>
         </is>
       </c>
       <c r="AC99" t="n">
@@ -12455,7 +12455,7 @@
       </c>
       <c r="J100" t="inlineStr">
         <is>
-          <t>['Nigeria', 'Argentina']</t>
+          <t>['Bulgaria', 'Nigeria', 'Argentina']</t>
         </is>
       </c>
       <c r="K100" t="inlineStr">
@@ -12515,11 +12515,11 @@
         <v>0</v>
       </c>
       <c r="AA100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB100" t="inlineStr">
         <is>
-          <t>['Argentina', 'Nigeria']</t>
+          <t>['Argentina', 'Nigeria', 'Bulgaria']</t>
         </is>
       </c>
       <c r="AC100" t="n">
@@ -12529,10 +12529,10 @@
         <v>0</v>
       </c>
       <c r="AE100" t="n">
-        <v>-2</v>
+        <v>-4</v>
       </c>
       <c r="AF100" t="n">
-        <v>-2</v>
+        <v>-10</v>
       </c>
       <c r="AG100" t="n">
         <v>1689</v>
@@ -12583,7 +12583,7 @@
       </c>
       <c r="J101" t="inlineStr">
         <is>
-          <t>['Nigeria', 'Argentina']</t>
+          <t>['Bulgaria', 'Nigeria', 'Argentina']</t>
         </is>
       </c>
       <c r="K101" t="inlineStr">
@@ -12602,31 +12602,31 @@
       </c>
       <c r="O101" t="inlineStr">
         <is>
-          <t>Argentina</t>
+          <t>Bulgaria</t>
         </is>
       </c>
       <c r="P101" t="n">
         <v>6</v>
       </c>
       <c r="Q101" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="R101" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="S101" t="inlineStr">
         <is>
-          <t>Bulgaria</t>
+          <t>Argentina</t>
         </is>
       </c>
       <c r="T101" t="n">
         <v>6</v>
       </c>
       <c r="U101" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="V101" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="W101" t="inlineStr">
         <is>
@@ -12643,11 +12643,11 @@
         <v>0</v>
       </c>
       <c r="AA101" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB101" t="inlineStr">
         <is>
-          <t>['Nigeria', 'Argentina']</t>
+          <t>['Nigeria', 'Bulgaria', 'Argentina']</t>
         </is>
       </c>
       <c r="AC101" t="n">
@@ -12657,10 +12657,10 @@
         <v>0</v>
       </c>
       <c r="AE101" t="n">
-        <v>0</v>
+        <v>-6</v>
       </c>
       <c r="AF101" t="n">
-        <v>-2</v>
+        <v>-13</v>
       </c>
       <c r="AG101" t="n">
         <v>1914</v>
@@ -12711,7 +12711,7 @@
       </c>
       <c r="J102" t="inlineStr">
         <is>
-          <t>['Nigeria', 'Bulgaria']</t>
+          <t>['Bulgaria', 'Nigeria', 'Argentina']</t>
         </is>
       </c>
       <c r="K102" t="inlineStr">
@@ -12771,24 +12771,24 @@
         <v>0</v>
       </c>
       <c r="AA102" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB102" t="inlineStr">
         <is>
-          <t>['Nigeria', 'Bulgaria']</t>
+          <t>['Nigeria', 'Bulgaria', 'Argentina']</t>
         </is>
       </c>
       <c r="AC102" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD102" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE102" t="n">
-        <v>0</v>
+        <v>-6</v>
       </c>
       <c r="AF102" t="n">
-        <v>0</v>
+        <v>-12</v>
       </c>
       <c r="AG102" t="n">
         <v>1914</v>
@@ -12839,7 +12839,7 @@
       </c>
       <c r="J103" t="inlineStr">
         <is>
-          <t>['Nigeria', 'Bulgaria']</t>
+          <t>['Bulgaria', 'Nigeria', 'Argentina']</t>
         </is>
       </c>
       <c r="K103" t="inlineStr">
@@ -12899,24 +12899,24 @@
         <v>0</v>
       </c>
       <c r="AA103" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB103" t="inlineStr">
         <is>
-          <t>['Nigeria', 'Bulgaria']</t>
+          <t>['Nigeria', 'Bulgaria', 'Argentina']</t>
         </is>
       </c>
       <c r="AC103" t="n">
         <v>0</v>
       </c>
       <c r="AD103" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE103" t="n">
-        <v>0</v>
+        <v>-6</v>
       </c>
       <c r="AF103" t="n">
-        <v>0</v>
+        <v>-13</v>
       </c>
       <c r="AG103" t="n">
         <v>1689</v>
@@ -12953,7 +12953,7 @@
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr">
         <is>
-          <t>['Italy', 'Mexico']</t>
+          <t>['Mexico', 'Italy', 'Norway']</t>
         </is>
       </c>
       <c r="K104" t="inlineStr">
@@ -12989,11 +12989,11 @@
       <c r="Y104" t="inlineStr"/>
       <c r="Z104" t="inlineStr"/>
       <c r="AA104" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB104" t="inlineStr">
         <is>
-          <t>['Mexico', 'Italy']</t>
+          <t>['Mexico', 'Italy', 'Norway']</t>
         </is>
       </c>
       <c r="AC104" t="n">
@@ -13049,7 +13049,7 @@
       </c>
       <c r="J105" t="inlineStr">
         <is>
-          <t>['Italy', 'Ireland']</t>
+          <t>['Ireland', 'Italy', 'Norway']</t>
         </is>
       </c>
       <c r="K105" t="inlineStr">
@@ -13109,11 +13109,11 @@
         <v>0</v>
       </c>
       <c r="AA105" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB105" t="inlineStr">
         <is>
-          <t>['Italy', 'Ireland']</t>
+          <t>['Italy', 'Ireland', 'Norway']</t>
         </is>
       </c>
       <c r="AC105" t="n">
@@ -13123,10 +13123,10 @@
         <v>2</v>
       </c>
       <c r="AE105" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AF105" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AG105" t="n">
         <v>1987</v>
@@ -13177,7 +13177,7 @@
       </c>
       <c r="J106" t="inlineStr">
         <is>
-          <t>['Mexico', 'Ireland']</t>
+          <t>['Mexico', 'Ireland', 'Italy']</t>
         </is>
       </c>
       <c r="K106" t="inlineStr">
@@ -13237,11 +13237,11 @@
         <v>1</v>
       </c>
       <c r="AA106" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB106" t="inlineStr">
         <is>
-          <t>['Mexico', 'Ireland']</t>
+          <t>['Mexico', 'Ireland', 'Italy']</t>
         </is>
       </c>
       <c r="AC106" t="n">
@@ -13291,7 +13291,7 @@
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Belgium']</t>
+          <t>['Saudi Arabia', 'Belgium', 'Netherlands']</t>
         </is>
       </c>
       <c r="K107" t="inlineStr">
@@ -13327,11 +13327,11 @@
       <c r="Y107" t="inlineStr"/>
       <c r="Z107" t="inlineStr"/>
       <c r="AA107" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB107" t="inlineStr">
         <is>
-          <t>['Belgium', 'Netherlands']</t>
+          <t>['Belgium', 'Netherlands', 'Saudi Arabia']</t>
         </is>
       </c>
       <c r="AC107" t="n">
@@ -13387,7 +13387,7 @@
       </c>
       <c r="J108" t="inlineStr">
         <is>
-          <t>['Saudi Arabia', 'Belgium']</t>
+          <t>['Saudi Arabia', 'Belgium', 'Netherlands']</t>
         </is>
       </c>
       <c r="K108" t="inlineStr">
@@ -13447,24 +13447,24 @@
         <v>1</v>
       </c>
       <c r="AA108" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB108" t="inlineStr">
         <is>
-          <t>['Saudi Arabia', 'Belgium']</t>
+          <t>['Saudi Arabia', 'Belgium', 'Netherlands']</t>
         </is>
       </c>
       <c r="AC108" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD108" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE108" t="n">
+        <v>-3</v>
+      </c>
+      <c r="AF108" t="n">
         <v>-2</v>
-      </c>
-      <c r="AF108" t="n">
-        <v>-1</v>
       </c>
       <c r="AG108" t="n">
         <v>1825</v>
@@ -13515,12 +13515,12 @@
       </c>
       <c r="J109" t="inlineStr">
         <is>
-          <t>['Saudi Arabia', 'Netherlands']</t>
+          <t>['Saudi Arabia', 'Belgium', 'Netherlands']</t>
         </is>
       </c>
       <c r="K109" t="inlineStr">
         <is>
-          <t>Saudi Arabia</t>
+          <t>Netherlands</t>
         </is>
       </c>
       <c r="L109" t="n">
@@ -13534,7 +13534,7 @@
       </c>
       <c r="O109" t="inlineStr">
         <is>
-          <t>Netherlands</t>
+          <t>Saudi Arabia</t>
         </is>
       </c>
       <c r="P109" t="n">
@@ -13575,24 +13575,24 @@
         <v>0</v>
       </c>
       <c r="AA109" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB109" t="inlineStr">
         <is>
-          <t>['Saudi Arabia', 'Netherlands']</t>
+          <t>['Netherlands', 'Saudi Arabia', 'Belgium']</t>
         </is>
       </c>
       <c r="AC109" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD109" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AE109" t="n">
-        <v>0</v>
+        <v>-6</v>
       </c>
       <c r="AF109" t="n">
-        <v>0</v>
+        <v>-4</v>
       </c>
       <c r="AG109" t="n">
         <v>1675</v>
@@ -13643,7 +13643,7 @@
       </c>
       <c r="J110" t="inlineStr">
         <is>
-          <t>['Saudi Arabia', 'Belgium']</t>
+          <t>['Saudi Arabia', 'Belgium', 'Netherlands']</t>
         </is>
       </c>
       <c r="K110" t="inlineStr">
@@ -13703,24 +13703,24 @@
         <v>1</v>
       </c>
       <c r="AA110" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB110" t="inlineStr">
         <is>
-          <t>['Saudi Arabia', 'Belgium']</t>
+          <t>['Saudi Arabia', 'Belgium', 'Netherlands']</t>
         </is>
       </c>
       <c r="AC110" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD110" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AE110" t="n">
+        <v>-3</v>
+      </c>
+      <c r="AF110" t="n">
         <v>-2</v>
-      </c>
-      <c r="AF110" t="n">
-        <v>-1</v>
       </c>
       <c r="AG110" t="n">
         <v>1675</v>
@@ -13771,12 +13771,12 @@
       </c>
       <c r="J111" t="inlineStr">
         <is>
-          <t>['Saudi Arabia', 'Netherlands']</t>
+          <t>['Saudi Arabia', 'Belgium', 'Netherlands']</t>
         </is>
       </c>
       <c r="K111" t="inlineStr">
         <is>
-          <t>Saudi Arabia</t>
+          <t>Netherlands</t>
         </is>
       </c>
       <c r="L111" t="n">
@@ -13790,7 +13790,7 @@
       </c>
       <c r="O111" t="inlineStr">
         <is>
-          <t>Netherlands</t>
+          <t>Saudi Arabia</t>
         </is>
       </c>
       <c r="P111" t="n">
@@ -13831,24 +13831,24 @@
         <v>0</v>
       </c>
       <c r="AA111" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB111" t="inlineStr">
         <is>
-          <t>['Saudi Arabia', 'Netherlands']</t>
+          <t>['Netherlands', 'Saudi Arabia', 'Belgium']</t>
         </is>
       </c>
       <c r="AC111" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD111" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AE111" t="n">
-        <v>0</v>
+        <v>-6</v>
       </c>
       <c r="AF111" t="n">
-        <v>0</v>
+        <v>-4</v>
       </c>
       <c r="AG111" t="n">
         <v>1675</v>
@@ -14735,7 +14735,7 @@
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr">
         <is>
-          <t>['Italy', 'Chile']</t>
+          <t>['Chile', 'Italy']</t>
         </is>
       </c>
       <c r="K119" t="inlineStr">
@@ -14831,7 +14831,7 @@
       </c>
       <c r="J120" t="inlineStr">
         <is>
-          <t>['Italy', 'Chile']</t>
+          <t>['Chile', 'Italy']</t>
         </is>
       </c>
       <c r="K120" t="inlineStr">
@@ -14959,7 +14959,7 @@
       </c>
       <c r="J121" t="inlineStr">
         <is>
-          <t>['Italy', 'Chile']</t>
+          <t>['Chile', 'Italy']</t>
         </is>
       </c>
       <c r="K121" t="inlineStr">
@@ -15087,7 +15087,7 @@
       </c>
       <c r="J122" t="inlineStr">
         <is>
-          <t>['Italy', 'Chile']</t>
+          <t>['Chile', 'Italy']</t>
         </is>
       </c>
       <c r="K122" t="inlineStr">
@@ -15215,7 +15215,7 @@
       </c>
       <c r="J123" t="inlineStr">
         <is>
-          <t>['Italy', 'Chile']</t>
+          <t>['Chile', 'Italy']</t>
         </is>
       </c>
       <c r="K123" t="inlineStr">
@@ -15343,7 +15343,7 @@
       </c>
       <c r="J124" t="inlineStr">
         <is>
-          <t>['Italy', 'Chile']</t>
+          <t>['Chile', 'Italy']</t>
         </is>
       </c>
       <c r="K124" t="inlineStr">
@@ -16435,7 +16435,7 @@
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr">
         <is>
-          <t>['Paraguay', 'Nigeria']</t>
+          <t>['Nigeria', 'Paraguay']</t>
         </is>
       </c>
       <c r="K133" t="inlineStr">
@@ -16531,7 +16531,7 @@
       </c>
       <c r="J134" t="inlineStr">
         <is>
-          <t>['Paraguay', 'Nigeria']</t>
+          <t>['Nigeria', 'Paraguay']</t>
         </is>
       </c>
       <c r="K134" t="inlineStr">
@@ -16659,7 +16659,7 @@
       </c>
       <c r="J135" t="inlineStr">
         <is>
-          <t>['Paraguay', 'Nigeria']</t>
+          <t>['Nigeria', 'Paraguay']</t>
         </is>
       </c>
       <c r="K135" t="inlineStr">
@@ -16787,7 +16787,7 @@
       </c>
       <c r="J136" t="inlineStr">
         <is>
-          <t>['Spain', 'Nigeria']</t>
+          <t>['Nigeria', 'Spain']</t>
         </is>
       </c>
       <c r="K136" t="inlineStr">
@@ -16915,7 +16915,7 @@
       </c>
       <c r="J137" t="inlineStr">
         <is>
-          <t>['Spain', 'Nigeria']</t>
+          <t>['Nigeria', 'Spain']</t>
         </is>
       </c>
       <c r="K137" t="inlineStr">
@@ -17043,7 +17043,7 @@
       </c>
       <c r="J138" t="inlineStr">
         <is>
-          <t>['Spain', 'Nigeria']</t>
+          <t>['Nigeria', 'Spain']</t>
         </is>
       </c>
       <c r="K138" t="inlineStr">
@@ -17171,7 +17171,7 @@
       </c>
       <c r="J139" t="inlineStr">
         <is>
-          <t>['Paraguay', 'Nigeria']</t>
+          <t>['Nigeria', 'Paraguay']</t>
         </is>
       </c>
       <c r="K139" t="inlineStr">
@@ -17299,7 +17299,7 @@
       </c>
       <c r="J140" t="inlineStr">
         <is>
-          <t>['Paraguay', 'Nigeria']</t>
+          <t>['Nigeria', 'Paraguay']</t>
         </is>
       </c>
       <c r="K140" t="inlineStr">
@@ -17427,7 +17427,7 @@
       </c>
       <c r="J141" t="inlineStr">
         <is>
-          <t>['Paraguay', 'Nigeria']</t>
+          <t>['Nigeria', 'Paraguay']</t>
         </is>
       </c>
       <c r="K141" t="inlineStr">
@@ -17555,7 +17555,7 @@
       </c>
       <c r="J142" t="inlineStr">
         <is>
-          <t>['Paraguay', 'Nigeria']</t>
+          <t>['Nigeria', 'Paraguay']</t>
         </is>
       </c>
       <c r="K142" t="inlineStr">
@@ -17683,7 +17683,7 @@
       </c>
       <c r="J143" t="inlineStr">
         <is>
-          <t>['Paraguay', 'Nigeria']</t>
+          <t>['Nigeria', 'Paraguay']</t>
         </is>
       </c>
       <c r="K143" t="inlineStr">
@@ -17811,7 +17811,7 @@
       </c>
       <c r="J144" t="inlineStr">
         <is>
-          <t>['Paraguay', 'Nigeria']</t>
+          <t>['Nigeria', 'Paraguay']</t>
         </is>
       </c>
       <c r="K144" t="inlineStr">
@@ -18149,7 +18149,7 @@
       </c>
       <c r="J147" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Belgium']</t>
+          <t>['Belgium', 'Netherlands']</t>
         </is>
       </c>
       <c r="K147" t="inlineStr">
@@ -18277,7 +18277,7 @@
       </c>
       <c r="J148" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Belgium']</t>
+          <t>['Belgium', 'Netherlands']</t>
         </is>
       </c>
       <c r="K148" t="inlineStr">
@@ -18871,7 +18871,7 @@
       </c>
       <c r="J153" t="inlineStr">
         <is>
-          <t>['Germany', 'Yugoslavia']</t>
+          <t>['Yugoslavia', 'Germany']</t>
         </is>
       </c>
       <c r="K153" t="inlineStr">
@@ -19241,7 +19241,7 @@
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr">
         <is>
-          <t>['Romania', 'England']</t>
+          <t>['England', 'Romania']</t>
         </is>
       </c>
       <c r="K156" t="inlineStr">
@@ -19337,7 +19337,7 @@
       </c>
       <c r="J157" t="inlineStr">
         <is>
-          <t>['Romania', 'England']</t>
+          <t>['England', 'Romania']</t>
         </is>
       </c>
       <c r="K157" t="inlineStr">
@@ -19465,7 +19465,7 @@
       </c>
       <c r="J158" t="inlineStr">
         <is>
-          <t>['Romania', 'England']</t>
+          <t>['England', 'Romania']</t>
         </is>
       </c>
       <c r="K158" t="inlineStr">
@@ -19593,7 +19593,7 @@
       </c>
       <c r="J159" t="inlineStr">
         <is>
-          <t>['Romania', 'England']</t>
+          <t>['England', 'Romania']</t>
         </is>
       </c>
       <c r="K159" t="inlineStr">
@@ -19721,7 +19721,7 @@
       </c>
       <c r="J160" t="inlineStr">
         <is>
-          <t>['Romania', 'England']</t>
+          <t>['England', 'Romania']</t>
         </is>
       </c>
       <c r="K160" t="inlineStr">
@@ -21535,7 +21535,7 @@
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr">
         <is>
-          <t>['Spain', 'South Africa']</t>
+          <t>['South Africa', 'Spain']</t>
         </is>
       </c>
       <c r="K175" t="inlineStr">
@@ -21631,7 +21631,7 @@
       </c>
       <c r="J176" t="inlineStr">
         <is>
-          <t>['Spain', 'South Africa']</t>
+          <t>['South Africa', 'Spain']</t>
         </is>
       </c>
       <c r="K176" t="inlineStr">
@@ -21759,7 +21759,7 @@
       </c>
       <c r="J177" t="inlineStr">
         <is>
-          <t>['Spain', 'South Africa']</t>
+          <t>['South Africa', 'Spain']</t>
         </is>
       </c>
       <c r="K177" t="inlineStr">
@@ -21887,7 +21887,7 @@
       </c>
       <c r="J178" t="inlineStr">
         <is>
-          <t>['Spain', 'South Africa']</t>
+          <t>['South Africa', 'Spain']</t>
         </is>
       </c>
       <c r="K178" t="inlineStr">
@@ -22015,7 +22015,7 @@
       </c>
       <c r="J179" t="inlineStr">
         <is>
-          <t>['Spain', 'South Africa']</t>
+          <t>['South Africa', 'Spain']</t>
         </is>
       </c>
       <c r="K179" t="inlineStr">
@@ -22143,7 +22143,7 @@
       </c>
       <c r="J180" t="inlineStr">
         <is>
-          <t>['Spain', 'South Africa']</t>
+          <t>['South Africa', 'Spain']</t>
         </is>
       </c>
       <c r="K180" t="inlineStr">
@@ -22271,7 +22271,7 @@
       </c>
       <c r="J181" t="inlineStr">
         <is>
-          <t>['Spain', 'South Africa']</t>
+          <t>['South Africa', 'Spain']</t>
         </is>
       </c>
       <c r="K181" t="inlineStr">
@@ -22399,7 +22399,7 @@
       </c>
       <c r="J182" t="inlineStr">
         <is>
-          <t>['Spain', 'South Africa']</t>
+          <t>['South Africa', 'Spain']</t>
         </is>
       </c>
       <c r="K182" t="inlineStr">
@@ -22527,7 +22527,7 @@
       </c>
       <c r="J183" t="inlineStr">
         <is>
-          <t>['Spain', 'South Africa']</t>
+          <t>['South Africa', 'Spain']</t>
         </is>
       </c>
       <c r="K183" t="inlineStr">
@@ -25575,7 +25575,7 @@
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr">
         <is>
-          <t>['Sweden', 'England']</t>
+          <t>['England', 'Sweden']</t>
         </is>
       </c>
       <c r="K208" t="inlineStr">
@@ -25671,7 +25671,7 @@
       </c>
       <c r="J209" t="inlineStr">
         <is>
-          <t>['Sweden', 'England']</t>
+          <t>['England', 'Sweden']</t>
         </is>
       </c>
       <c r="K209" t="inlineStr">
@@ -25799,7 +25799,7 @@
       </c>
       <c r="J210" t="inlineStr">
         <is>
-          <t>['Sweden', 'England']</t>
+          <t>['England', 'Sweden']</t>
         </is>
       </c>
       <c r="K210" t="inlineStr">
@@ -25913,7 +25913,7 @@
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr">
         <is>
-          <t>['Croatia', 'Mexico']</t>
+          <t>['Mexico', 'Croatia']</t>
         </is>
       </c>
       <c r="K211" t="inlineStr">
@@ -26009,7 +26009,7 @@
       </c>
       <c r="J212" t="inlineStr">
         <is>
-          <t>['Croatia', 'Mexico']</t>
+          <t>['Mexico', 'Croatia']</t>
         </is>
       </c>
       <c r="K212" t="inlineStr">
@@ -26137,7 +26137,7 @@
       </c>
       <c r="J213" t="inlineStr">
         <is>
-          <t>['Italy', 'Mexico']</t>
+          <t>['Mexico', 'Italy']</t>
         </is>
       </c>
       <c r="K213" t="inlineStr">
@@ -26170,51 +26170,51 @@
       </c>
       <c r="S213" t="inlineStr">
         <is>
+          <t>Ecuador</t>
+        </is>
+      </c>
+      <c r="T213" t="n">
+        <v>3</v>
+      </c>
+      <c r="U213" t="n">
+        <v>-2</v>
+      </c>
+      <c r="V213" t="n">
+        <v>3</v>
+      </c>
+      <c r="W213" t="inlineStr">
+        <is>
           <t>Croatia</t>
         </is>
       </c>
-      <c r="T213" t="n">
-        <v>3</v>
-      </c>
-      <c r="U213" t="n">
+      <c r="X213" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y213" t="n">
         <v>-1</v>
       </c>
-      <c r="V213" t="n">
-        <v>0</v>
-      </c>
-      <c r="W213" t="inlineStr">
-        <is>
-          <t>Ecuador</t>
-        </is>
-      </c>
-      <c r="X213" t="n">
-        <v>3</v>
-      </c>
-      <c r="Y213" t="n">
+      <c r="Z213" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA213" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB213" t="inlineStr">
+        <is>
+          <t>['Mexico', 'Italy']</t>
+        </is>
+      </c>
+      <c r="AC213" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD213" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE213" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF213" t="n">
         <v>-2</v>
-      </c>
-      <c r="Z213" t="n">
-        <v>3</v>
-      </c>
-      <c r="AA213" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB213" t="inlineStr">
-        <is>
-          <t>['Mexico', 'Italy']</t>
-        </is>
-      </c>
-      <c r="AC213" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD213" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE213" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF213" t="n">
-        <v>-1</v>
       </c>
       <c r="AG213" t="n">
         <v>1727</v>
@@ -26265,7 +26265,7 @@
       </c>
       <c r="J214" t="inlineStr">
         <is>
-          <t>['Italy', 'Mexico']</t>
+          <t>['Mexico', 'Italy']</t>
         </is>
       </c>
       <c r="K214" t="inlineStr">
@@ -28207,7 +28207,7 @@
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr">
         <is>
-          <t>['Sweden', 'England']</t>
+          <t>['England', 'Sweden']</t>
         </is>
       </c>
       <c r="K230" t="inlineStr">
@@ -28303,7 +28303,7 @@
       </c>
       <c r="J231" t="inlineStr">
         <is>
-          <t>['Sweden', 'England']</t>
+          <t>['England', 'Sweden']</t>
         </is>
       </c>
       <c r="K231" t="inlineStr">
@@ -28431,7 +28431,7 @@
       </c>
       <c r="J232" t="inlineStr">
         <is>
-          <t>['Sweden', 'England']</t>
+          <t>['England', 'Sweden']</t>
         </is>
       </c>
       <c r="K232" t="inlineStr">
@@ -28559,7 +28559,7 @@
       </c>
       <c r="J233" t="inlineStr">
         <is>
-          <t>['Sweden', 'England']</t>
+          <t>['England', 'Sweden']</t>
         </is>
       </c>
       <c r="K233" t="inlineStr">
@@ -28687,7 +28687,7 @@
       </c>
       <c r="J234" t="inlineStr">
         <is>
-          <t>['Sweden', 'England']</t>
+          <t>['England', 'Sweden']</t>
         </is>
       </c>
       <c r="K234" t="inlineStr">
@@ -28815,7 +28815,7 @@
       </c>
       <c r="J235" t="inlineStr">
         <is>
-          <t>['Sweden', 'England']</t>
+          <t>['England', 'Sweden']</t>
         </is>
       </c>
       <c r="K235" t="inlineStr">
@@ -28943,7 +28943,7 @@
       </c>
       <c r="J236" t="inlineStr">
         <is>
-          <t>['Sweden', 'England']</t>
+          <t>['England', 'Sweden']</t>
         </is>
       </c>
       <c r="K236" t="inlineStr">
@@ -29057,7 +29057,7 @@
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Argentina']</t>
+          <t>['Argentina', 'Netherlands']</t>
         </is>
       </c>
       <c r="K237" t="inlineStr">
@@ -29153,7 +29153,7 @@
       </c>
       <c r="J238" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Argentina']</t>
+          <t>['Argentina', 'Netherlands']</t>
         </is>
       </c>
       <c r="K238" t="inlineStr">
@@ -29281,7 +29281,7 @@
       </c>
       <c r="J239" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Argentina']</t>
+          <t>['Argentina', 'Netherlands']</t>
         </is>
       </c>
       <c r="K239" t="inlineStr">
@@ -29409,7 +29409,7 @@
       </c>
       <c r="J240" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Argentina']</t>
+          <t>['Argentina', 'Netherlands']</t>
         </is>
       </c>
       <c r="K240" t="inlineStr">
@@ -29537,7 +29537,7 @@
       </c>
       <c r="J241" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Argentina']</t>
+          <t>['Argentina', 'Netherlands']</t>
         </is>
       </c>
       <c r="K241" t="inlineStr">
@@ -29665,7 +29665,7 @@
       </c>
       <c r="J242" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Argentina']</t>
+          <t>['Argentina', 'Netherlands']</t>
         </is>
       </c>
       <c r="K242" t="inlineStr">
@@ -29779,7 +29779,7 @@
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr">
         <is>
-          <t>['Portugal', 'Mexico']</t>
+          <t>['Mexico', 'Portugal']</t>
         </is>
       </c>
       <c r="K243" t="inlineStr">
@@ -29875,7 +29875,7 @@
       </c>
       <c r="J244" t="inlineStr">
         <is>
-          <t>['Portugal', 'Mexico']</t>
+          <t>['Mexico', 'Portugal']</t>
         </is>
       </c>
       <c r="K244" t="inlineStr">
@@ -30003,7 +30003,7 @@
       </c>
       <c r="J245" t="inlineStr">
         <is>
-          <t>['Portugal', 'Mexico']</t>
+          <t>['Mexico', 'Portugal']</t>
         </is>
       </c>
       <c r="K245" t="inlineStr">
@@ -30131,7 +30131,7 @@
       </c>
       <c r="J246" t="inlineStr">
         <is>
-          <t>['Portugal', 'Mexico']</t>
+          <t>['Mexico', 'Portugal']</t>
         </is>
       </c>
       <c r="K246" t="inlineStr">
@@ -30259,7 +30259,7 @@
       </c>
       <c r="J247" t="inlineStr">
         <is>
-          <t>['Portugal', 'Mexico']</t>
+          <t>['Mexico', 'Portugal']</t>
         </is>
       </c>
       <c r="K247" t="inlineStr">
@@ -30387,7 +30387,7 @@
       </c>
       <c r="J248" t="inlineStr">
         <is>
-          <t>['Portugal', 'Mexico']</t>
+          <t>['Mexico', 'Portugal']</t>
         </is>
       </c>
       <c r="K248" t="inlineStr">
@@ -31223,7 +31223,7 @@
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr">
         <is>
-          <t>['Australia', 'Brazil']</t>
+          <t>['Brazil', 'Australia']</t>
         </is>
       </c>
       <c r="K255" t="inlineStr">
@@ -31575,7 +31575,7 @@
       </c>
       <c r="J258" t="inlineStr">
         <is>
-          <t>['Australia', 'Brazil']</t>
+          <t>['Brazil', 'Australia']</t>
         </is>
       </c>
       <c r="K258" t="inlineStr">
@@ -31703,7 +31703,7 @@
       </c>
       <c r="J259" t="inlineStr">
         <is>
-          <t>['Australia', 'Brazil']</t>
+          <t>['Brazil', 'Australia']</t>
         </is>
       </c>
       <c r="K259" t="inlineStr">
@@ -31831,7 +31831,7 @@
       </c>
       <c r="J260" t="inlineStr">
         <is>
-          <t>['Australia', 'Brazil']</t>
+          <t>['Brazil', 'Australia']</t>
         </is>
       </c>
       <c r="K260" t="inlineStr">
@@ -32215,7 +32215,7 @@
       </c>
       <c r="J263" t="inlineStr">
         <is>
-          <t>['Australia', 'Brazil']</t>
+          <t>['Brazil', 'Australia']</t>
         </is>
       </c>
       <c r="K263" t="inlineStr">
@@ -32343,7 +32343,7 @@
       </c>
       <c r="J264" t="inlineStr">
         <is>
-          <t>['Australia', 'Brazil']</t>
+          <t>['Brazil', 'Australia']</t>
         </is>
       </c>
       <c r="K264" t="inlineStr">
@@ -32681,7 +32681,7 @@
       </c>
       <c r="J267" t="inlineStr">
         <is>
-          <t>['Switzerland', 'France']</t>
+          <t>['France', 'Switzerland']</t>
         </is>
       </c>
       <c r="K267" t="inlineStr">
@@ -32809,7 +32809,7 @@
       </c>
       <c r="J268" t="inlineStr">
         <is>
-          <t>['Switzerland', 'France']</t>
+          <t>['France', 'Switzerland']</t>
         </is>
       </c>
       <c r="K268" t="inlineStr">
@@ -32937,7 +32937,7 @@
       </c>
       <c r="J269" t="inlineStr">
         <is>
-          <t>['Switzerland', 'France']</t>
+          <t>['France', 'Switzerland']</t>
         </is>
       </c>
       <c r="K269" t="inlineStr">
@@ -34929,7 +34929,7 @@
       </c>
       <c r="J286" t="inlineStr">
         <is>
-          <t>['Slovenia', 'England']</t>
+          <t>['England', 'Slovenia']</t>
         </is>
       </c>
       <c r="K286" t="inlineStr">
@@ -35057,7 +35057,7 @@
       </c>
       <c r="J287" t="inlineStr">
         <is>
-          <t>['United States', 'England']</t>
+          <t>['England', 'United States']</t>
         </is>
       </c>
       <c r="K287" t="inlineStr">
@@ -35171,7 +35171,7 @@
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr">
         <is>
-          <t>['Ghana', 'Serbia']</t>
+          <t>['Serbia', 'Ghana']</t>
         </is>
       </c>
       <c r="K288" t="inlineStr">
@@ -36839,7 +36839,7 @@
       </c>
       <c r="J302" t="inlineStr">
         <is>
-          <t>['Paraguay', 'Slovakia']</t>
+          <t>['Slovakia', 'Paraguay']</t>
         </is>
       </c>
       <c r="K302" t="inlineStr">
@@ -36967,7 +36967,7 @@
       </c>
       <c r="J303" t="inlineStr">
         <is>
-          <t>['Paraguay', 'Slovakia']</t>
+          <t>['Slovakia', 'Paraguay']</t>
         </is>
       </c>
       <c r="K303" t="inlineStr">
@@ -37095,7 +37095,7 @@
       </c>
       <c r="J304" t="inlineStr">
         <is>
-          <t>['Paraguay', 'Slovakia']</t>
+          <t>['Slovakia', 'Paraguay']</t>
         </is>
       </c>
       <c r="K304" t="inlineStr">
@@ -37223,7 +37223,7 @@
       </c>
       <c r="J305" t="inlineStr">
         <is>
-          <t>['Paraguay', 'Slovakia']</t>
+          <t>['Slovakia', 'Paraguay']</t>
         </is>
       </c>
       <c r="K305" t="inlineStr">
@@ -37351,7 +37351,7 @@
       </c>
       <c r="J306" t="inlineStr">
         <is>
-          <t>['Paraguay', 'Slovakia']</t>
+          <t>['Slovakia', 'Paraguay']</t>
         </is>
       </c>
       <c r="K306" t="inlineStr">
@@ -37931,7 +37931,7 @@
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Chile']</t>
+          <t>['Chile', 'Switzerland']</t>
         </is>
       </c>
       <c r="K311" t="inlineStr">
@@ -38027,7 +38027,7 @@
       </c>
       <c r="J312" t="inlineStr">
         <is>
-          <t>['Spain', 'Chile']</t>
+          <t>['Chile', 'Spain']</t>
         </is>
       </c>
       <c r="K312" t="inlineStr">
@@ -38155,7 +38155,7 @@
       </c>
       <c r="J313" t="inlineStr">
         <is>
-          <t>['Spain', 'Chile']</t>
+          <t>['Chile', 'Spain']</t>
         </is>
       </c>
       <c r="K313" t="inlineStr">
@@ -38283,7 +38283,7 @@
       </c>
       <c r="J314" t="inlineStr">
         <is>
-          <t>['Spain', 'Chile']</t>
+          <t>['Chile', 'Spain']</t>
         </is>
       </c>
       <c r="K314" t="inlineStr">
@@ -39631,7 +39631,7 @@
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Chile']</t>
+          <t>['Chile', 'Netherlands']</t>
         </is>
       </c>
       <c r="K325" t="inlineStr">
@@ -39727,7 +39727,7 @@
       </c>
       <c r="J326" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Chile']</t>
+          <t>['Chile', 'Netherlands']</t>
         </is>
       </c>
       <c r="K326" t="inlineStr">
@@ -39855,7 +39855,7 @@
       </c>
       <c r="J327" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Chile']</t>
+          <t>['Chile', 'Netherlands']</t>
         </is>
       </c>
       <c r="K327" t="inlineStr">
@@ -39983,7 +39983,7 @@
       </c>
       <c r="J328" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Chile']</t>
+          <t>['Chile', 'Netherlands']</t>
         </is>
       </c>
       <c r="K328" t="inlineStr">
@@ -40111,7 +40111,7 @@
       </c>
       <c r="J329" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Chile']</t>
+          <t>['Chile', 'Netherlands']</t>
         </is>
       </c>
       <c r="K329" t="inlineStr">
@@ -40239,7 +40239,7 @@
       </c>
       <c r="J330" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Chile']</t>
+          <t>['Chile', 'Netherlands']</t>
         </is>
       </c>
       <c r="K330" t="inlineStr">
@@ -40353,7 +40353,7 @@
       <c r="I331" t="inlineStr"/>
       <c r="J331" t="inlineStr">
         <is>
-          <t>['Colombia', 'Ivory Coast']</t>
+          <t>['Ivory Coast', 'Colombia']</t>
         </is>
       </c>
       <c r="K331" t="inlineStr">
@@ -40449,7 +40449,7 @@
       </c>
       <c r="J332" t="inlineStr">
         <is>
-          <t>['Colombia', 'Ivory Coast']</t>
+          <t>['Ivory Coast', 'Colombia']</t>
         </is>
       </c>
       <c r="K332" t="inlineStr">
@@ -40577,7 +40577,7 @@
       </c>
       <c r="J333" t="inlineStr">
         <is>
-          <t>['Colombia', 'Greece']</t>
+          <t>['Greece', 'Colombia']</t>
         </is>
       </c>
       <c r="K333" t="inlineStr">
@@ -40705,7 +40705,7 @@
       </c>
       <c r="J334" t="inlineStr">
         <is>
-          <t>['Colombia', 'Greece']</t>
+          <t>['Greece', 'Colombia']</t>
         </is>
       </c>
       <c r="K334" t="inlineStr">
@@ -40833,7 +40833,7 @@
       </c>
       <c r="J335" t="inlineStr">
         <is>
-          <t>['Colombia', 'Greece']</t>
+          <t>['Greece', 'Colombia']</t>
         </is>
       </c>
       <c r="K335" t="inlineStr">
@@ -40961,7 +40961,7 @@
       </c>
       <c r="J336" t="inlineStr">
         <is>
-          <t>['Colombia', 'Ivory Coast']</t>
+          <t>['Ivory Coast', 'Colombia']</t>
         </is>
       </c>
       <c r="K336" t="inlineStr">
@@ -41089,7 +41089,7 @@
       </c>
       <c r="J337" t="inlineStr">
         <is>
-          <t>['Colombia', 'Ivory Coast']</t>
+          <t>['Ivory Coast', 'Colombia']</t>
         </is>
       </c>
       <c r="K337" t="inlineStr">
@@ -41217,7 +41217,7 @@
       </c>
       <c r="J338" t="inlineStr">
         <is>
-          <t>['Colombia', 'Ivory Coast']</t>
+          <t>['Ivory Coast', 'Colombia']</t>
         </is>
       </c>
       <c r="K338" t="inlineStr">
@@ -41345,7 +41345,7 @@
       </c>
       <c r="J339" t="inlineStr">
         <is>
-          <t>['Colombia', 'Greece']</t>
+          <t>['Greece', 'Colombia']</t>
         </is>
       </c>
       <c r="K339" t="inlineStr">
@@ -41459,7 +41459,7 @@
       <c r="I340" t="inlineStr"/>
       <c r="J340" t="inlineStr">
         <is>
-          <t>['Italy', 'Costa Rica']</t>
+          <t>['Costa Rica', 'Italy']</t>
         </is>
       </c>
       <c r="K340" t="inlineStr">
@@ -41555,7 +41555,7 @@
       </c>
       <c r="J341" t="inlineStr">
         <is>
-          <t>['Uruguay', 'Costa Rica']</t>
+          <t>['Costa Rica', 'Uruguay']</t>
         </is>
       </c>
       <c r="K341" t="inlineStr">
@@ -41669,7 +41669,7 @@
       <c r="I342" t="inlineStr"/>
       <c r="J342" t="inlineStr">
         <is>
-          <t>['Switzerland', 'France']</t>
+          <t>['France', 'Switzerland']</t>
         </is>
       </c>
       <c r="K342" t="inlineStr">
@@ -41765,7 +41765,7 @@
       </c>
       <c r="J343" t="inlineStr">
         <is>
-          <t>['Switzerland', 'France']</t>
+          <t>['France', 'Switzerland']</t>
         </is>
       </c>
       <c r="K343" t="inlineStr">
@@ -41893,7 +41893,7 @@
       </c>
       <c r="J344" t="inlineStr">
         <is>
-          <t>['Switzerland', 'France']</t>
+          <t>['France', 'Switzerland']</t>
         </is>
       </c>
       <c r="K344" t="inlineStr">
@@ -42021,7 +42021,7 @@
       </c>
       <c r="J345" t="inlineStr">
         <is>
-          <t>['Switzerland', 'France']</t>
+          <t>['France', 'Switzerland']</t>
         </is>
       </c>
       <c r="K345" t="inlineStr">
@@ -43963,7 +43963,7 @@
       <c r="I361" t="inlineStr"/>
       <c r="J361" t="inlineStr">
         <is>
-          <t>['Algeria', 'Belgium']</t>
+          <t>['Belgium', 'Algeria']</t>
         </is>
       </c>
       <c r="K361" t="inlineStr">
@@ -44187,7 +44187,7 @@
       </c>
       <c r="J363" t="inlineStr">
         <is>
-          <t>['Algeria', 'Belgium']</t>
+          <t>['Belgium', 'Algeria']</t>
         </is>
       </c>
       <c r="K363" t="inlineStr">
@@ -44315,7 +44315,7 @@
       </c>
       <c r="J364" t="inlineStr">
         <is>
-          <t>['Algeria', 'Belgium']</t>
+          <t>['Belgium', 'Algeria']</t>
         </is>
       </c>
       <c r="K364" t="inlineStr">
@@ -44429,7 +44429,7 @@
       <c r="I365" t="inlineStr"/>
       <c r="J365" t="inlineStr">
         <is>
-          <t>['Egypt', 'Russia', 'Uruguay']</t>
+          <t>['Uruguay', 'Russia']</t>
         </is>
       </c>
       <c r="K365" t="inlineStr">
@@ -44525,7 +44525,7 @@
       </c>
       <c r="J366" t="inlineStr">
         <is>
-          <t>['Egypt', 'Russia', 'Uruguay']</t>
+          <t>['Uruguay', 'Russia']</t>
         </is>
       </c>
       <c r="K366" t="inlineStr">
@@ -44653,7 +44653,7 @@
       </c>
       <c r="J367" t="inlineStr">
         <is>
-          <t>['Egypt', 'Russia', 'Uruguay']</t>
+          <t>['Uruguay', 'Russia']</t>
         </is>
       </c>
       <c r="K367" t="inlineStr">
@@ -44781,7 +44781,7 @@
       </c>
       <c r="J368" t="inlineStr">
         <is>
-          <t>['Egypt', 'Russia', 'Uruguay']</t>
+          <t>['Uruguay', 'Russia']</t>
         </is>
       </c>
       <c r="K368" t="inlineStr">
@@ -44909,7 +44909,7 @@
       </c>
       <c r="J369" t="inlineStr">
         <is>
-          <t>['Egypt', 'Russia', 'Uruguay']</t>
+          <t>['Uruguay', 'Russia']</t>
         </is>
       </c>
       <c r="K369" t="inlineStr">
@@ -45037,7 +45037,7 @@
       </c>
       <c r="J370" t="inlineStr">
         <is>
-          <t>['Egypt', 'Russia', 'Uruguay']</t>
+          <t>['Uruguay', 'Russia']</t>
         </is>
       </c>
       <c r="K370" t="inlineStr">
@@ -45165,7 +45165,7 @@
       </c>
       <c r="J371" t="inlineStr">
         <is>
-          <t>['Saudi Arabia', 'Russia', 'Uruguay']</t>
+          <t>['Uruguay', 'Russia']</t>
         </is>
       </c>
       <c r="K371" t="inlineStr">
@@ -45279,7 +45279,7 @@
       <c r="I372" t="inlineStr"/>
       <c r="J372" t="inlineStr">
         <is>
-          <t>['Portugal', 'Iran', 'Spain']</t>
+          <t>['Portugal', 'Spain']</t>
         </is>
       </c>
       <c r="K372" t="inlineStr">
@@ -45375,7 +45375,7 @@
       </c>
       <c r="J373" t="inlineStr">
         <is>
-          <t>['Portugal', 'Iran', 'Spain']</t>
+          <t>['Portugal', 'Spain']</t>
         </is>
       </c>
       <c r="K373" t="inlineStr">
@@ -45503,7 +45503,7 @@
       </c>
       <c r="J374" t="inlineStr">
         <is>
-          <t>['Portugal', 'Iran', 'Spain']</t>
+          <t>['Portugal', 'Spain']</t>
         </is>
       </c>
       <c r="K374" t="inlineStr">
@@ -45631,7 +45631,7 @@
       </c>
       <c r="J375" t="inlineStr">
         <is>
-          <t>['Portugal', 'Iran', 'Spain']</t>
+          <t>['Portugal', 'Spain']</t>
         </is>
       </c>
       <c r="K375" t="inlineStr">
@@ -45759,7 +45759,7 @@
       </c>
       <c r="J376" t="inlineStr">
         <is>
-          <t>['Portugal', 'Iran', 'Spain']</t>
+          <t>['Portugal', 'Spain']</t>
         </is>
       </c>
       <c r="K376" t="inlineStr">
@@ -45887,7 +45887,7 @@
       </c>
       <c r="J377" t="inlineStr">
         <is>
-          <t>['Portugal', 'Iran', 'Spain']</t>
+          <t>['Portugal', 'Spain']</t>
         </is>
       </c>
       <c r="K377" t="inlineStr">
@@ -46015,7 +46015,7 @@
       </c>
       <c r="J378" t="inlineStr">
         <is>
-          <t>['Portugal', 'Iran', 'Spain']</t>
+          <t>['Portugal', 'Spain']</t>
         </is>
       </c>
       <c r="K378" t="inlineStr">
@@ -46129,7 +46129,7 @@
       <c r="I379" t="inlineStr"/>
       <c r="J379" t="inlineStr">
         <is>
-          <t>['Australia', 'Denmark', 'France']</t>
+          <t>['Denmark', 'France']</t>
         </is>
       </c>
       <c r="K379" t="inlineStr">
@@ -46225,7 +46225,7 @@
       </c>
       <c r="J380" t="inlineStr">
         <is>
-          <t>['Peru', 'Denmark', 'France']</t>
+          <t>['Denmark', 'France']</t>
         </is>
       </c>
       <c r="K380" t="inlineStr">
@@ -46353,7 +46353,7 @@
       </c>
       <c r="J381" t="inlineStr">
         <is>
-          <t>['Peru', 'Denmark', 'France']</t>
+          <t>['Denmark', 'France']</t>
         </is>
       </c>
       <c r="K381" t="inlineStr">
@@ -46467,7 +46467,7 @@
       <c r="I382" t="inlineStr"/>
       <c r="J382" t="inlineStr">
         <is>
-          <t>['Croatia', 'Nigeria', 'Iceland']</t>
+          <t>['Nigeria', 'Croatia']</t>
         </is>
       </c>
       <c r="K382" t="inlineStr">
@@ -46563,7 +46563,7 @@
       </c>
       <c r="J383" t="inlineStr">
         <is>
-          <t>['Croatia', 'Nigeria', 'Argentina']</t>
+          <t>['Croatia', 'Argentina']</t>
         </is>
       </c>
       <c r="K383" t="inlineStr">
@@ -46691,7 +46691,7 @@
       </c>
       <c r="J384" t="inlineStr">
         <is>
-          <t>['Croatia', 'Nigeria', 'Iceland']</t>
+          <t>['Nigeria', 'Croatia']</t>
         </is>
       </c>
       <c r="K384" t="inlineStr">
@@ -46819,7 +46819,7 @@
       </c>
       <c r="J385" t="inlineStr">
         <is>
-          <t>['Croatia', 'Nigeria', 'Argentina']</t>
+          <t>['Nigeria', 'Croatia']</t>
         </is>
       </c>
       <c r="K385" t="inlineStr">
@@ -46947,7 +46947,7 @@
       </c>
       <c r="J386" t="inlineStr">
         <is>
-          <t>['Croatia', 'Nigeria', 'Iceland']</t>
+          <t>['Nigeria', 'Croatia']</t>
         </is>
       </c>
       <c r="K386" t="inlineStr">
@@ -47075,7 +47075,7 @@
       </c>
       <c r="J387" t="inlineStr">
         <is>
-          <t>['Croatia', 'Nigeria', 'Argentina']</t>
+          <t>['Croatia', 'Argentina']</t>
         </is>
       </c>
       <c r="K387" t="inlineStr">
@@ -47203,7 +47203,7 @@
       </c>
       <c r="J388" t="inlineStr">
         <is>
-          <t>['Croatia', 'Nigeria', 'Argentina']</t>
+          <t>['Croatia', 'Argentina']</t>
         </is>
       </c>
       <c r="K388" t="inlineStr">
@@ -47317,7 +47317,7 @@
       <c r="I389" t="inlineStr"/>
       <c r="J389" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Serbia', 'Brazil']</t>
+          <t>['Brazil', 'Switzerland']</t>
         </is>
       </c>
       <c r="K389" t="inlineStr">
@@ -47413,7 +47413,7 @@
       </c>
       <c r="J390" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Serbia', 'Brazil']</t>
+          <t>['Brazil', 'Switzerland']</t>
         </is>
       </c>
       <c r="K390" t="inlineStr">
@@ -47541,7 +47541,7 @@
       </c>
       <c r="J391" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Serbia', 'Brazil']</t>
+          <t>['Brazil', 'Switzerland']</t>
         </is>
       </c>
       <c r="K391" t="inlineStr">
@@ -47669,7 +47669,7 @@
       </c>
       <c r="J392" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Serbia', 'Brazil']</t>
+          <t>['Brazil', 'Switzerland']</t>
         </is>
       </c>
       <c r="K392" t="inlineStr">
@@ -47797,7 +47797,7 @@
       </c>
       <c r="J393" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Serbia', 'Brazil']</t>
+          <t>['Brazil', 'Switzerland']</t>
         </is>
       </c>
       <c r="K393" t="inlineStr">
@@ -47925,7 +47925,7 @@
       </c>
       <c r="J394" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Serbia', 'Brazil']</t>
+          <t>['Brazil', 'Switzerland']</t>
         </is>
       </c>
       <c r="K394" t="inlineStr">
@@ -48053,7 +48053,7 @@
       </c>
       <c r="J395" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Serbia', 'Brazil']</t>
+          <t>['Brazil', 'Switzerland']</t>
         </is>
       </c>
       <c r="K395" t="inlineStr">
@@ -48167,7 +48167,7 @@
       <c r="I396" t="inlineStr"/>
       <c r="J396" t="inlineStr">
         <is>
-          <t>['Sweden', 'Mexico', 'Germany']</t>
+          <t>['Mexico', 'Germany']</t>
         </is>
       </c>
       <c r="K396" t="inlineStr">
@@ -48263,7 +48263,7 @@
       </c>
       <c r="J397" t="inlineStr">
         <is>
-          <t>['Sweden', 'Mexico', 'Germany']</t>
+          <t>['Mexico', 'Sweden']</t>
         </is>
       </c>
       <c r="K397" t="inlineStr">
@@ -48391,7 +48391,7 @@
       </c>
       <c r="J398" t="inlineStr">
         <is>
-          <t>['Sweden', 'Mexico', 'Germany']</t>
+          <t>['Mexico', 'Sweden']</t>
         </is>
       </c>
       <c r="K398" t="inlineStr">
@@ -48519,7 +48519,7 @@
       </c>
       <c r="J399" t="inlineStr">
         <is>
-          <t>['Sweden', 'Mexico', 'Germany']</t>
+          <t>['Mexico', 'Sweden']</t>
         </is>
       </c>
       <c r="K399" t="inlineStr">
@@ -48647,7 +48647,7 @@
       </c>
       <c r="J400" t="inlineStr">
         <is>
-          <t>['Sweden', 'South Korea', 'Mexico']</t>
+          <t>['Mexico', 'Sweden']</t>
         </is>
       </c>
       <c r="K400" t="inlineStr">
@@ -48775,7 +48775,7 @@
       </c>
       <c r="J401" t="inlineStr">
         <is>
-          <t>['Sweden', 'South Korea', 'Mexico']</t>
+          <t>['Mexico', 'Sweden']</t>
         </is>
       </c>
       <c r="K401" t="inlineStr">
@@ -48889,7 +48889,7 @@
       <c r="I402" t="inlineStr"/>
       <c r="J402" t="inlineStr">
         <is>
-          <t>['England', 'Tunisia', 'Belgium']</t>
+          <t>['England', 'Belgium']</t>
         </is>
       </c>
       <c r="K402" t="inlineStr">
@@ -48985,7 +48985,7 @@
       </c>
       <c r="J403" t="inlineStr">
         <is>
-          <t>['England', 'Panama', 'Belgium']</t>
+          <t>['England', 'Belgium']</t>
         </is>
       </c>
       <c r="K403" t="inlineStr">
@@ -49113,7 +49113,7 @@
       </c>
       <c r="J404" t="inlineStr">
         <is>
-          <t>['England', 'Panama', 'Belgium']</t>
+          <t>['England', 'Belgium']</t>
         </is>
       </c>
       <c r="K404" t="inlineStr">
@@ -49241,7 +49241,7 @@
       </c>
       <c r="J405" t="inlineStr">
         <is>
-          <t>['England', 'Tunisia', 'Belgium']</t>
+          <t>['England', 'Belgium']</t>
         </is>
       </c>
       <c r="K405" t="inlineStr">
@@ -49369,7 +49369,7 @@
       </c>
       <c r="J406" t="inlineStr">
         <is>
-          <t>['England', 'Tunisia', 'Belgium']</t>
+          <t>['England', 'Belgium']</t>
         </is>
       </c>
       <c r="K406" t="inlineStr">
@@ -49483,7 +49483,7 @@
       <c r="I407" t="inlineStr"/>
       <c r="J407" t="inlineStr">
         <is>
-          <t>['Japan', 'Colombia', 'Senegal']</t>
+          <t>['Japan', 'Senegal']</t>
         </is>
       </c>
       <c r="K407" t="inlineStr">
@@ -49579,7 +49579,7 @@
       </c>
       <c r="J408" t="inlineStr">
         <is>
-          <t>['Japan', 'Colombia', 'Senegal']</t>
+          <t>['Japan', 'Senegal']</t>
         </is>
       </c>
       <c r="K408" t="inlineStr">
@@ -49707,7 +49707,7 @@
       </c>
       <c r="J409" t="inlineStr">
         <is>
-          <t>['Japan', 'Colombia', 'Senegal']</t>
+          <t>['Senegal', 'Colombia']</t>
         </is>
       </c>
       <c r="K409" t="inlineStr">
@@ -49821,7 +49821,7 @@
       <c r="I410" t="inlineStr"/>
       <c r="J410" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Ecuador', 'Senegal']</t>
+          <t>['Ecuador', 'Netherlands']</t>
         </is>
       </c>
       <c r="K410" t="inlineStr">
@@ -49917,7 +49917,7 @@
       </c>
       <c r="J411" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Ecuador', 'Senegal']</t>
+          <t>['Ecuador', 'Netherlands']</t>
         </is>
       </c>
       <c r="K411" t="inlineStr">
@@ -50045,7 +50045,7 @@
       </c>
       <c r="J412" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Ecuador', 'Senegal']</t>
+          <t>['Senegal', 'Netherlands']</t>
         </is>
       </c>
       <c r="K412" t="inlineStr">
@@ -50173,7 +50173,7 @@
       </c>
       <c r="J413" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Ecuador', 'Senegal']</t>
+          <t>['Senegal', 'Netherlands']</t>
         </is>
       </c>
       <c r="K413" t="inlineStr">
@@ -50301,7 +50301,7 @@
       </c>
       <c r="J414" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Ecuador', 'Senegal']</t>
+          <t>['Ecuador', 'Netherlands']</t>
         </is>
       </c>
       <c r="K414" t="inlineStr">
@@ -50429,7 +50429,7 @@
       </c>
       <c r="J415" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Ecuador', 'Senegal']</t>
+          <t>['Senegal', 'Netherlands']</t>
         </is>
       </c>
       <c r="K415" t="inlineStr">
@@ -50543,7 +50543,7 @@
       <c r="I416" t="inlineStr"/>
       <c r="J416" t="inlineStr">
         <is>
-          <t>['Iran', 'United States', 'England']</t>
+          <t>['England', 'Iran']</t>
         </is>
       </c>
       <c r="K416" t="inlineStr">
@@ -50639,7 +50639,7 @@
       </c>
       <c r="J417" t="inlineStr">
         <is>
-          <t>['Iran', 'United States', 'England']</t>
+          <t>['England', 'United States']</t>
         </is>
       </c>
       <c r="K417" t="inlineStr">
@@ -50767,7 +50767,7 @@
       </c>
       <c r="J418" t="inlineStr">
         <is>
-          <t>['Iran', 'United States', 'England']</t>
+          <t>['England', 'United States']</t>
         </is>
       </c>
       <c r="K418" t="inlineStr">
@@ -50895,7 +50895,7 @@
       </c>
       <c r="J419" t="inlineStr">
         <is>
-          <t>['Iran', 'United States', 'England']</t>
+          <t>['England', 'United States']</t>
         </is>
       </c>
       <c r="K419" t="inlineStr">
@@ -51023,7 +51023,7 @@
       </c>
       <c r="J420" t="inlineStr">
         <is>
-          <t>['Iran', 'United States', 'England']</t>
+          <t>['England', 'United States']</t>
         </is>
       </c>
       <c r="K420" t="inlineStr">
@@ -51137,7 +51137,7 @@
       <c r="I421" t="inlineStr"/>
       <c r="J421" t="inlineStr">
         <is>
-          <t>['Poland', 'Saudi Arabia', 'Argentina']</t>
+          <t>['Saudi Arabia', 'Poland']</t>
         </is>
       </c>
       <c r="K421" t="inlineStr">
@@ -51233,7 +51233,7 @@
       </c>
       <c r="J422" t="inlineStr">
         <is>
-          <t>['Poland', 'Saudi Arabia', 'Argentina']</t>
+          <t>['Poland', 'Argentina']</t>
         </is>
       </c>
       <c r="K422" t="inlineStr">
@@ -51361,7 +51361,7 @@
       </c>
       <c r="J423" t="inlineStr">
         <is>
-          <t>['Poland', 'Mexico', 'Argentina']</t>
+          <t>['Poland', 'Argentina']</t>
         </is>
       </c>
       <c r="K423" t="inlineStr">
@@ -51489,7 +51489,7 @@
       </c>
       <c r="J424" t="inlineStr">
         <is>
-          <t>['Poland', 'Mexico', 'Argentina']</t>
+          <t>['Poland', 'Argentina']</t>
         </is>
       </c>
       <c r="K424" t="inlineStr">
@@ -51617,7 +51617,7 @@
       </c>
       <c r="J425" t="inlineStr">
         <is>
-          <t>['Poland', 'Mexico', 'Argentina']</t>
+          <t>['Poland', 'Argentina']</t>
         </is>
       </c>
       <c r="K425" t="inlineStr">
@@ -51745,7 +51745,7 @@
       </c>
       <c r="J426" t="inlineStr">
         <is>
-          <t>['Poland', 'Mexico', 'Argentina']</t>
+          <t>['Poland', 'Argentina']</t>
         </is>
       </c>
       <c r="K426" t="inlineStr">
@@ -51859,7 +51859,7 @@
       <c r="I427" t="inlineStr"/>
       <c r="J427" t="inlineStr">
         <is>
-          <t>['Australia', 'Denmark', 'France']</t>
+          <t>['France', 'Australia']</t>
         </is>
       </c>
       <c r="K427" t="inlineStr">
@@ -51955,7 +51955,7 @@
       </c>
       <c r="J428" t="inlineStr">
         <is>
-          <t>['Australia', 'Tunisia', 'France']</t>
+          <t>['France', 'Australia']</t>
         </is>
       </c>
       <c r="K428" t="inlineStr">
@@ -52083,7 +52083,7 @@
       </c>
       <c r="J429" t="inlineStr">
         <is>
-          <t>['Australia', 'Tunisia', 'France']</t>
+          <t>['France', 'Australia']</t>
         </is>
       </c>
       <c r="K429" t="inlineStr">
@@ -52197,7 +52197,7 @@
       <c r="I430" t="inlineStr"/>
       <c r="J430" t="inlineStr">
         <is>
-          <t>['Japan', 'Spain', 'Costa Rica']</t>
+          <t>['Costa Rica', 'Spain']</t>
         </is>
       </c>
       <c r="K430" t="inlineStr">
@@ -52293,7 +52293,7 @@
       </c>
       <c r="J431" t="inlineStr">
         <is>
-          <t>['Japan', 'Spain', 'Germany']</t>
+          <t>['Japan', 'Spain']</t>
         </is>
       </c>
       <c r="K431" t="inlineStr">
@@ -52421,7 +52421,7 @@
       </c>
       <c r="J432" t="inlineStr">
         <is>
-          <t>['Costa Rica', 'Spain', 'Germany']</t>
+          <t>['Germany', 'Spain']</t>
         </is>
       </c>
       <c r="K432" t="inlineStr">
@@ -52549,7 +52549,7 @@
       </c>
       <c r="J433" t="inlineStr">
         <is>
-          <t>['Japan', 'Spain', 'Germany']</t>
+          <t>['Japan', 'Spain']</t>
         </is>
       </c>
       <c r="K433" t="inlineStr">
@@ -52677,7 +52677,7 @@
       </c>
       <c r="J434" t="inlineStr">
         <is>
-          <t>['Japan', 'Spain', 'Germany']</t>
+          <t>['Japan', 'Spain']</t>
         </is>
       </c>
       <c r="K434" t="inlineStr">
@@ -52805,7 +52805,7 @@
       </c>
       <c r="J435" t="inlineStr">
         <is>
-          <t>['Japan', 'Spain', 'Costa Rica']</t>
+          <t>['Japan', 'Spain']</t>
         </is>
       </c>
       <c r="K435" t="inlineStr">
@@ -52933,7 +52933,7 @@
       </c>
       <c r="J436" t="inlineStr">
         <is>
-          <t>['Japan', 'Spain', 'Costa Rica']</t>
+          <t>['Japan', 'Costa Rica']</t>
         </is>
       </c>
       <c r="K436" t="inlineStr">
@@ -53061,7 +53061,7 @@
       </c>
       <c r="J437" t="inlineStr">
         <is>
-          <t>['Japan', 'Spain', 'Costa Rica']</t>
+          <t>['Japan', 'Spain']</t>
         </is>
       </c>
       <c r="K437" t="inlineStr">
@@ -53189,7 +53189,7 @@
       </c>
       <c r="J438" t="inlineStr">
         <is>
-          <t>['Japan', 'Spain', 'Germany']</t>
+          <t>['Japan', 'Spain']</t>
         </is>
       </c>
       <c r="K438" t="inlineStr">
@@ -53317,7 +53317,7 @@
       </c>
       <c r="J439" t="inlineStr">
         <is>
-          <t>['Japan', 'Spain', 'Germany']</t>
+          <t>['Japan', 'Spain']</t>
         </is>
       </c>
       <c r="K439" t="inlineStr">
@@ -53431,7 +53431,7 @@
       <c r="I440" t="inlineStr"/>
       <c r="J440" t="inlineStr">
         <is>
-          <t>['Croatia', 'Morocco', 'Belgium']</t>
+          <t>['Morocco', 'Croatia']</t>
         </is>
       </c>
       <c r="K440" t="inlineStr">
@@ -53527,7 +53527,7 @@
       </c>
       <c r="J441" t="inlineStr">
         <is>
-          <t>['Croatia', 'Morocco', 'Belgium']</t>
+          <t>['Morocco', 'Croatia']</t>
         </is>
       </c>
       <c r="K441" t="inlineStr">
@@ -53655,7 +53655,7 @@
       </c>
       <c r="J442" t="inlineStr">
         <is>
-          <t>['Croatia', 'Morocco', 'Belgium']</t>
+          <t>['Morocco', 'Croatia']</t>
         </is>
       </c>
       <c r="K442" t="inlineStr">
@@ -53783,7 +53783,7 @@
       </c>
       <c r="J443" t="inlineStr">
         <is>
-          <t>['Croatia', 'Morocco', 'Belgium']</t>
+          <t>['Morocco', 'Croatia']</t>
         </is>
       </c>
       <c r="K443" t="inlineStr">
@@ -53897,7 +53897,7 @@
       <c r="I444" t="inlineStr"/>
       <c r="J444" t="inlineStr">
         <is>
-          <t>['Cameroon', 'Switzerland', 'Brazil']</t>
+          <t>['Brazil', 'Switzerland']</t>
         </is>
       </c>
       <c r="K444" t="inlineStr">
@@ -53993,7 +53993,7 @@
       </c>
       <c r="J445" t="inlineStr">
         <is>
-          <t>['Cameroon', 'Switzerland', 'Brazil']</t>
+          <t>['Brazil', 'Switzerland']</t>
         </is>
       </c>
       <c r="K445" t="inlineStr">
@@ -54121,7 +54121,7 @@
       </c>
       <c r="J446" t="inlineStr">
         <is>
-          <t>['Cameroon', 'Switzerland', 'Brazil']</t>
+          <t>['Brazil', 'Switzerland']</t>
         </is>
       </c>
       <c r="K446" t="inlineStr">
@@ -54249,7 +54249,7 @@
       </c>
       <c r="J447" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Serbia', 'Brazil']</t>
+          <t>['Serbia', 'Brazil']</t>
         </is>
       </c>
       <c r="K447" t="inlineStr">
@@ -54377,7 +54377,7 @@
       </c>
       <c r="J448" t="inlineStr">
         <is>
-          <t>['Cameroon', 'Switzerland', 'Brazil']</t>
+          <t>['Brazil', 'Switzerland']</t>
         </is>
       </c>
       <c r="K448" t="inlineStr">
@@ -54505,7 +54505,7 @@
       </c>
       <c r="J449" t="inlineStr">
         <is>
-          <t>['Cameroon', 'Switzerland', 'Brazil']</t>
+          <t>['Brazil', 'Switzerland']</t>
         </is>
       </c>
       <c r="K449" t="inlineStr">
@@ -54633,7 +54633,7 @@
       </c>
       <c r="J450" t="inlineStr">
         <is>
-          <t>['Cameroon', 'Switzerland', 'Brazil']</t>
+          <t>['Brazil', 'Switzerland']</t>
         </is>
       </c>
       <c r="K450" t="inlineStr">
@@ -54747,7 +54747,7 @@
       <c r="I451" t="inlineStr"/>
       <c r="J451" t="inlineStr">
         <is>
-          <t>['Portugal', 'South Korea', 'Ghana']</t>
+          <t>['Portugal', 'Ghana']</t>
         </is>
       </c>
       <c r="K451" t="inlineStr">
@@ -54843,7 +54843,7 @@
       </c>
       <c r="J452" t="inlineStr">
         <is>
-          <t>['Portugal', 'Ghana', 'Uruguay']</t>
+          <t>['Portugal', 'Ghana']</t>
         </is>
       </c>
       <c r="K452" t="inlineStr">
@@ -54971,7 +54971,7 @@
       </c>
       <c r="J453" t="inlineStr">
         <is>
-          <t>['Portugal', 'Ghana', 'Uruguay']</t>
+          <t>['Uruguay', 'Portugal']</t>
         </is>
       </c>
       <c r="K453" t="inlineStr">
@@ -55099,7 +55099,7 @@
       </c>
       <c r="J454" t="inlineStr">
         <is>
-          <t>['Portugal', 'Ghana', 'Uruguay']</t>
+          <t>['Uruguay', 'Portugal']</t>
         </is>
       </c>
       <c r="K454" t="inlineStr">
@@ -55227,7 +55227,7 @@
       </c>
       <c r="J455" t="inlineStr">
         <is>
-          <t>['Portugal', 'Ghana', 'Uruguay']</t>
+          <t>['Uruguay', 'Portugal']</t>
         </is>
       </c>
       <c r="K455" t="inlineStr">
@@ -55355,7 +55355,7 @@
       </c>
       <c r="J456" t="inlineStr">
         <is>
-          <t>['Portugal', 'South Korea', 'Uruguay']</t>
+          <t>['Portugal', 'South Korea']</t>
         </is>
       </c>
       <c r="K456" t="inlineStr">

--- a/data/out/wiki/men/uefa/wc/goals_wc_uefa.xlsx
+++ b/data/out/wiki/men/uefa/wc/goals_wc_uefa.xlsx
@@ -633,7 +633,7 @@
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr">
         <is>
-          <t>['Bulgaria', 'Italy', 'Argentina']</t>
+          <t>['Bulgaria', 'Argentina', 'Italy']</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -729,7 +729,7 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>['Bulgaria', 'Italy', 'Argentina']</t>
+          <t>['Bulgaria', 'Argentina', 'Italy']</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
@@ -857,7 +857,7 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>['Bulgaria', 'Italy', 'Argentina']</t>
+          <t>['Bulgaria', 'Argentina', 'Italy']</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
@@ -985,7 +985,7 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>['Bulgaria', 'Italy', 'Argentina']</t>
+          <t>['Bulgaria', 'Argentina', 'Italy']</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
@@ -1113,7 +1113,7 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>['Bulgaria', 'Italy', 'Argentina']</t>
+          <t>['Bulgaria', 'Argentina', 'Italy']</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
@@ -1241,7 +1241,7 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>['Bulgaria', 'Italy', 'Argentina']</t>
+          <t>['Bulgaria', 'Argentina', 'Italy']</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
@@ -1369,7 +1369,7 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>['Bulgaria', 'Italy', 'Argentina']</t>
+          <t>['Bulgaria', 'Argentina', 'Italy']</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
@@ -1497,7 +1497,7 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>['Bulgaria', 'Italy', 'Argentina']</t>
+          <t>['Bulgaria', 'Argentina', 'Italy']</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
@@ -1611,7 +1611,7 @@
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr">
         <is>
-          <t>['Mexico', 'Paraguay', 'Belgium']</t>
+          <t>['Belgium', 'Paraguay', 'Mexico']</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
@@ -1707,7 +1707,7 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>['Mexico', 'Paraguay', 'Belgium']</t>
+          <t>['Paraguay', 'Belgium', 'Mexico']</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
@@ -1835,7 +1835,7 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>['Mexico', 'Paraguay', 'Belgium']</t>
+          <t>['Belgium', 'Paraguay', 'Mexico']</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
@@ -1963,7 +1963,7 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>['Mexico', 'Paraguay', 'Belgium']</t>
+          <t>['Belgium', 'Paraguay', 'Mexico']</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
@@ -2091,7 +2091,7 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>['Mexico', 'Paraguay', 'Belgium']</t>
+          <t>['Paraguay', 'Belgium', 'Mexico']</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
@@ -2219,7 +2219,7 @@
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>['Mexico', 'Paraguay', 'Belgium']</t>
+          <t>['Belgium', 'Paraguay', 'Mexico']</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
@@ -3055,7 +3055,7 @@
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr">
         <is>
-          <t>['Brazil', 'Northern Ireland', 'Spain']</t>
+          <t>['Spain', 'Brazil', 'Northern Ireland']</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
@@ -3151,7 +3151,7 @@
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>['Algeria', 'Brazil', 'Spain']</t>
+          <t>['Spain', 'Brazil', 'Algeria']</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
@@ -3279,7 +3279,7 @@
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>['Brazil', 'Northern Ireland', 'Spain']</t>
+          <t>['Spain', 'Brazil', 'Northern Ireland']</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
@@ -3407,7 +3407,7 @@
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>['Algeria', 'Brazil', 'Spain']</t>
+          <t>['Spain', 'Brazil', 'Algeria']</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
@@ -3535,7 +3535,7 @@
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>['Brazil', 'Northern Ireland', 'Spain']</t>
+          <t>['Spain', 'Brazil', 'Northern Ireland']</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
@@ -3663,7 +3663,7 @@
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>['Brazil', 'Northern Ireland', 'Spain']</t>
+          <t>['Spain', 'Brazil', 'Northern Ireland']</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
@@ -3791,7 +3791,7 @@
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>['Brazil', 'Northern Ireland', 'Spain']</t>
+          <t>['Spain', 'Brazil', 'Northern Ireland']</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
@@ -3905,7 +3905,7 @@
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr">
         <is>
-          <t>['Denmark', 'Uruguay', 'West Germany']</t>
+          <t>['West Germany', 'Uruguay', 'Denmark']</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
@@ -4001,7 +4001,7 @@
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>['Denmark', 'Uruguay', 'West Germany']</t>
+          <t>['West Germany', 'Uruguay', 'Denmark']</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
@@ -4129,7 +4129,7 @@
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>['Denmark', 'Uruguay', 'West Germany']</t>
+          <t>['West Germany', 'Uruguay', 'Denmark']</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
@@ -4243,7 +4243,7 @@
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr">
         <is>
-          <t>['Portugal', 'Morocco', 'Poland']</t>
+          <t>['Morocco', 'Portugal', 'Poland']</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
@@ -4339,7 +4339,7 @@
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>['England', 'Portugal', 'Poland']</t>
+          <t>['Portugal', 'England', 'Poland']</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
@@ -4467,7 +4467,7 @@
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>['England', 'Portugal', 'Morocco']</t>
+          <t>['Morocco', 'Portugal', 'England']</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
@@ -4595,7 +4595,7 @@
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>['England', 'Morocco', 'Poland']</t>
+          <t>['Morocco', 'England', 'Poland']</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
@@ -4723,7 +4723,7 @@
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>['England', 'Morocco', 'Poland']</t>
+          <t>['Morocco', 'England', 'Poland']</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
@@ -4851,7 +4851,7 @@
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>['England', 'Morocco', 'Poland']</t>
+          <t>['Morocco', 'England', 'Poland']</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
@@ -4979,7 +4979,7 @@
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>['England', 'Morocco', 'Poland']</t>
+          <t>['Morocco', 'England', 'Poland']</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
@@ -5107,7 +5107,7 @@
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>['England', 'Morocco', 'Poland']</t>
+          <t>['Morocco', 'England', 'Poland']</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
@@ -5221,7 +5221,7 @@
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr">
         <is>
-          <t>['Austria', 'Italy', 'Czechoslovakia']</t>
+          <t>['Austria', 'Czechoslovakia', 'Italy']</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
@@ -5317,7 +5317,7 @@
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>['Austria', 'Italy', 'Czechoslovakia']</t>
+          <t>['Austria', 'Czechoslovakia', 'Italy']</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
@@ -5445,7 +5445,7 @@
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>['Austria', 'Italy', 'Czechoslovakia']</t>
+          <t>['Austria', 'Czechoslovakia', 'Italy']</t>
         </is>
       </c>
       <c r="K42" t="inlineStr">
@@ -5573,7 +5573,7 @@
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>['Austria', 'Italy', 'Czechoslovakia']</t>
+          <t>['Austria', 'Czechoslovakia', 'Italy']</t>
         </is>
       </c>
       <c r="K43" t="inlineStr">
@@ -5701,7 +5701,7 @@
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>['Austria', 'Italy', 'Czechoslovakia']</t>
+          <t>['Austria', 'Czechoslovakia', 'Italy']</t>
         </is>
       </c>
       <c r="K44" t="inlineStr">
@@ -5829,7 +5829,7 @@
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>['Austria', 'Italy', 'Czechoslovakia']</t>
+          <t>['Austria', 'Czechoslovakia', 'Italy']</t>
         </is>
       </c>
       <c r="K45" t="inlineStr">
@@ -6423,7 +6423,7 @@
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>['Romania', 'Cameroon', 'Argentina']</t>
+          <t>['Argentina', 'Romania', 'Cameroon']</t>
         </is>
       </c>
       <c r="K50" t="inlineStr">
@@ -6551,7 +6551,7 @@
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>['Romania', 'Cameroon', 'Argentina']</t>
+          <t>['Argentina', 'Romania', 'Cameroon']</t>
         </is>
       </c>
       <c r="K51" t="inlineStr">
@@ -6793,7 +6793,7 @@
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr">
         <is>
-          <t>['Costa Rica', 'Brazil', 'Scotland']</t>
+          <t>['Brazil', 'Scotland', 'Costa Rica']</t>
         </is>
       </c>
       <c r="K53" t="inlineStr">
@@ -7017,7 +7017,7 @@
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>['Costa Rica', 'Brazil', 'Scotland']</t>
+          <t>['Brazil', 'Scotland', 'Costa Rica']</t>
         </is>
       </c>
       <c r="K55" t="inlineStr">
@@ -7145,7 +7145,7 @@
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>['Costa Rica', 'Brazil', 'Scotland']</t>
+          <t>['Brazil', 'Scotland', 'Costa Rica']</t>
         </is>
       </c>
       <c r="K56" t="inlineStr">
@@ -7273,7 +7273,7 @@
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>['Costa Rica', 'Brazil', 'Scotland']</t>
+          <t>['Brazil', 'Scotland', 'Costa Rica']</t>
         </is>
       </c>
       <c r="K57" t="inlineStr">
@@ -7387,7 +7387,7 @@
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr">
         <is>
-          <t>['Yugoslavia', 'West Germany', 'Colombia']</t>
+          <t>['West Germany', 'Colombia', 'Yugoslavia']</t>
         </is>
       </c>
       <c r="K58" t="inlineStr">
@@ -7483,7 +7483,7 @@
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>['Yugoslavia', 'West Germany', 'Colombia']</t>
+          <t>['West Germany', 'Colombia', 'Yugoslavia']</t>
         </is>
       </c>
       <c r="K59" t="inlineStr">
@@ -7611,7 +7611,7 @@
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>['Yugoslavia', 'West Germany', 'Colombia']</t>
+          <t>['West Germany', 'Colombia', 'Yugoslavia']</t>
         </is>
       </c>
       <c r="K60" t="inlineStr">
@@ -7739,7 +7739,7 @@
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>['Yugoslavia', 'West Germany', 'Colombia']</t>
+          <t>['West Germany', 'Colombia', 'Yugoslavia']</t>
         </is>
       </c>
       <c r="K61" t="inlineStr">
@@ -7867,7 +7867,7 @@
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>['Yugoslavia', 'West Germany', 'Colombia']</t>
+          <t>['West Germany', 'Colombia', 'Yugoslavia']</t>
         </is>
       </c>
       <c r="K62" t="inlineStr">
@@ -7995,7 +7995,7 @@
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>['Yugoslavia', 'West Germany', 'Colombia']</t>
+          <t>['West Germany', 'Colombia', 'Yugoslavia']</t>
         </is>
       </c>
       <c r="K63" t="inlineStr">
@@ -8123,7 +8123,7 @@
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>['Yugoslavia', 'West Germany', 'Colombia']</t>
+          <t>['West Germany', 'Colombia', 'Yugoslavia']</t>
         </is>
       </c>
       <c r="K64" t="inlineStr">
@@ -8251,7 +8251,7 @@
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>['Yugoslavia', 'West Germany', 'Colombia']</t>
+          <t>['West Germany', 'Colombia', 'Yugoslavia']</t>
         </is>
       </c>
       <c r="K65" t="inlineStr">
@@ -8365,7 +8365,7 @@
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr">
         <is>
-          <t>['Uruguay', 'Belgium', 'Spain']</t>
+          <t>['Spain', 'Uruguay', 'Belgium']</t>
         </is>
       </c>
       <c r="K66" t="inlineStr">
@@ -8461,7 +8461,7 @@
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>['Uruguay', 'Belgium', 'Spain']</t>
+          <t>['Spain', 'Uruguay', 'Belgium']</t>
         </is>
       </c>
       <c r="K67" t="inlineStr">
@@ -8589,7 +8589,7 @@
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>['Uruguay', 'Belgium', 'Spain']</t>
+          <t>['Spain', 'Uruguay', 'Belgium']</t>
         </is>
       </c>
       <c r="K68" t="inlineStr">
@@ -8717,7 +8717,7 @@
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>['Uruguay', 'Belgium', 'Spain']</t>
+          <t>['Spain', 'Uruguay', 'Belgium']</t>
         </is>
       </c>
       <c r="K69" t="inlineStr">
@@ -8845,7 +8845,7 @@
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>['Uruguay', 'Belgium', 'Spain']</t>
+          <t>['Spain', 'Uruguay', 'Belgium']</t>
         </is>
       </c>
       <c r="K70" t="inlineStr">
@@ -8959,7 +8959,7 @@
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr">
         <is>
-          <t>['England', 'Ireland', 'Netherlands']</t>
+          <t>['Netherlands', 'England', 'Ireland']</t>
         </is>
       </c>
       <c r="K71" t="inlineStr">
@@ -9055,7 +9055,7 @@
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>['England', 'Egypt', 'Netherlands']</t>
+          <t>['Egypt', 'Netherlands', 'England']</t>
         </is>
       </c>
       <c r="K72" t="inlineStr">
@@ -9183,7 +9183,7 @@
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>['England', 'Egypt', 'Netherlands']</t>
+          <t>['Egypt', 'Netherlands', 'England']</t>
         </is>
       </c>
       <c r="K73" t="inlineStr">
@@ -9311,7 +9311,7 @@
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>['England', 'Ireland', 'Netherlands']</t>
+          <t>['Netherlands', 'England', 'Ireland']</t>
         </is>
       </c>
       <c r="K74" t="inlineStr">
@@ -9425,7 +9425,7 @@
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr">
         <is>
-          <t>['United States', 'Romania', 'Switzerland']</t>
+          <t>['Romania', 'United States', 'Switzerland']</t>
         </is>
       </c>
       <c r="K75" t="inlineStr">
@@ -9891,7 +9891,7 @@
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr">
         <is>
-          <t>['Sweden', 'Cameroon', 'Brazil']</t>
+          <t>['Sweden', 'Brazil', 'Cameroon']</t>
         </is>
       </c>
       <c r="K79" t="inlineStr">
@@ -9987,7 +9987,7 @@
       </c>
       <c r="J80" t="inlineStr">
         <is>
-          <t>['Sweden', 'Russia', 'Brazil']</t>
+          <t>['Sweden', 'Brazil', 'Russia']</t>
         </is>
       </c>
       <c r="K80" t="inlineStr">
@@ -10115,7 +10115,7 @@
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>['Sweden', 'Russia', 'Brazil']</t>
+          <t>['Sweden', 'Brazil', 'Russia']</t>
         </is>
       </c>
       <c r="K81" t="inlineStr">
@@ -10243,7 +10243,7 @@
       </c>
       <c r="J82" t="inlineStr">
         <is>
-          <t>['Sweden', 'Russia', 'Brazil']</t>
+          <t>['Sweden', 'Brazil', 'Russia']</t>
         </is>
       </c>
       <c r="K82" t="inlineStr">
@@ -10371,7 +10371,7 @@
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t>['Sweden', 'Russia', 'Brazil']</t>
+          <t>['Sweden', 'Brazil', 'Russia']</t>
         </is>
       </c>
       <c r="K83" t="inlineStr">
@@ -10499,7 +10499,7 @@
       </c>
       <c r="J84" t="inlineStr">
         <is>
-          <t>['Sweden', 'Russia', 'Brazil']</t>
+          <t>['Sweden', 'Brazil', 'Russia']</t>
         </is>
       </c>
       <c r="K84" t="inlineStr">
@@ -10627,7 +10627,7 @@
       </c>
       <c r="J85" t="inlineStr">
         <is>
-          <t>['Sweden', 'Russia', 'Brazil']</t>
+          <t>['Sweden', 'Brazil', 'Russia']</t>
         </is>
       </c>
       <c r="K85" t="inlineStr">
@@ -10755,7 +10755,7 @@
       </c>
       <c r="J86" t="inlineStr">
         <is>
-          <t>['Sweden', 'Russia', 'Brazil']</t>
+          <t>['Sweden', 'Brazil', 'Russia']</t>
         </is>
       </c>
       <c r="K86" t="inlineStr">
@@ -10883,7 +10883,7 @@
       </c>
       <c r="J87" t="inlineStr">
         <is>
-          <t>['Sweden', 'Russia', 'Brazil']</t>
+          <t>['Sweden', 'Brazil', 'Russia']</t>
         </is>
       </c>
       <c r="K87" t="inlineStr">
@@ -11011,7 +11011,7 @@
       </c>
       <c r="J88" t="inlineStr">
         <is>
-          <t>['Sweden', 'Russia', 'Brazil']</t>
+          <t>['Sweden', 'Brazil', 'Russia']</t>
         </is>
       </c>
       <c r="K88" t="inlineStr">
@@ -11125,7 +11125,7 @@
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr">
         <is>
-          <t>['South Korea', 'Germany', 'Spain']</t>
+          <t>['Spain', 'South Korea', 'Germany']</t>
         </is>
       </c>
       <c r="K89" t="inlineStr">
@@ -11221,7 +11221,7 @@
       </c>
       <c r="J90" t="inlineStr">
         <is>
-          <t>['South Korea', 'Germany', 'Spain']</t>
+          <t>['Spain', 'South Korea', 'Germany']</t>
         </is>
       </c>
       <c r="K90" t="inlineStr">
@@ -11349,7 +11349,7 @@
       </c>
       <c r="J91" t="inlineStr">
         <is>
-          <t>['South Korea', 'Germany', 'Spain']</t>
+          <t>['Spain', 'South Korea', 'Germany']</t>
         </is>
       </c>
       <c r="K91" t="inlineStr">
@@ -11477,7 +11477,7 @@
       </c>
       <c r="J92" t="inlineStr">
         <is>
-          <t>['South Korea', 'Germany', 'Spain']</t>
+          <t>['Spain', 'South Korea', 'Germany']</t>
         </is>
       </c>
       <c r="K92" t="inlineStr">
@@ -11605,7 +11605,7 @@
       </c>
       <c r="J93" t="inlineStr">
         <is>
-          <t>['South Korea', 'Germany', 'Spain']</t>
+          <t>['Spain', 'South Korea', 'Germany']</t>
         </is>
       </c>
       <c r="K93" t="inlineStr">
@@ -11733,7 +11733,7 @@
       </c>
       <c r="J94" t="inlineStr">
         <is>
-          <t>['South Korea', 'Germany', 'Spain']</t>
+          <t>['Spain', 'South Korea', 'Germany']</t>
         </is>
       </c>
       <c r="K94" t="inlineStr">
@@ -11861,7 +11861,7 @@
       </c>
       <c r="J95" t="inlineStr">
         <is>
-          <t>['South Korea', 'Germany', 'Spain']</t>
+          <t>['Spain', 'South Korea', 'Germany']</t>
         </is>
       </c>
       <c r="K95" t="inlineStr">
@@ -11989,7 +11989,7 @@
       </c>
       <c r="J96" t="inlineStr">
         <is>
-          <t>['South Korea', 'Germany', 'Spain']</t>
+          <t>['Spain', 'South Korea', 'Germany']</t>
         </is>
       </c>
       <c r="K96" t="inlineStr">
@@ -12117,7 +12117,7 @@
       </c>
       <c r="J97" t="inlineStr">
         <is>
-          <t>['South Korea', 'Germany', 'Spain']</t>
+          <t>['Spain', 'South Korea', 'Germany']</t>
         </is>
       </c>
       <c r="K97" t="inlineStr">
@@ -12245,7 +12245,7 @@
       </c>
       <c r="J98" t="inlineStr">
         <is>
-          <t>['South Korea', 'Germany', 'Spain']</t>
+          <t>['Spain', 'South Korea', 'Germany']</t>
         </is>
       </c>
       <c r="K98" t="inlineStr">
@@ -12359,7 +12359,7 @@
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr">
         <is>
-          <t>['Bulgaria', 'Nigeria', 'Argentina']</t>
+          <t>['Nigeria', 'Bulgaria', 'Argentina']</t>
         </is>
       </c>
       <c r="K99" t="inlineStr">
@@ -12455,7 +12455,7 @@
       </c>
       <c r="J100" t="inlineStr">
         <is>
-          <t>['Bulgaria', 'Nigeria', 'Argentina']</t>
+          <t>['Nigeria', 'Bulgaria', 'Argentina']</t>
         </is>
       </c>
       <c r="K100" t="inlineStr">
@@ -12583,7 +12583,7 @@
       </c>
       <c r="J101" t="inlineStr">
         <is>
-          <t>['Bulgaria', 'Nigeria', 'Argentina']</t>
+          <t>['Nigeria', 'Bulgaria', 'Argentina']</t>
         </is>
       </c>
       <c r="K101" t="inlineStr">
@@ -12711,7 +12711,7 @@
       </c>
       <c r="J102" t="inlineStr">
         <is>
-          <t>['Bulgaria', 'Nigeria', 'Argentina']</t>
+          <t>['Nigeria', 'Bulgaria', 'Argentina']</t>
         </is>
       </c>
       <c r="K102" t="inlineStr">
@@ -12839,7 +12839,7 @@
       </c>
       <c r="J103" t="inlineStr">
         <is>
-          <t>['Bulgaria', 'Nigeria', 'Argentina']</t>
+          <t>['Nigeria', 'Bulgaria', 'Argentina']</t>
         </is>
       </c>
       <c r="K103" t="inlineStr">
@@ -12953,7 +12953,7 @@
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr">
         <is>
-          <t>['Mexico', 'Italy', 'Norway']</t>
+          <t>['Norway', 'Mexico', 'Italy']</t>
         </is>
       </c>
       <c r="K104" t="inlineStr">
@@ -13049,7 +13049,7 @@
       </c>
       <c r="J105" t="inlineStr">
         <is>
-          <t>['Ireland', 'Italy', 'Norway']</t>
+          <t>['Norway', 'Ireland', 'Italy']</t>
         </is>
       </c>
       <c r="K105" t="inlineStr">
@@ -13177,7 +13177,7 @@
       </c>
       <c r="J106" t="inlineStr">
         <is>
-          <t>['Mexico', 'Ireland', 'Italy']</t>
+          <t>['Italy', 'Mexico', 'Ireland']</t>
         </is>
       </c>
       <c r="K106" t="inlineStr">
@@ -13291,7 +13291,7 @@
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr">
         <is>
-          <t>['Saudi Arabia', 'Belgium', 'Netherlands']</t>
+          <t>['Netherlands', 'Belgium', 'Saudi Arabia']</t>
         </is>
       </c>
       <c r="K107" t="inlineStr">
@@ -13387,7 +13387,7 @@
       </c>
       <c r="J108" t="inlineStr">
         <is>
-          <t>['Saudi Arabia', 'Belgium', 'Netherlands']</t>
+          <t>['Belgium', 'Netherlands', 'Saudi Arabia']</t>
         </is>
       </c>
       <c r="K108" t="inlineStr">
@@ -13515,7 +13515,7 @@
       </c>
       <c r="J109" t="inlineStr">
         <is>
-          <t>['Saudi Arabia', 'Belgium', 'Netherlands']</t>
+          <t>['Belgium', 'Netherlands', 'Saudi Arabia']</t>
         </is>
       </c>
       <c r="K109" t="inlineStr">
@@ -13643,7 +13643,7 @@
       </c>
       <c r="J110" t="inlineStr">
         <is>
-          <t>['Saudi Arabia', 'Belgium', 'Netherlands']</t>
+          <t>['Belgium', 'Netherlands', 'Saudi Arabia']</t>
         </is>
       </c>
       <c r="K110" t="inlineStr">
@@ -13771,7 +13771,7 @@
       </c>
       <c r="J111" t="inlineStr">
         <is>
-          <t>['Saudi Arabia', 'Belgium', 'Netherlands']</t>
+          <t>['Belgium', 'Netherlands', 'Saudi Arabia']</t>
         </is>
       </c>
       <c r="K111" t="inlineStr">
@@ -13885,7 +13885,7 @@
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr">
         <is>
-          <t>['Norway', 'Brazil']</t>
+          <t>['Brazil', 'Norway']</t>
         </is>
       </c>
       <c r="K112" t="inlineStr">
@@ -13981,7 +13981,7 @@
       </c>
       <c r="J113" t="inlineStr">
         <is>
-          <t>['Morocco', 'Brazil']</t>
+          <t>['Brazil', 'Morocco']</t>
         </is>
       </c>
       <c r="K113" t="inlineStr">
@@ -14109,7 +14109,7 @@
       </c>
       <c r="J114" t="inlineStr">
         <is>
-          <t>['Morocco', 'Brazil']</t>
+          <t>['Brazil', 'Morocco']</t>
         </is>
       </c>
       <c r="K114" t="inlineStr">
@@ -14237,7 +14237,7 @@
       </c>
       <c r="J115" t="inlineStr">
         <is>
-          <t>['Morocco', 'Brazil']</t>
+          <t>['Brazil', 'Morocco']</t>
         </is>
       </c>
       <c r="K115" t="inlineStr">
@@ -14365,7 +14365,7 @@
       </c>
       <c r="J116" t="inlineStr">
         <is>
-          <t>['Morocco', 'Brazil']</t>
+          <t>['Brazil', 'Morocco']</t>
         </is>
       </c>
       <c r="K116" t="inlineStr">
@@ -14493,7 +14493,7 @@
       </c>
       <c r="J117" t="inlineStr">
         <is>
-          <t>['Morocco', 'Brazil']</t>
+          <t>['Brazil', 'Morocco']</t>
         </is>
       </c>
       <c r="K117" t="inlineStr">
@@ -14621,7 +14621,7 @@
       </c>
       <c r="J118" t="inlineStr">
         <is>
-          <t>['Norway', 'Brazil']</t>
+          <t>['Brazil', 'Norway']</t>
         </is>
       </c>
       <c r="K118" t="inlineStr">
@@ -15457,7 +15457,7 @@
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr">
         <is>
-          <t>['Denmark', 'France']</t>
+          <t>['France', 'Denmark']</t>
         </is>
       </c>
       <c r="K125" t="inlineStr">
@@ -15553,7 +15553,7 @@
       </c>
       <c r="J126" t="inlineStr">
         <is>
-          <t>['Denmark', 'France']</t>
+          <t>['France', 'Denmark']</t>
         </is>
       </c>
       <c r="K126" t="inlineStr">
@@ -15681,7 +15681,7 @@
       </c>
       <c r="J127" t="inlineStr">
         <is>
-          <t>['Denmark', 'France']</t>
+          <t>['France', 'Denmark']</t>
         </is>
       </c>
       <c r="K127" t="inlineStr">
@@ -15809,7 +15809,7 @@
       </c>
       <c r="J128" t="inlineStr">
         <is>
-          <t>['Denmark', 'France']</t>
+          <t>['France', 'Denmark']</t>
         </is>
       </c>
       <c r="K128" t="inlineStr">
@@ -15937,7 +15937,7 @@
       </c>
       <c r="J129" t="inlineStr">
         <is>
-          <t>['Denmark', 'France']</t>
+          <t>['France', 'Denmark']</t>
         </is>
       </c>
       <c r="K129" t="inlineStr">
@@ -16065,7 +16065,7 @@
       </c>
       <c r="J130" t="inlineStr">
         <is>
-          <t>['Denmark', 'France']</t>
+          <t>['France', 'Denmark']</t>
         </is>
       </c>
       <c r="K130" t="inlineStr">
@@ -16193,7 +16193,7 @@
       </c>
       <c r="J131" t="inlineStr">
         <is>
-          <t>['Denmark', 'France']</t>
+          <t>['France', 'Denmark']</t>
         </is>
       </c>
       <c r="K131" t="inlineStr">
@@ -16321,7 +16321,7 @@
       </c>
       <c r="J132" t="inlineStr">
         <is>
-          <t>['Denmark', 'France']</t>
+          <t>['France', 'Denmark']</t>
         </is>
       </c>
       <c r="K132" t="inlineStr">
@@ -17925,7 +17925,7 @@
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr">
         <is>
-          <t>['Mexico', 'Netherlands']</t>
+          <t>['Netherlands', 'Mexico']</t>
         </is>
       </c>
       <c r="K145" t="inlineStr">
@@ -18021,7 +18021,7 @@
       </c>
       <c r="J146" t="inlineStr">
         <is>
-          <t>['Mexico', 'Netherlands']</t>
+          <t>['Netherlands', 'Mexico']</t>
         </is>
       </c>
       <c r="K146" t="inlineStr">
@@ -18149,7 +18149,7 @@
       </c>
       <c r="J147" t="inlineStr">
         <is>
-          <t>['Belgium', 'Netherlands']</t>
+          <t>['Netherlands', 'Belgium']</t>
         </is>
       </c>
       <c r="K147" t="inlineStr">
@@ -18277,7 +18277,7 @@
       </c>
       <c r="J148" t="inlineStr">
         <is>
-          <t>['Belgium', 'Netherlands']</t>
+          <t>['Netherlands', 'Belgium']</t>
         </is>
       </c>
       <c r="K148" t="inlineStr">
@@ -18405,7 +18405,7 @@
       </c>
       <c r="J149" t="inlineStr">
         <is>
-          <t>['Mexico', 'Netherlands']</t>
+          <t>['Netherlands', 'Mexico']</t>
         </is>
       </c>
       <c r="K149" t="inlineStr">
@@ -18533,7 +18533,7 @@
       </c>
       <c r="J150" t="inlineStr">
         <is>
-          <t>['Mexico', 'Netherlands']</t>
+          <t>['Netherlands', 'Mexico']</t>
         </is>
       </c>
       <c r="K150" t="inlineStr">
@@ -18661,7 +18661,7 @@
       </c>
       <c r="J151" t="inlineStr">
         <is>
-          <t>['Mexico', 'Netherlands']</t>
+          <t>['Netherlands', 'Mexico']</t>
         </is>
       </c>
       <c r="K151" t="inlineStr">
@@ -19241,7 +19241,7 @@
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr">
         <is>
-          <t>['England', 'Romania']</t>
+          <t>['Romania', 'England']</t>
         </is>
       </c>
       <c r="K156" t="inlineStr">
@@ -19337,7 +19337,7 @@
       </c>
       <c r="J157" t="inlineStr">
         <is>
-          <t>['England', 'Romania']</t>
+          <t>['Romania', 'England']</t>
         </is>
       </c>
       <c r="K157" t="inlineStr">
@@ -19465,7 +19465,7 @@
       </c>
       <c r="J158" t="inlineStr">
         <is>
-          <t>['England', 'Romania']</t>
+          <t>['Romania', 'England']</t>
         </is>
       </c>
       <c r="K158" t="inlineStr">
@@ -19593,7 +19593,7 @@
       </c>
       <c r="J159" t="inlineStr">
         <is>
-          <t>['England', 'Romania']</t>
+          <t>['Romania', 'England']</t>
         </is>
       </c>
       <c r="K159" t="inlineStr">
@@ -19721,7 +19721,7 @@
       </c>
       <c r="J160" t="inlineStr">
         <is>
-          <t>['England', 'Romania']</t>
+          <t>['Romania', 'England']</t>
         </is>
       </c>
       <c r="K160" t="inlineStr">
@@ -19835,7 +19835,7 @@
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr">
         <is>
-          <t>['Croatia', 'Argentina']</t>
+          <t>['Argentina', 'Croatia']</t>
         </is>
       </c>
       <c r="K161" t="inlineStr">
@@ -19931,7 +19931,7 @@
       </c>
       <c r="J162" t="inlineStr">
         <is>
-          <t>['Croatia', 'Argentina']</t>
+          <t>['Argentina', 'Croatia']</t>
         </is>
       </c>
       <c r="K162" t="inlineStr">
@@ -20059,7 +20059,7 @@
       </c>
       <c r="J163" t="inlineStr">
         <is>
-          <t>['Croatia', 'Argentina']</t>
+          <t>['Argentina', 'Croatia']</t>
         </is>
       </c>
       <c r="K163" t="inlineStr">
@@ -20187,7 +20187,7 @@
       </c>
       <c r="J164" t="inlineStr">
         <is>
-          <t>['Croatia', 'Argentina']</t>
+          <t>['Argentina', 'Croatia']</t>
         </is>
       </c>
       <c r="K164" t="inlineStr">
@@ -20315,7 +20315,7 @@
       </c>
       <c r="J165" t="inlineStr">
         <is>
-          <t>['Croatia', 'Argentina']</t>
+          <t>['Argentina', 'Croatia']</t>
         </is>
       </c>
       <c r="K165" t="inlineStr">
@@ -20429,7 +20429,7 @@
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr">
         <is>
-          <t>['Denmark', 'Senegal']</t>
+          <t>['Senegal', 'Denmark']</t>
         </is>
       </c>
       <c r="K166" t="inlineStr">
@@ -20525,7 +20525,7 @@
       </c>
       <c r="J167" t="inlineStr">
         <is>
-          <t>['Denmark', 'Senegal']</t>
+          <t>['Senegal', 'Denmark']</t>
         </is>
       </c>
       <c r="K167" t="inlineStr">
@@ -20653,7 +20653,7 @@
       </c>
       <c r="J168" t="inlineStr">
         <is>
-          <t>['Denmark', 'Senegal']</t>
+          <t>['Senegal', 'Denmark']</t>
         </is>
       </c>
       <c r="K168" t="inlineStr">
@@ -20781,7 +20781,7 @@
       </c>
       <c r="J169" t="inlineStr">
         <is>
-          <t>['Denmark', 'Senegal']</t>
+          <t>['Senegal', 'Denmark']</t>
         </is>
       </c>
       <c r="K169" t="inlineStr">
@@ -20909,7 +20909,7 @@
       </c>
       <c r="J170" t="inlineStr">
         <is>
-          <t>['Denmark', 'Senegal']</t>
+          <t>['Senegal', 'Denmark']</t>
         </is>
       </c>
       <c r="K170" t="inlineStr">
@@ -21037,7 +21037,7 @@
       </c>
       <c r="J171" t="inlineStr">
         <is>
-          <t>['Denmark', 'Senegal']</t>
+          <t>['Senegal', 'Denmark']</t>
         </is>
       </c>
       <c r="K171" t="inlineStr">
@@ -21165,7 +21165,7 @@
       </c>
       <c r="J172" t="inlineStr">
         <is>
-          <t>['Denmark', 'Senegal']</t>
+          <t>['Senegal', 'Denmark']</t>
         </is>
       </c>
       <c r="K172" t="inlineStr">
@@ -21293,7 +21293,7 @@
       </c>
       <c r="J173" t="inlineStr">
         <is>
-          <t>['Denmark', 'Senegal']</t>
+          <t>['Senegal', 'Denmark']</t>
         </is>
       </c>
       <c r="K173" t="inlineStr">
@@ -21421,7 +21421,7 @@
       </c>
       <c r="J174" t="inlineStr">
         <is>
-          <t>['Denmark', 'Senegal']</t>
+          <t>['Senegal', 'Denmark']</t>
         </is>
       </c>
       <c r="K174" t="inlineStr">
@@ -21535,7 +21535,7 @@
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr">
         <is>
-          <t>['South Africa', 'Spain']</t>
+          <t>['Spain', 'South Africa']</t>
         </is>
       </c>
       <c r="K175" t="inlineStr">
@@ -21631,7 +21631,7 @@
       </c>
       <c r="J176" t="inlineStr">
         <is>
-          <t>['South Africa', 'Spain']</t>
+          <t>['Spain', 'South Africa']</t>
         </is>
       </c>
       <c r="K176" t="inlineStr">
@@ -21759,7 +21759,7 @@
       </c>
       <c r="J177" t="inlineStr">
         <is>
-          <t>['South Africa', 'Spain']</t>
+          <t>['Spain', 'South Africa']</t>
         </is>
       </c>
       <c r="K177" t="inlineStr">
@@ -21887,7 +21887,7 @@
       </c>
       <c r="J178" t="inlineStr">
         <is>
-          <t>['South Africa', 'Spain']</t>
+          <t>['Spain', 'South Africa']</t>
         </is>
       </c>
       <c r="K178" t="inlineStr">
@@ -22015,7 +22015,7 @@
       </c>
       <c r="J179" t="inlineStr">
         <is>
-          <t>['South Africa', 'Spain']</t>
+          <t>['Spain', 'South Africa']</t>
         </is>
       </c>
       <c r="K179" t="inlineStr">
@@ -22143,7 +22143,7 @@
       </c>
       <c r="J180" t="inlineStr">
         <is>
-          <t>['South Africa', 'Spain']</t>
+          <t>['Spain', 'South Africa']</t>
         </is>
       </c>
       <c r="K180" t="inlineStr">
@@ -22271,7 +22271,7 @@
       </c>
       <c r="J181" t="inlineStr">
         <is>
-          <t>['South Africa', 'Spain']</t>
+          <t>['Spain', 'South Africa']</t>
         </is>
       </c>
       <c r="K181" t="inlineStr">
@@ -22399,7 +22399,7 @@
       </c>
       <c r="J182" t="inlineStr">
         <is>
-          <t>['South Africa', 'Spain']</t>
+          <t>['Spain', 'South Africa']</t>
         </is>
       </c>
       <c r="K182" t="inlineStr">
@@ -22527,7 +22527,7 @@
       </c>
       <c r="J183" t="inlineStr">
         <is>
-          <t>['South Africa', 'Spain']</t>
+          <t>['Spain', 'South Africa']</t>
         </is>
       </c>
       <c r="K183" t="inlineStr">
@@ -22655,7 +22655,7 @@
       </c>
       <c r="J184" t="inlineStr">
         <is>
-          <t>['Paraguay', 'Spain']</t>
+          <t>['Spain', 'Paraguay']</t>
         </is>
       </c>
       <c r="K184" t="inlineStr">
@@ -22769,7 +22769,7 @@
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr">
         <is>
-          <t>['Costa Rica', 'Brazil']</t>
+          <t>['Brazil', 'Costa Rica']</t>
         </is>
       </c>
       <c r="K185" t="inlineStr">
@@ -22865,7 +22865,7 @@
       </c>
       <c r="J186" t="inlineStr">
         <is>
-          <t>['Costa Rica', 'Brazil']</t>
+          <t>['Brazil', 'Costa Rica']</t>
         </is>
       </c>
       <c r="K186" t="inlineStr">
@@ -22993,7 +22993,7 @@
       </c>
       <c r="J187" t="inlineStr">
         <is>
-          <t>['Costa Rica', 'Brazil']</t>
+          <t>['Brazil', 'Costa Rica']</t>
         </is>
       </c>
       <c r="K187" t="inlineStr">
@@ -23121,7 +23121,7 @@
       </c>
       <c r="J188" t="inlineStr">
         <is>
-          <t>['Turkey', 'Brazil']</t>
+          <t>['Brazil', 'Turkey']</t>
         </is>
       </c>
       <c r="K188" t="inlineStr">
@@ -23249,7 +23249,7 @@
       </c>
       <c r="J189" t="inlineStr">
         <is>
-          <t>['Turkey', 'Brazil']</t>
+          <t>['Brazil', 'Turkey']</t>
         </is>
       </c>
       <c r="K189" t="inlineStr">
@@ -23377,7 +23377,7 @@
       </c>
       <c r="J190" t="inlineStr">
         <is>
-          <t>['Turkey', 'Brazil']</t>
+          <t>['Brazil', 'Turkey']</t>
         </is>
       </c>
       <c r="K190" t="inlineStr">
@@ -23505,7 +23505,7 @@
       </c>
       <c r="J191" t="inlineStr">
         <is>
-          <t>['Turkey', 'Brazil']</t>
+          <t>['Brazil', 'Turkey']</t>
         </is>
       </c>
       <c r="K191" t="inlineStr">
@@ -23633,7 +23633,7 @@
       </c>
       <c r="J192" t="inlineStr">
         <is>
-          <t>['Costa Rica', 'Brazil']</t>
+          <t>['Brazil', 'Costa Rica']</t>
         </is>
       </c>
       <c r="K192" t="inlineStr">
@@ -23761,7 +23761,7 @@
       </c>
       <c r="J193" t="inlineStr">
         <is>
-          <t>['Turkey', 'Brazil']</t>
+          <t>['Brazil', 'Turkey']</t>
         </is>
       </c>
       <c r="K193" t="inlineStr">
@@ -23889,7 +23889,7 @@
       </c>
       <c r="J194" t="inlineStr">
         <is>
-          <t>['Turkey', 'Brazil']</t>
+          <t>['Brazil', 'Turkey']</t>
         </is>
       </c>
       <c r="K194" t="inlineStr">
@@ -24017,7 +24017,7 @@
       </c>
       <c r="J195" t="inlineStr">
         <is>
-          <t>['Turkey', 'Brazil']</t>
+          <t>['Brazil', 'Turkey']</t>
         </is>
       </c>
       <c r="K195" t="inlineStr">
@@ -24131,7 +24131,7 @@
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr">
         <is>
-          <t>['South Korea', 'United States']</t>
+          <t>['United States', 'South Korea']</t>
         </is>
       </c>
       <c r="K196" t="inlineStr">
@@ -24227,7 +24227,7 @@
       </c>
       <c r="J197" t="inlineStr">
         <is>
-          <t>['South Korea', 'United States']</t>
+          <t>['United States', 'South Korea']</t>
         </is>
       </c>
       <c r="K197" t="inlineStr">
@@ -24355,7 +24355,7 @@
       </c>
       <c r="J198" t="inlineStr">
         <is>
-          <t>['South Korea', 'United States']</t>
+          <t>['United States', 'South Korea']</t>
         </is>
       </c>
       <c r="K198" t="inlineStr">
@@ -24483,7 +24483,7 @@
       </c>
       <c r="J199" t="inlineStr">
         <is>
-          <t>['South Korea', 'United States']</t>
+          <t>['United States', 'South Korea']</t>
         </is>
       </c>
       <c r="K199" t="inlineStr">
@@ -24611,7 +24611,7 @@
       </c>
       <c r="J200" t="inlineStr">
         <is>
-          <t>['South Korea', 'United States']</t>
+          <t>['United States', 'South Korea']</t>
         </is>
       </c>
       <c r="K200" t="inlineStr">
@@ -24739,7 +24739,7 @@
       </c>
       <c r="J201" t="inlineStr">
         <is>
-          <t>['South Korea', 'United States']</t>
+          <t>['United States', 'South Korea']</t>
         </is>
       </c>
       <c r="K201" t="inlineStr">
@@ -24949,7 +24949,7 @@
       </c>
       <c r="J203" t="inlineStr">
         <is>
-          <t>['Ireland', 'Germany']</t>
+          <t>['Germany', 'Ireland']</t>
         </is>
       </c>
       <c r="K203" t="inlineStr">
@@ -25575,7 +25575,7 @@
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr">
         <is>
-          <t>['England', 'Sweden']</t>
+          <t>['Sweden', 'England']</t>
         </is>
       </c>
       <c r="K208" t="inlineStr">
@@ -25671,7 +25671,7 @@
       </c>
       <c r="J209" t="inlineStr">
         <is>
-          <t>['England', 'Sweden']</t>
+          <t>['Sweden', 'England']</t>
         </is>
       </c>
       <c r="K209" t="inlineStr">
@@ -25799,7 +25799,7 @@
       </c>
       <c r="J210" t="inlineStr">
         <is>
-          <t>['England', 'Sweden']</t>
+          <t>['Sweden', 'England']</t>
         </is>
       </c>
       <c r="K210" t="inlineStr">
@@ -25913,7 +25913,7 @@
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr">
         <is>
-          <t>['Mexico', 'Croatia']</t>
+          <t>['Croatia', 'Mexico']</t>
         </is>
       </c>
       <c r="K211" t="inlineStr">
@@ -26009,7 +26009,7 @@
       </c>
       <c r="J212" t="inlineStr">
         <is>
-          <t>['Mexico', 'Croatia']</t>
+          <t>['Croatia', 'Mexico']</t>
         </is>
       </c>
       <c r="K212" t="inlineStr">
@@ -28207,7 +28207,7 @@
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr">
         <is>
-          <t>['England', 'Sweden']</t>
+          <t>['Sweden', 'England']</t>
         </is>
       </c>
       <c r="K230" t="inlineStr">
@@ -28303,7 +28303,7 @@
       </c>
       <c r="J231" t="inlineStr">
         <is>
-          <t>['England', 'Sweden']</t>
+          <t>['Sweden', 'England']</t>
         </is>
       </c>
       <c r="K231" t="inlineStr">
@@ -28431,7 +28431,7 @@
       </c>
       <c r="J232" t="inlineStr">
         <is>
-          <t>['England', 'Sweden']</t>
+          <t>['Sweden', 'England']</t>
         </is>
       </c>
       <c r="K232" t="inlineStr">
@@ -28559,7 +28559,7 @@
       </c>
       <c r="J233" t="inlineStr">
         <is>
-          <t>['England', 'Sweden']</t>
+          <t>['Sweden', 'England']</t>
         </is>
       </c>
       <c r="K233" t="inlineStr">
@@ -28687,7 +28687,7 @@
       </c>
       <c r="J234" t="inlineStr">
         <is>
-          <t>['England', 'Sweden']</t>
+          <t>['Sweden', 'England']</t>
         </is>
       </c>
       <c r="K234" t="inlineStr">
@@ -28815,7 +28815,7 @@
       </c>
       <c r="J235" t="inlineStr">
         <is>
-          <t>['England', 'Sweden']</t>
+          <t>['Sweden', 'England']</t>
         </is>
       </c>
       <c r="K235" t="inlineStr">
@@ -28943,7 +28943,7 @@
       </c>
       <c r="J236" t="inlineStr">
         <is>
-          <t>['England', 'Sweden']</t>
+          <t>['Sweden', 'England']</t>
         </is>
       </c>
       <c r="K236" t="inlineStr">
@@ -29779,7 +29779,7 @@
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr">
         <is>
-          <t>['Mexico', 'Portugal']</t>
+          <t>['Portugal', 'Mexico']</t>
         </is>
       </c>
       <c r="K243" t="inlineStr">
@@ -29875,7 +29875,7 @@
       </c>
       <c r="J244" t="inlineStr">
         <is>
-          <t>['Mexico', 'Portugal']</t>
+          <t>['Portugal', 'Mexico']</t>
         </is>
       </c>
       <c r="K244" t="inlineStr">
@@ -30003,7 +30003,7 @@
       </c>
       <c r="J245" t="inlineStr">
         <is>
-          <t>['Mexico', 'Portugal']</t>
+          <t>['Portugal', 'Mexico']</t>
         </is>
       </c>
       <c r="K245" t="inlineStr">
@@ -30131,7 +30131,7 @@
       </c>
       <c r="J246" t="inlineStr">
         <is>
-          <t>['Mexico', 'Portugal']</t>
+          <t>['Portugal', 'Mexico']</t>
         </is>
       </c>
       <c r="K246" t="inlineStr">
@@ -30259,7 +30259,7 @@
       </c>
       <c r="J247" t="inlineStr">
         <is>
-          <t>['Mexico', 'Portugal']</t>
+          <t>['Portugal', 'Mexico']</t>
         </is>
       </c>
       <c r="K247" t="inlineStr">
@@ -30387,7 +30387,7 @@
       </c>
       <c r="J248" t="inlineStr">
         <is>
-          <t>['Mexico', 'Portugal']</t>
+          <t>['Portugal', 'Mexico']</t>
         </is>
       </c>
       <c r="K248" t="inlineStr">
@@ -30501,7 +30501,7 @@
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr">
         <is>
-          <t>['Italy', 'Ghana']</t>
+          <t>['Ghana', 'Italy']</t>
         </is>
       </c>
       <c r="K249" t="inlineStr">
@@ -30597,7 +30597,7 @@
       </c>
       <c r="J250" t="inlineStr">
         <is>
-          <t>['Italy', 'Ghana']</t>
+          <t>['Ghana', 'Italy']</t>
         </is>
       </c>
       <c r="K250" t="inlineStr">
@@ -30725,7 +30725,7 @@
       </c>
       <c r="J251" t="inlineStr">
         <is>
-          <t>['Italy', 'Ghana']</t>
+          <t>['Ghana', 'Italy']</t>
         </is>
       </c>
       <c r="K251" t="inlineStr">
@@ -30853,7 +30853,7 @@
       </c>
       <c r="J252" t="inlineStr">
         <is>
-          <t>['Italy', 'Ghana']</t>
+          <t>['Ghana', 'Italy']</t>
         </is>
       </c>
       <c r="K252" t="inlineStr">
@@ -30981,7 +30981,7 @@
       </c>
       <c r="J253" t="inlineStr">
         <is>
-          <t>['Italy', 'Ghana']</t>
+          <t>['Ghana', 'Italy']</t>
         </is>
       </c>
       <c r="K253" t="inlineStr">
@@ -31109,7 +31109,7 @@
       </c>
       <c r="J254" t="inlineStr">
         <is>
-          <t>['Italy', 'Ghana']</t>
+          <t>['Ghana', 'Italy']</t>
         </is>
       </c>
       <c r="K254" t="inlineStr">
@@ -31319,7 +31319,7 @@
       </c>
       <c r="J256" t="inlineStr">
         <is>
-          <t>['Croatia', 'Brazil']</t>
+          <t>['Brazil', 'Croatia']</t>
         </is>
       </c>
       <c r="K256" t="inlineStr">
@@ -31447,7 +31447,7 @@
       </c>
       <c r="J257" t="inlineStr">
         <is>
-          <t>['Croatia', 'Brazil']</t>
+          <t>['Brazil', 'Croatia']</t>
         </is>
       </c>
       <c r="K257" t="inlineStr">
@@ -31959,7 +31959,7 @@
       </c>
       <c r="J261" t="inlineStr">
         <is>
-          <t>['Croatia', 'Brazil']</t>
+          <t>['Brazil', 'Croatia']</t>
         </is>
       </c>
       <c r="K261" t="inlineStr">
@@ -32087,7 +32087,7 @@
       </c>
       <c r="J262" t="inlineStr">
         <is>
-          <t>['Croatia', 'Brazil']</t>
+          <t>['Brazil', 'Croatia']</t>
         </is>
       </c>
       <c r="K262" t="inlineStr">
@@ -32457,7 +32457,7 @@
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr">
         <is>
-          <t>['South Korea', 'Switzerland']</t>
+          <t>['Switzerland', 'South Korea']</t>
         </is>
       </c>
       <c r="K265" t="inlineStr">
@@ -32553,7 +32553,7 @@
       </c>
       <c r="J266" t="inlineStr">
         <is>
-          <t>['South Korea', 'Switzerland']</t>
+          <t>['Switzerland', 'South Korea']</t>
         </is>
       </c>
       <c r="K266" t="inlineStr">
@@ -33051,7 +33051,7 @@
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr">
         <is>
-          <t>['Ukraine', 'Spain']</t>
+          <t>['Spain', 'Ukraine']</t>
         </is>
       </c>
       <c r="K270" t="inlineStr">
@@ -33147,7 +33147,7 @@
       </c>
       <c r="J271" t="inlineStr">
         <is>
-          <t>['Ukraine', 'Spain']</t>
+          <t>['Spain', 'Ukraine']</t>
         </is>
       </c>
       <c r="K271" t="inlineStr">
@@ -33275,7 +33275,7 @@
       </c>
       <c r="J272" t="inlineStr">
         <is>
-          <t>['Ukraine', 'Spain']</t>
+          <t>['Spain', 'Ukraine']</t>
         </is>
       </c>
       <c r="K272" t="inlineStr">
@@ -33389,7 +33389,7 @@
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr">
         <is>
-          <t>['Mexico', 'Uruguay']</t>
+          <t>['Uruguay', 'Mexico']</t>
         </is>
       </c>
       <c r="K273" t="inlineStr">
@@ -33485,7 +33485,7 @@
       </c>
       <c r="J274" t="inlineStr">
         <is>
-          <t>['Mexico', 'Uruguay']</t>
+          <t>['Uruguay', 'Mexico']</t>
         </is>
       </c>
       <c r="K274" t="inlineStr">
@@ -33613,7 +33613,7 @@
       </c>
       <c r="J275" t="inlineStr">
         <is>
-          <t>['Mexico', 'Uruguay']</t>
+          <t>['Uruguay', 'Mexico']</t>
         </is>
       </c>
       <c r="K275" t="inlineStr">
@@ -33741,7 +33741,7 @@
       </c>
       <c r="J276" t="inlineStr">
         <is>
-          <t>['Mexico', 'Uruguay']</t>
+          <t>['Uruguay', 'Mexico']</t>
         </is>
       </c>
       <c r="K276" t="inlineStr">
@@ -33869,7 +33869,7 @@
       </c>
       <c r="J277" t="inlineStr">
         <is>
-          <t>['Mexico', 'Uruguay']</t>
+          <t>['Uruguay', 'Mexico']</t>
         </is>
       </c>
       <c r="K277" t="inlineStr">
@@ -33983,7 +33983,7 @@
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr">
         <is>
-          <t>['South Korea', 'Argentina']</t>
+          <t>['Argentina', 'South Korea']</t>
         </is>
       </c>
       <c r="K278" t="inlineStr">
@@ -34079,7 +34079,7 @@
       </c>
       <c r="J279" t="inlineStr">
         <is>
-          <t>['Greece', 'Argentina']</t>
+          <t>['Argentina', 'Greece']</t>
         </is>
       </c>
       <c r="K279" t="inlineStr">
@@ -34207,7 +34207,7 @@
       </c>
       <c r="J280" t="inlineStr">
         <is>
-          <t>['South Korea', 'Argentina']</t>
+          <t>['Argentina', 'South Korea']</t>
         </is>
       </c>
       <c r="K280" t="inlineStr">
@@ -34335,7 +34335,7 @@
       </c>
       <c r="J281" t="inlineStr">
         <is>
-          <t>['South Korea', 'Argentina']</t>
+          <t>['Argentina', 'South Korea']</t>
         </is>
       </c>
       <c r="K281" t="inlineStr">
@@ -34463,7 +34463,7 @@
       </c>
       <c r="J282" t="inlineStr">
         <is>
-          <t>['South Korea', 'Argentina']</t>
+          <t>['Argentina', 'South Korea']</t>
         </is>
       </c>
       <c r="K282" t="inlineStr">
@@ -34591,7 +34591,7 @@
       </c>
       <c r="J283" t="inlineStr">
         <is>
-          <t>['South Korea', 'Argentina']</t>
+          <t>['Argentina', 'South Korea']</t>
         </is>
       </c>
       <c r="K283" t="inlineStr">
@@ -34719,7 +34719,7 @@
       </c>
       <c r="J284" t="inlineStr">
         <is>
-          <t>['South Korea', 'Argentina']</t>
+          <t>['Argentina', 'South Korea']</t>
         </is>
       </c>
       <c r="K284" t="inlineStr">
@@ -34833,7 +34833,7 @@
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr">
         <is>
-          <t>['Slovenia', 'United States']</t>
+          <t>['United States', 'Slovenia']</t>
         </is>
       </c>
       <c r="K285" t="inlineStr">
@@ -34929,7 +34929,7 @@
       </c>
       <c r="J286" t="inlineStr">
         <is>
-          <t>['England', 'Slovenia']</t>
+          <t>['Slovenia', 'England']</t>
         </is>
       </c>
       <c r="K286" t="inlineStr">
@@ -35057,7 +35057,7 @@
       </c>
       <c r="J287" t="inlineStr">
         <is>
-          <t>['England', 'United States']</t>
+          <t>['United States', 'England']</t>
         </is>
       </c>
       <c r="K287" t="inlineStr">
@@ -37465,7 +37465,7 @@
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr">
         <is>
-          <t>['Portugal', 'Brazil']</t>
+          <t>['Brazil', 'Portugal']</t>
         </is>
       </c>
       <c r="K307" t="inlineStr">
@@ -37561,7 +37561,7 @@
       </c>
       <c r="J308" t="inlineStr">
         <is>
-          <t>['Portugal', 'Brazil']</t>
+          <t>['Brazil', 'Portugal']</t>
         </is>
       </c>
       <c r="K308" t="inlineStr">
@@ -37689,7 +37689,7 @@
       </c>
       <c r="J309" t="inlineStr">
         <is>
-          <t>['Portugal', 'Brazil']</t>
+          <t>['Brazil', 'Portugal']</t>
         </is>
       </c>
       <c r="K309" t="inlineStr">
@@ -37817,7 +37817,7 @@
       </c>
       <c r="J310" t="inlineStr">
         <is>
-          <t>['Portugal', 'Brazil']</t>
+          <t>['Brazil', 'Portugal']</t>
         </is>
       </c>
       <c r="K310" t="inlineStr">
@@ -37931,7 +37931,7 @@
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr">
         <is>
-          <t>['Chile', 'Switzerland']</t>
+          <t>['Switzerland', 'Chile']</t>
         </is>
       </c>
       <c r="K311" t="inlineStr">
@@ -38027,7 +38027,7 @@
       </c>
       <c r="J312" t="inlineStr">
         <is>
-          <t>['Chile', 'Spain']</t>
+          <t>['Spain', 'Chile']</t>
         </is>
       </c>
       <c r="K312" t="inlineStr">
@@ -38155,7 +38155,7 @@
       </c>
       <c r="J313" t="inlineStr">
         <is>
-          <t>['Chile', 'Spain']</t>
+          <t>['Spain', 'Chile']</t>
         </is>
       </c>
       <c r="K313" t="inlineStr">
@@ -38283,7 +38283,7 @@
       </c>
       <c r="J314" t="inlineStr">
         <is>
-          <t>['Chile', 'Spain']</t>
+          <t>['Spain', 'Chile']</t>
         </is>
       </c>
       <c r="K314" t="inlineStr">
@@ -38397,7 +38397,7 @@
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr">
         <is>
-          <t>['Mexico', 'Brazil']</t>
+          <t>['Brazil', 'Mexico']</t>
         </is>
       </c>
       <c r="K315" t="inlineStr">
@@ -38493,7 +38493,7 @@
       </c>
       <c r="J316" t="inlineStr">
         <is>
-          <t>['Mexico', 'Brazil']</t>
+          <t>['Brazil', 'Mexico']</t>
         </is>
       </c>
       <c r="K316" t="inlineStr">
@@ -38621,7 +38621,7 @@
       </c>
       <c r="J317" t="inlineStr">
         <is>
-          <t>['Mexico', 'Brazil']</t>
+          <t>['Brazil', 'Mexico']</t>
         </is>
       </c>
       <c r="K317" t="inlineStr">
@@ -38749,7 +38749,7 @@
       </c>
       <c r="J318" t="inlineStr">
         <is>
-          <t>['Mexico', 'Brazil']</t>
+          <t>['Brazil', 'Mexico']</t>
         </is>
       </c>
       <c r="K318" t="inlineStr">
@@ -38877,7 +38877,7 @@
       </c>
       <c r="J319" t="inlineStr">
         <is>
-          <t>['Mexico', 'Brazil']</t>
+          <t>['Brazil', 'Mexico']</t>
         </is>
       </c>
       <c r="K319" t="inlineStr">
@@ -39005,7 +39005,7 @@
       </c>
       <c r="J320" t="inlineStr">
         <is>
-          <t>['Mexico', 'Brazil']</t>
+          <t>['Brazil', 'Mexico']</t>
         </is>
       </c>
       <c r="K320" t="inlineStr">
@@ -39133,7 +39133,7 @@
       </c>
       <c r="J321" t="inlineStr">
         <is>
-          <t>['Mexico', 'Brazil']</t>
+          <t>['Brazil', 'Mexico']</t>
         </is>
       </c>
       <c r="K321" t="inlineStr">
@@ -39261,7 +39261,7 @@
       </c>
       <c r="J322" t="inlineStr">
         <is>
-          <t>['Mexico', 'Brazil']</t>
+          <t>['Brazil', 'Mexico']</t>
         </is>
       </c>
       <c r="K322" t="inlineStr">
@@ -39389,7 +39389,7 @@
       </c>
       <c r="J323" t="inlineStr">
         <is>
-          <t>['Mexico', 'Brazil']</t>
+          <t>['Brazil', 'Mexico']</t>
         </is>
       </c>
       <c r="K323" t="inlineStr">
@@ -39517,7 +39517,7 @@
       </c>
       <c r="J324" t="inlineStr">
         <is>
-          <t>['Mexico', 'Brazil']</t>
+          <t>['Brazil', 'Mexico']</t>
         </is>
       </c>
       <c r="K324" t="inlineStr">
@@ -39631,7 +39631,7 @@
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr">
         <is>
-          <t>['Chile', 'Netherlands']</t>
+          <t>['Netherlands', 'Chile']</t>
         </is>
       </c>
       <c r="K325" t="inlineStr">
@@ -39727,7 +39727,7 @@
       </c>
       <c r="J326" t="inlineStr">
         <is>
-          <t>['Chile', 'Netherlands']</t>
+          <t>['Netherlands', 'Chile']</t>
         </is>
       </c>
       <c r="K326" t="inlineStr">
@@ -39855,7 +39855,7 @@
       </c>
       <c r="J327" t="inlineStr">
         <is>
-          <t>['Chile', 'Netherlands']</t>
+          <t>['Netherlands', 'Chile']</t>
         </is>
       </c>
       <c r="K327" t="inlineStr">
@@ -39983,7 +39983,7 @@
       </c>
       <c r="J328" t="inlineStr">
         <is>
-          <t>['Chile', 'Netherlands']</t>
+          <t>['Netherlands', 'Chile']</t>
         </is>
       </c>
       <c r="K328" t="inlineStr">
@@ -40111,7 +40111,7 @@
       </c>
       <c r="J329" t="inlineStr">
         <is>
-          <t>['Chile', 'Netherlands']</t>
+          <t>['Netherlands', 'Chile']</t>
         </is>
       </c>
       <c r="K329" t="inlineStr">
@@ -40239,7 +40239,7 @@
       </c>
       <c r="J330" t="inlineStr">
         <is>
-          <t>['Chile', 'Netherlands']</t>
+          <t>['Netherlands', 'Chile']</t>
         </is>
       </c>
       <c r="K330" t="inlineStr">
@@ -40577,7 +40577,7 @@
       </c>
       <c r="J333" t="inlineStr">
         <is>
-          <t>['Greece', 'Colombia']</t>
+          <t>['Colombia', 'Greece']</t>
         </is>
       </c>
       <c r="K333" t="inlineStr">
@@ -40705,7 +40705,7 @@
       </c>
       <c r="J334" t="inlineStr">
         <is>
-          <t>['Greece', 'Colombia']</t>
+          <t>['Colombia', 'Greece']</t>
         </is>
       </c>
       <c r="K334" t="inlineStr">
@@ -40833,7 +40833,7 @@
       </c>
       <c r="J335" t="inlineStr">
         <is>
-          <t>['Greece', 'Colombia']</t>
+          <t>['Colombia', 'Greece']</t>
         </is>
       </c>
       <c r="K335" t="inlineStr">
@@ -41345,7 +41345,7 @@
       </c>
       <c r="J339" t="inlineStr">
         <is>
-          <t>['Greece', 'Colombia']</t>
+          <t>['Colombia', 'Greece']</t>
         </is>
       </c>
       <c r="K339" t="inlineStr">
@@ -41459,7 +41459,7 @@
       <c r="I340" t="inlineStr"/>
       <c r="J340" t="inlineStr">
         <is>
-          <t>['Costa Rica', 'Italy']</t>
+          <t>['Italy', 'Costa Rica']</t>
         </is>
       </c>
       <c r="K340" t="inlineStr">
@@ -41555,7 +41555,7 @@
       </c>
       <c r="J341" t="inlineStr">
         <is>
-          <t>['Costa Rica', 'Uruguay']</t>
+          <t>['Uruguay', 'Costa Rica']</t>
         </is>
       </c>
       <c r="K341" t="inlineStr">
@@ -44429,7 +44429,7 @@
       <c r="I365" t="inlineStr"/>
       <c r="J365" t="inlineStr">
         <is>
-          <t>['Uruguay', 'Russia']</t>
+          <t>['Russia', 'Uruguay']</t>
         </is>
       </c>
       <c r="K365" t="inlineStr">
@@ -44525,7 +44525,7 @@
       </c>
       <c r="J366" t="inlineStr">
         <is>
-          <t>['Uruguay', 'Russia']</t>
+          <t>['Russia', 'Uruguay']</t>
         </is>
       </c>
       <c r="K366" t="inlineStr">
@@ -44653,7 +44653,7 @@
       </c>
       <c r="J367" t="inlineStr">
         <is>
-          <t>['Uruguay', 'Russia']</t>
+          <t>['Russia', 'Uruguay']</t>
         </is>
       </c>
       <c r="K367" t="inlineStr">
@@ -44781,7 +44781,7 @@
       </c>
       <c r="J368" t="inlineStr">
         <is>
-          <t>['Uruguay', 'Russia']</t>
+          <t>['Russia', 'Uruguay']</t>
         </is>
       </c>
       <c r="K368" t="inlineStr">
@@ -44909,7 +44909,7 @@
       </c>
       <c r="J369" t="inlineStr">
         <is>
-          <t>['Uruguay', 'Russia']</t>
+          <t>['Russia', 'Uruguay']</t>
         </is>
       </c>
       <c r="K369" t="inlineStr">
@@ -45037,7 +45037,7 @@
       </c>
       <c r="J370" t="inlineStr">
         <is>
-          <t>['Uruguay', 'Russia']</t>
+          <t>['Russia', 'Uruguay']</t>
         </is>
       </c>
       <c r="K370" t="inlineStr">
@@ -45165,7 +45165,7 @@
       </c>
       <c r="J371" t="inlineStr">
         <is>
-          <t>['Uruguay', 'Russia']</t>
+          <t>['Russia', 'Uruguay']</t>
         </is>
       </c>
       <c r="K371" t="inlineStr">
@@ -45279,7 +45279,7 @@
       <c r="I372" t="inlineStr"/>
       <c r="J372" t="inlineStr">
         <is>
-          <t>['Portugal', 'Spain']</t>
+          <t>['Spain', 'Portugal']</t>
         </is>
       </c>
       <c r="K372" t="inlineStr">
@@ -45375,7 +45375,7 @@
       </c>
       <c r="J373" t="inlineStr">
         <is>
-          <t>['Portugal', 'Spain']</t>
+          <t>['Spain', 'Portugal']</t>
         </is>
       </c>
       <c r="K373" t="inlineStr">
@@ -45503,7 +45503,7 @@
       </c>
       <c r="J374" t="inlineStr">
         <is>
-          <t>['Portugal', 'Spain']</t>
+          <t>['Spain', 'Portugal']</t>
         </is>
       </c>
       <c r="K374" t="inlineStr">
@@ -45631,7 +45631,7 @@
       </c>
       <c r="J375" t="inlineStr">
         <is>
-          <t>['Portugal', 'Spain']</t>
+          <t>['Spain', 'Portugal']</t>
         </is>
       </c>
       <c r="K375" t="inlineStr">
@@ -45759,7 +45759,7 @@
       </c>
       <c r="J376" t="inlineStr">
         <is>
-          <t>['Portugal', 'Spain']</t>
+          <t>['Spain', 'Portugal']</t>
         </is>
       </c>
       <c r="K376" t="inlineStr">
@@ -45887,7 +45887,7 @@
       </c>
       <c r="J377" t="inlineStr">
         <is>
-          <t>['Portugal', 'Spain']</t>
+          <t>['Spain', 'Portugal']</t>
         </is>
       </c>
       <c r="K377" t="inlineStr">
@@ -46015,7 +46015,7 @@
       </c>
       <c r="J378" t="inlineStr">
         <is>
-          <t>['Portugal', 'Spain']</t>
+          <t>['Spain', 'Portugal']</t>
         </is>
       </c>
       <c r="K378" t="inlineStr">
@@ -46129,7 +46129,7 @@
       <c r="I379" t="inlineStr"/>
       <c r="J379" t="inlineStr">
         <is>
-          <t>['Denmark', 'France']</t>
+          <t>['France', 'Denmark']</t>
         </is>
       </c>
       <c r="K379" t="inlineStr">
@@ -46225,7 +46225,7 @@
       </c>
       <c r="J380" t="inlineStr">
         <is>
-          <t>['Denmark', 'France']</t>
+          <t>['France', 'Denmark']</t>
         </is>
       </c>
       <c r="K380" t="inlineStr">
@@ -46353,7 +46353,7 @@
       </c>
       <c r="J381" t="inlineStr">
         <is>
-          <t>['Denmark', 'France']</t>
+          <t>['France', 'Denmark']</t>
         </is>
       </c>
       <c r="K381" t="inlineStr">
@@ -46563,7 +46563,7 @@
       </c>
       <c r="J383" t="inlineStr">
         <is>
-          <t>['Croatia', 'Argentina']</t>
+          <t>['Argentina', 'Croatia']</t>
         </is>
       </c>
       <c r="K383" t="inlineStr">
@@ -47075,7 +47075,7 @@
       </c>
       <c r="J387" t="inlineStr">
         <is>
-          <t>['Croatia', 'Argentina']</t>
+          <t>['Argentina', 'Croatia']</t>
         </is>
       </c>
       <c r="K387" t="inlineStr">
@@ -47203,7 +47203,7 @@
       </c>
       <c r="J388" t="inlineStr">
         <is>
-          <t>['Croatia', 'Argentina']</t>
+          <t>['Argentina', 'Croatia']</t>
         </is>
       </c>
       <c r="K388" t="inlineStr">
@@ -48263,7 +48263,7 @@
       </c>
       <c r="J397" t="inlineStr">
         <is>
-          <t>['Mexico', 'Sweden']</t>
+          <t>['Sweden', 'Mexico']</t>
         </is>
       </c>
       <c r="K397" t="inlineStr">
@@ -48391,7 +48391,7 @@
       </c>
       <c r="J398" t="inlineStr">
         <is>
-          <t>['Mexico', 'Sweden']</t>
+          <t>['Sweden', 'Mexico']</t>
         </is>
       </c>
       <c r="K398" t="inlineStr">
@@ -48519,7 +48519,7 @@
       </c>
       <c r="J399" t="inlineStr">
         <is>
-          <t>['Mexico', 'Sweden']</t>
+          <t>['Sweden', 'Mexico']</t>
         </is>
       </c>
       <c r="K399" t="inlineStr">
@@ -48647,7 +48647,7 @@
       </c>
       <c r="J400" t="inlineStr">
         <is>
-          <t>['Mexico', 'Sweden']</t>
+          <t>['Sweden', 'Mexico']</t>
         </is>
       </c>
       <c r="K400" t="inlineStr">
@@ -48775,7 +48775,7 @@
       </c>
       <c r="J401" t="inlineStr">
         <is>
-          <t>['Mexico', 'Sweden']</t>
+          <t>['Sweden', 'Mexico']</t>
         </is>
       </c>
       <c r="K401" t="inlineStr">
@@ -48889,7 +48889,7 @@
       <c r="I402" t="inlineStr"/>
       <c r="J402" t="inlineStr">
         <is>
-          <t>['England', 'Belgium']</t>
+          <t>['Belgium', 'England']</t>
         </is>
       </c>
       <c r="K402" t="inlineStr">
@@ -48985,7 +48985,7 @@
       </c>
       <c r="J403" t="inlineStr">
         <is>
-          <t>['England', 'Belgium']</t>
+          <t>['Belgium', 'England']</t>
         </is>
       </c>
       <c r="K403" t="inlineStr">
@@ -49113,7 +49113,7 @@
       </c>
       <c r="J404" t="inlineStr">
         <is>
-          <t>['England', 'Belgium']</t>
+          <t>['Belgium', 'England']</t>
         </is>
       </c>
       <c r="K404" t="inlineStr">
@@ -49241,7 +49241,7 @@
       </c>
       <c r="J405" t="inlineStr">
         <is>
-          <t>['England', 'Belgium']</t>
+          <t>['Belgium', 'England']</t>
         </is>
       </c>
       <c r="K405" t="inlineStr">
@@ -49369,7 +49369,7 @@
       </c>
       <c r="J406" t="inlineStr">
         <is>
-          <t>['England', 'Belgium']</t>
+          <t>['Belgium', 'England']</t>
         </is>
       </c>
       <c r="K406" t="inlineStr">
@@ -49707,7 +49707,7 @@
       </c>
       <c r="J409" t="inlineStr">
         <is>
-          <t>['Senegal', 'Colombia']</t>
+          <t>['Colombia', 'Senegal']</t>
         </is>
       </c>
       <c r="K409" t="inlineStr">
@@ -50045,7 +50045,7 @@
       </c>
       <c r="J412" t="inlineStr">
         <is>
-          <t>['Senegal', 'Netherlands']</t>
+          <t>['Netherlands', 'Senegal']</t>
         </is>
       </c>
       <c r="K412" t="inlineStr">
@@ -50173,7 +50173,7 @@
       </c>
       <c r="J413" t="inlineStr">
         <is>
-          <t>['Senegal', 'Netherlands']</t>
+          <t>['Netherlands', 'Senegal']</t>
         </is>
       </c>
       <c r="K413" t="inlineStr">
@@ -50429,7 +50429,7 @@
       </c>
       <c r="J415" t="inlineStr">
         <is>
-          <t>['Senegal', 'Netherlands']</t>
+          <t>['Netherlands', 'Senegal']</t>
         </is>
       </c>
       <c r="K415" t="inlineStr">
@@ -50543,7 +50543,7 @@
       <c r="I416" t="inlineStr"/>
       <c r="J416" t="inlineStr">
         <is>
-          <t>['England', 'Iran']</t>
+          <t>['Iran', 'England']</t>
         </is>
       </c>
       <c r="K416" t="inlineStr">
@@ -50639,7 +50639,7 @@
       </c>
       <c r="J417" t="inlineStr">
         <is>
-          <t>['England', 'United States']</t>
+          <t>['United States', 'England']</t>
         </is>
       </c>
       <c r="K417" t="inlineStr">
@@ -50767,7 +50767,7 @@
       </c>
       <c r="J418" t="inlineStr">
         <is>
-          <t>['England', 'United States']</t>
+          <t>['United States', 'England']</t>
         </is>
       </c>
       <c r="K418" t="inlineStr">
@@ -50895,7 +50895,7 @@
       </c>
       <c r="J419" t="inlineStr">
         <is>
-          <t>['England', 'United States']</t>
+          <t>['United States', 'England']</t>
         </is>
       </c>
       <c r="K419" t="inlineStr">
@@ -51023,7 +51023,7 @@
       </c>
       <c r="J420" t="inlineStr">
         <is>
-          <t>['England', 'United States']</t>
+          <t>['United States', 'England']</t>
         </is>
       </c>
       <c r="K420" t="inlineStr">
@@ -51233,7 +51233,7 @@
       </c>
       <c r="J422" t="inlineStr">
         <is>
-          <t>['Poland', 'Argentina']</t>
+          <t>['Argentina', 'Poland']</t>
         </is>
       </c>
       <c r="K422" t="inlineStr">
@@ -51361,7 +51361,7 @@
       </c>
       <c r="J423" t="inlineStr">
         <is>
-          <t>['Poland', 'Argentina']</t>
+          <t>['Argentina', 'Poland']</t>
         </is>
       </c>
       <c r="K423" t="inlineStr">
@@ -51489,7 +51489,7 @@
       </c>
       <c r="J424" t="inlineStr">
         <is>
-          <t>['Poland', 'Argentina']</t>
+          <t>['Argentina', 'Poland']</t>
         </is>
       </c>
       <c r="K424" t="inlineStr">
@@ -51617,7 +51617,7 @@
       </c>
       <c r="J425" t="inlineStr">
         <is>
-          <t>['Poland', 'Argentina']</t>
+          <t>['Argentina', 'Poland']</t>
         </is>
       </c>
       <c r="K425" t="inlineStr">
@@ -51745,7 +51745,7 @@
       </c>
       <c r="J426" t="inlineStr">
         <is>
-          <t>['Poland', 'Argentina']</t>
+          <t>['Argentina', 'Poland']</t>
         </is>
       </c>
       <c r="K426" t="inlineStr">
@@ -52197,7 +52197,7 @@
       <c r="I430" t="inlineStr"/>
       <c r="J430" t="inlineStr">
         <is>
-          <t>['Costa Rica', 'Spain']</t>
+          <t>['Spain', 'Costa Rica']</t>
         </is>
       </c>
       <c r="K430" t="inlineStr">
@@ -52293,7 +52293,7 @@
       </c>
       <c r="J431" t="inlineStr">
         <is>
-          <t>['Japan', 'Spain']</t>
+          <t>['Spain', 'Japan']</t>
         </is>
       </c>
       <c r="K431" t="inlineStr">
@@ -52421,7 +52421,7 @@
       </c>
       <c r="J432" t="inlineStr">
         <is>
-          <t>['Germany', 'Spain']</t>
+          <t>['Spain', 'Germany']</t>
         </is>
       </c>
       <c r="K432" t="inlineStr">
@@ -52549,7 +52549,7 @@
       </c>
       <c r="J433" t="inlineStr">
         <is>
-          <t>['Japan', 'Spain']</t>
+          <t>['Spain', 'Japan']</t>
         </is>
       </c>
       <c r="K433" t="inlineStr">
@@ -54971,7 +54971,7 @@
       </c>
       <c r="J453" t="inlineStr">
         <is>
-          <t>['Uruguay', 'Portugal']</t>
+          <t>['Portugal', 'Uruguay']</t>
         </is>
       </c>
       <c r="K453" t="inlineStr">
@@ -55099,7 +55099,7 @@
       </c>
       <c r="J454" t="inlineStr">
         <is>
-          <t>['Uruguay', 'Portugal']</t>
+          <t>['Portugal', 'Uruguay']</t>
         </is>
       </c>
       <c r="K454" t="inlineStr">
@@ -55227,7 +55227,7 @@
       </c>
       <c r="J455" t="inlineStr">
         <is>
-          <t>['Uruguay', 'Portugal']</t>
+          <t>['Portugal', 'Uruguay']</t>
         </is>
       </c>
       <c r="K455" t="inlineStr">

--- a/data/out/wiki/men/uefa/wc/goals_wc_uefa.xlsx
+++ b/data/out/wiki/men/uefa/wc/goals_wc_uefa.xlsx
@@ -633,7 +633,7 @@
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr">
         <is>
-          <t>['France', 'Soviet Union', 'Hungary']</t>
+          <t>['Hungary', 'France', 'Soviet Union']</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -729,7 +729,7 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>['France', 'Soviet Union', 'Hungary']</t>
+          <t>['Hungary', 'France', 'Soviet Union']</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
@@ -857,7 +857,7 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>['France', 'Soviet Union', 'Hungary']</t>
+          <t>['Hungary', 'France', 'Soviet Union']</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
@@ -985,7 +985,7 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>['France', 'Soviet Union', 'Hungary']</t>
+          <t>['Hungary', 'France', 'Soviet Union']</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
@@ -1113,7 +1113,7 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>['France', 'Soviet Union', 'Hungary']</t>
+          <t>['Hungary', 'France', 'Soviet Union']</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
@@ -1241,7 +1241,7 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>['France', 'Soviet Union', 'Hungary']</t>
+          <t>['Hungary', 'France', 'Soviet Union']</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
@@ -1355,7 +1355,7 @@
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr">
         <is>
-          <t>['Bulgaria', 'Italy', 'Argentina']</t>
+          <t>['Italy', 'Argentina', 'Bulgaria']</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
@@ -1451,7 +1451,7 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>['Italy', 'Bulgaria', 'Argentina']</t>
+          <t>['Italy', 'Argentina', 'Bulgaria']</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
@@ -1579,7 +1579,7 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>['Italy', 'Bulgaria', 'Argentina']</t>
+          <t>['Italy', 'Argentina', 'Bulgaria']</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
@@ -1707,7 +1707,7 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>['Italy', 'Bulgaria', 'Argentina']</t>
+          <t>['Italy', 'Argentina', 'Bulgaria']</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
@@ -1835,7 +1835,7 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>['Italy', 'Bulgaria', 'Argentina']</t>
+          <t>['Italy', 'Argentina', 'Bulgaria']</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
@@ -1963,7 +1963,7 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>['Italy', 'Bulgaria', 'Argentina']</t>
+          <t>['Italy', 'Argentina', 'Bulgaria']</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
@@ -2091,7 +2091,7 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>['Italy', 'Bulgaria', 'Argentina']</t>
+          <t>['Italy', 'Argentina', 'Bulgaria']</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
@@ -2219,7 +2219,7 @@
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>['Italy', 'Bulgaria', 'Argentina']</t>
+          <t>['Italy', 'Argentina', 'Bulgaria']</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
@@ -2333,7 +2333,7 @@
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr">
         <is>
-          <t>['Belgium', 'Paraguay', 'Mexico']</t>
+          <t>['Mexico', 'Belgium', 'Paraguay']</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
@@ -2429,7 +2429,7 @@
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>['Belgium', 'Paraguay', 'Mexico']</t>
+          <t>['Mexico', 'Belgium', 'Paraguay']</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
@@ -2557,7 +2557,7 @@
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>['Belgium', 'Paraguay', 'Mexico']</t>
+          <t>['Mexico', 'Belgium', 'Paraguay']</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
@@ -2685,7 +2685,7 @@
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>['Belgium', 'Paraguay', 'Mexico']</t>
+          <t>['Mexico', 'Belgium', 'Paraguay']</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
@@ -2813,7 +2813,7 @@
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>['Belgium', 'Paraguay', 'Mexico']</t>
+          <t>['Mexico', 'Belgium', 'Paraguay']</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
@@ -2941,7 +2941,7 @@
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>['Belgium', 'Paraguay', 'Mexico']</t>
+          <t>['Mexico', 'Belgium', 'Paraguay']</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
@@ -3055,7 +3055,7 @@
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr">
         <is>
-          <t>['Morocco', 'Poland', 'Portugal']</t>
+          <t>['Poland', 'Morocco', 'Portugal']</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
@@ -3279,7 +3279,7 @@
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>['Morocco', 'England', 'Portugal']</t>
+          <t>['England', 'Morocco', 'Portugal']</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
@@ -3407,7 +3407,7 @@
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>['Morocco', 'Poland', 'England']</t>
+          <t>['Poland', 'Morocco', 'England']</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
@@ -3535,7 +3535,7 @@
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>['Morocco', 'Poland', 'England']</t>
+          <t>['Poland', 'Morocco', 'England']</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
@@ -3663,7 +3663,7 @@
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>['Morocco', 'Poland', 'England']</t>
+          <t>['Poland', 'Morocco', 'England']</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
@@ -3791,7 +3791,7 @@
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>['Morocco', 'Poland', 'England']</t>
+          <t>['Poland', 'Morocco', 'England']</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
@@ -3919,7 +3919,7 @@
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>['Morocco', 'Poland', 'England']</t>
+          <t>['Poland', 'Morocco', 'England']</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
@@ -4033,7 +4033,7 @@
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr">
         <is>
-          <t>['Spain', 'Northern Ireland', 'Brazil']</t>
+          <t>['Northern Ireland', 'Spain', 'Brazil']</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
@@ -4257,7 +4257,7 @@
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>['Spain', 'Northern Ireland', 'Brazil']</t>
+          <t>['Northern Ireland', 'Spain', 'Brazil']</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
@@ -4513,7 +4513,7 @@
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>['Spain', 'Northern Ireland', 'Brazil']</t>
+          <t>['Northern Ireland', 'Spain', 'Brazil']</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
@@ -4641,7 +4641,7 @@
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>['Spain', 'Northern Ireland', 'Brazil']</t>
+          <t>['Northern Ireland', 'Spain', 'Brazil']</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
@@ -4769,7 +4769,7 @@
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>['Spain', 'Northern Ireland', 'Brazil']</t>
+          <t>['Northern Ireland', 'Spain', 'Brazil']</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
@@ -4883,7 +4883,7 @@
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr">
         <is>
-          <t>['West Germany', 'Denmark', 'Uruguay']</t>
+          <t>['Denmark', 'Uruguay', 'West Germany']</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
@@ -4979,7 +4979,7 @@
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>['West Germany', 'Denmark', 'Uruguay']</t>
+          <t>['Denmark', 'Uruguay', 'West Germany']</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
@@ -5107,7 +5107,7 @@
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>['West Germany', 'Denmark', 'Uruguay']</t>
+          <t>['Denmark', 'Uruguay', 'West Germany']</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
@@ -6071,7 +6071,7 @@
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr">
         <is>
-          <t>['Yugoslavia', 'West Germany', 'Colombia']</t>
+          <t>['Colombia', 'Yugoslavia', 'West Germany']</t>
         </is>
       </c>
       <c r="K47" t="inlineStr">
@@ -6167,7 +6167,7 @@
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>['Yugoslavia', 'West Germany', 'Colombia']</t>
+          <t>['Colombia', 'Yugoslavia', 'West Germany']</t>
         </is>
       </c>
       <c r="K48" t="inlineStr">
@@ -6295,7 +6295,7 @@
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>['Yugoslavia', 'West Germany', 'Colombia']</t>
+          <t>['Colombia', 'Yugoslavia', 'West Germany']</t>
         </is>
       </c>
       <c r="K49" t="inlineStr">
@@ -6423,7 +6423,7 @@
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>['Yugoslavia', 'West Germany', 'Colombia']</t>
+          <t>['Colombia', 'Yugoslavia', 'West Germany']</t>
         </is>
       </c>
       <c r="K50" t="inlineStr">
@@ -6551,7 +6551,7 @@
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>['Yugoslavia', 'West Germany', 'Colombia']</t>
+          <t>['Colombia', 'Yugoslavia', 'West Germany']</t>
         </is>
       </c>
       <c r="K51" t="inlineStr">
@@ -6679,7 +6679,7 @@
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>['Yugoslavia', 'West Germany', 'Colombia']</t>
+          <t>['Colombia', 'Yugoslavia', 'West Germany']</t>
         </is>
       </c>
       <c r="K52" t="inlineStr">
@@ -6807,7 +6807,7 @@
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>['Yugoslavia', 'West Germany', 'Colombia']</t>
+          <t>['Colombia', 'Yugoslavia', 'West Germany']</t>
         </is>
       </c>
       <c r="K53" t="inlineStr">
@@ -6935,7 +6935,7 @@
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>['Yugoslavia', 'West Germany', 'Colombia']</t>
+          <t>['Colombia', 'Yugoslavia', 'West Germany']</t>
         </is>
       </c>
       <c r="K54" t="inlineStr">
@@ -7049,7 +7049,7 @@
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr">
         <is>
-          <t>['Austria', 'Czechoslovakia', 'Italy']</t>
+          <t>['Czechoslovakia', 'Italy', 'Austria']</t>
         </is>
       </c>
       <c r="K55" t="inlineStr">
@@ -7145,7 +7145,7 @@
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>['Austria', 'Czechoslovakia', 'Italy']</t>
+          <t>['Czechoslovakia', 'Italy', 'Austria']</t>
         </is>
       </c>
       <c r="K56" t="inlineStr">
@@ -7273,7 +7273,7 @@
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>['Austria', 'Czechoslovakia', 'Italy']</t>
+          <t>['Czechoslovakia', 'Italy', 'Austria']</t>
         </is>
       </c>
       <c r="K57" t="inlineStr">
@@ -7401,7 +7401,7 @@
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>['Austria', 'Czechoslovakia', 'Italy']</t>
+          <t>['Czechoslovakia', 'Italy', 'Austria']</t>
         </is>
       </c>
       <c r="K58" t="inlineStr">
@@ -7529,7 +7529,7 @@
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>['Austria', 'Czechoslovakia', 'Italy']</t>
+          <t>['Czechoslovakia', 'Italy', 'Austria']</t>
         </is>
       </c>
       <c r="K59" t="inlineStr">
@@ -7657,7 +7657,7 @@
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>['Austria', 'Czechoslovakia', 'Italy']</t>
+          <t>['Czechoslovakia', 'Italy', 'Austria']</t>
         </is>
       </c>
       <c r="K60" t="inlineStr">
@@ -7771,7 +7771,7 @@
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr">
         <is>
-          <t>['Costa Rica', 'Scotland', 'Brazil']</t>
+          <t>['Scotland', 'Costa Rica', 'Brazil']</t>
         </is>
       </c>
       <c r="K61" t="inlineStr">
@@ -7867,7 +7867,7 @@
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>['Scotland', 'Sweden', 'Brazil']</t>
+          <t>['Sweden', 'Scotland', 'Brazil']</t>
         </is>
       </c>
       <c r="K62" t="inlineStr">
@@ -7995,7 +7995,7 @@
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>['Costa Rica', 'Scotland', 'Brazil']</t>
+          <t>['Scotland', 'Costa Rica', 'Brazil']</t>
         </is>
       </c>
       <c r="K63" t="inlineStr">
@@ -8123,7 +8123,7 @@
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>['Costa Rica', 'Scotland', 'Brazil']</t>
+          <t>['Scotland', 'Costa Rica', 'Brazil']</t>
         </is>
       </c>
       <c r="K64" t="inlineStr">
@@ -8251,7 +8251,7 @@
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>['Costa Rica', 'Scotland', 'Brazil']</t>
+          <t>['Scotland', 'Costa Rica', 'Brazil']</t>
         </is>
       </c>
       <c r="K65" t="inlineStr">
@@ -8365,7 +8365,7 @@
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr">
         <is>
-          <t>['Belgium', 'Spain', 'Uruguay']</t>
+          <t>['Uruguay', 'Belgium', 'Spain']</t>
         </is>
       </c>
       <c r="K66" t="inlineStr">
@@ -8461,7 +8461,7 @@
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>['Belgium', 'Spain', 'Uruguay']</t>
+          <t>['Uruguay', 'Belgium', 'Spain']</t>
         </is>
       </c>
       <c r="K67" t="inlineStr">
@@ -8589,7 +8589,7 @@
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>['Belgium', 'Spain', 'Uruguay']</t>
+          <t>['Uruguay', 'Belgium', 'Spain']</t>
         </is>
       </c>
       <c r="K68" t="inlineStr">
@@ -8717,7 +8717,7 @@
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>['Belgium', 'Spain', 'Uruguay']</t>
+          <t>['Uruguay', 'Belgium', 'Spain']</t>
         </is>
       </c>
       <c r="K69" t="inlineStr">
@@ -8845,7 +8845,7 @@
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>['Belgium', 'Spain', 'Uruguay']</t>
+          <t>['Uruguay', 'Belgium', 'Spain']</t>
         </is>
       </c>
       <c r="K70" t="inlineStr">
@@ -9055,7 +9055,7 @@
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>['England', 'Egypt', 'Netherlands']</t>
+          <t>['England', 'Netherlands', 'Egypt']</t>
         </is>
       </c>
       <c r="K72" t="inlineStr">
@@ -9183,7 +9183,7 @@
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>['England', 'Egypt', 'Netherlands']</t>
+          <t>['England', 'Netherlands', 'Egypt']</t>
         </is>
       </c>
       <c r="K73" t="inlineStr">
@@ -9425,7 +9425,7 @@
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr">
         <is>
-          <t>['United States', 'Romania', 'Switzerland']</t>
+          <t>['Switzerland', 'United States', 'Romania']</t>
         </is>
       </c>
       <c r="K75" t="inlineStr">
@@ -9891,7 +9891,7 @@
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr">
         <is>
-          <t>['Germany', 'Spain', 'South Korea']</t>
+          <t>['Germany', 'South Korea', 'Spain']</t>
         </is>
       </c>
       <c r="K79" t="inlineStr">
@@ -9987,7 +9987,7 @@
       </c>
       <c r="J80" t="inlineStr">
         <is>
-          <t>['Germany', 'Spain', 'South Korea']</t>
+          <t>['Germany', 'South Korea', 'Spain']</t>
         </is>
       </c>
       <c r="K80" t="inlineStr">
@@ -10115,7 +10115,7 @@
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>['Germany', 'Spain', 'South Korea']</t>
+          <t>['Germany', 'South Korea', 'Spain']</t>
         </is>
       </c>
       <c r="K81" t="inlineStr">
@@ -10243,7 +10243,7 @@
       </c>
       <c r="J82" t="inlineStr">
         <is>
-          <t>['Germany', 'Spain', 'South Korea']</t>
+          <t>['Germany', 'South Korea', 'Spain']</t>
         </is>
       </c>
       <c r="K82" t="inlineStr">
@@ -10371,7 +10371,7 @@
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t>['Germany', 'Spain', 'South Korea']</t>
+          <t>['Germany', 'South Korea', 'Spain']</t>
         </is>
       </c>
       <c r="K83" t="inlineStr">
@@ -10499,7 +10499,7 @@
       </c>
       <c r="J84" t="inlineStr">
         <is>
-          <t>['Germany', 'Spain', 'South Korea']</t>
+          <t>['Germany', 'South Korea', 'Spain']</t>
         </is>
       </c>
       <c r="K84" t="inlineStr">
@@ -10627,7 +10627,7 @@
       </c>
       <c r="J85" t="inlineStr">
         <is>
-          <t>['Germany', 'Spain', 'South Korea']</t>
+          <t>['Germany', 'South Korea', 'Spain']</t>
         </is>
       </c>
       <c r="K85" t="inlineStr">
@@ -10755,7 +10755,7 @@
       </c>
       <c r="J86" t="inlineStr">
         <is>
-          <t>['Germany', 'Spain', 'South Korea']</t>
+          <t>['Germany', 'South Korea', 'Spain']</t>
         </is>
       </c>
       <c r="K86" t="inlineStr">
@@ -10883,7 +10883,7 @@
       </c>
       <c r="J87" t="inlineStr">
         <is>
-          <t>['Germany', 'Spain', 'South Korea']</t>
+          <t>['Germany', 'South Korea', 'Spain']</t>
         </is>
       </c>
       <c r="K87" t="inlineStr">
@@ -11011,7 +11011,7 @@
       </c>
       <c r="J88" t="inlineStr">
         <is>
-          <t>['Germany', 'Spain', 'South Korea']</t>
+          <t>['Germany', 'South Korea', 'Spain']</t>
         </is>
       </c>
       <c r="K88" t="inlineStr">
@@ -11221,7 +11221,7 @@
       </c>
       <c r="J90" t="inlineStr">
         <is>
-          <t>['Ireland', 'Italy', 'Norway']</t>
+          <t>['Italy', 'Norway', 'Ireland']</t>
         </is>
       </c>
       <c r="K90" t="inlineStr">
@@ -11463,7 +11463,7 @@
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr">
         <is>
-          <t>['Cameroon', 'Sweden', 'Brazil']</t>
+          <t>['Sweden', 'Cameroon', 'Brazil']</t>
         </is>
       </c>
       <c r="K92" t="inlineStr">
@@ -12697,7 +12697,7 @@
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr">
         <is>
-          <t>['Belgium', 'Saudi Arabia', 'Netherlands']</t>
+          <t>['Saudi Arabia', 'Netherlands', 'Belgium']</t>
         </is>
       </c>
       <c r="K102" t="inlineStr">
@@ -12793,7 +12793,7 @@
       </c>
       <c r="J103" t="inlineStr">
         <is>
-          <t>['Belgium', 'Saudi Arabia', 'Netherlands']</t>
+          <t>['Saudi Arabia', 'Netherlands', 'Belgium']</t>
         </is>
       </c>
       <c r="K103" t="inlineStr">
@@ -12921,7 +12921,7 @@
       </c>
       <c r="J104" t="inlineStr">
         <is>
-          <t>['Belgium', 'Saudi Arabia', 'Netherlands']</t>
+          <t>['Saudi Arabia', 'Netherlands', 'Belgium']</t>
         </is>
       </c>
       <c r="K104" t="inlineStr">
@@ -13049,7 +13049,7 @@
       </c>
       <c r="J105" t="inlineStr">
         <is>
-          <t>['Belgium', 'Saudi Arabia', 'Netherlands']</t>
+          <t>['Saudi Arabia', 'Netherlands', 'Belgium']</t>
         </is>
       </c>
       <c r="K105" t="inlineStr">
@@ -13177,7 +13177,7 @@
       </c>
       <c r="J106" t="inlineStr">
         <is>
-          <t>['Belgium', 'Saudi Arabia', 'Netherlands']</t>
+          <t>['Saudi Arabia', 'Netherlands', 'Belgium']</t>
         </is>
       </c>
       <c r="K106" t="inlineStr">
@@ -13291,7 +13291,7 @@
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr">
         <is>
-          <t>['Bulgaria', 'Argentina', 'Nigeria']</t>
+          <t>['Nigeria', 'Argentina', 'Bulgaria']</t>
         </is>
       </c>
       <c r="K107" t="inlineStr">
@@ -13387,7 +13387,7 @@
       </c>
       <c r="J108" t="inlineStr">
         <is>
-          <t>['Bulgaria', 'Argentina', 'Nigeria']</t>
+          <t>['Nigeria', 'Argentina', 'Bulgaria']</t>
         </is>
       </c>
       <c r="K108" t="inlineStr">
@@ -13515,7 +13515,7 @@
       </c>
       <c r="J109" t="inlineStr">
         <is>
-          <t>['Bulgaria', 'Argentina', 'Nigeria']</t>
+          <t>['Nigeria', 'Argentina', 'Bulgaria']</t>
         </is>
       </c>
       <c r="K109" t="inlineStr">
@@ -13643,7 +13643,7 @@
       </c>
       <c r="J110" t="inlineStr">
         <is>
-          <t>['Bulgaria', 'Argentina', 'Nigeria']</t>
+          <t>['Nigeria', 'Argentina', 'Bulgaria']</t>
         </is>
       </c>
       <c r="K110" t="inlineStr">
@@ -13662,7 +13662,7 @@
       </c>
       <c r="O110" t="inlineStr">
         <is>
-          <t>Argentina</t>
+          <t>Bulgaria</t>
         </is>
       </c>
       <c r="P110" t="n">
@@ -13672,11 +13672,11 @@
         <v>3</v>
       </c>
       <c r="R110" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="S110" t="inlineStr">
         <is>
-          <t>Bulgaria</t>
+          <t>Argentina</t>
         </is>
       </c>
       <c r="T110" t="n">
@@ -13686,7 +13686,7 @@
         <v>3</v>
       </c>
       <c r="V110" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="W110" t="inlineStr">
         <is>
@@ -13707,7 +13707,7 @@
       </c>
       <c r="AB110" t="inlineStr">
         <is>
-          <t>['Nigeria', 'Argentina', 'Bulgaria']</t>
+          <t>['Nigeria', 'Bulgaria', 'Argentina']</t>
         </is>
       </c>
       <c r="AC110" t="n">
@@ -13771,7 +13771,7 @@
       </c>
       <c r="J111" t="inlineStr">
         <is>
-          <t>['Bulgaria', 'Argentina', 'Nigeria']</t>
+          <t>['Nigeria', 'Argentina', 'Bulgaria']</t>
         </is>
       </c>
       <c r="K111" t="inlineStr">
@@ -13790,7 +13790,7 @@
       </c>
       <c r="O111" t="inlineStr">
         <is>
-          <t>Argentina</t>
+          <t>Bulgaria</t>
         </is>
       </c>
       <c r="P111" t="n">
@@ -13800,11 +13800,11 @@
         <v>3</v>
       </c>
       <c r="R111" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="S111" t="inlineStr">
         <is>
-          <t>Bulgaria</t>
+          <t>Argentina</t>
         </is>
       </c>
       <c r="T111" t="n">
@@ -13814,7 +13814,7 @@
         <v>3</v>
       </c>
       <c r="V111" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="W111" t="inlineStr">
         <is>
@@ -13835,7 +13835,7 @@
       </c>
       <c r="AB111" t="inlineStr">
         <is>
-          <t>['Nigeria', 'Argentina', 'Bulgaria']</t>
+          <t>['Nigeria', 'Bulgaria', 'Argentina']</t>
         </is>
       </c>
       <c r="AC111" t="n">
@@ -16435,7 +16435,7 @@
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr">
         <is>
-          <t>['Paraguay', 'Nigeria']</t>
+          <t>['Nigeria', 'Paraguay']</t>
         </is>
       </c>
       <c r="K133" t="inlineStr">
@@ -16531,7 +16531,7 @@
       </c>
       <c r="J134" t="inlineStr">
         <is>
-          <t>['Paraguay', 'Nigeria']</t>
+          <t>['Nigeria', 'Paraguay']</t>
         </is>
       </c>
       <c r="K134" t="inlineStr">
@@ -16659,7 +16659,7 @@
       </c>
       <c r="J135" t="inlineStr">
         <is>
-          <t>['Paraguay', 'Nigeria']</t>
+          <t>['Nigeria', 'Paraguay']</t>
         </is>
       </c>
       <c r="K135" t="inlineStr">
@@ -16787,7 +16787,7 @@
       </c>
       <c r="J136" t="inlineStr">
         <is>
-          <t>['Spain', 'Nigeria']</t>
+          <t>['Nigeria', 'Spain']</t>
         </is>
       </c>
       <c r="K136" t="inlineStr">
@@ -16915,7 +16915,7 @@
       </c>
       <c r="J137" t="inlineStr">
         <is>
-          <t>['Spain', 'Nigeria']</t>
+          <t>['Nigeria', 'Spain']</t>
         </is>
       </c>
       <c r="K137" t="inlineStr">
@@ -17043,7 +17043,7 @@
       </c>
       <c r="J138" t="inlineStr">
         <is>
-          <t>['Spain', 'Nigeria']</t>
+          <t>['Nigeria', 'Spain']</t>
         </is>
       </c>
       <c r="K138" t="inlineStr">
@@ -17171,7 +17171,7 @@
       </c>
       <c r="J139" t="inlineStr">
         <is>
-          <t>['Paraguay', 'Nigeria']</t>
+          <t>['Nigeria', 'Paraguay']</t>
         </is>
       </c>
       <c r="K139" t="inlineStr">
@@ -17299,7 +17299,7 @@
       </c>
       <c r="J140" t="inlineStr">
         <is>
-          <t>['Paraguay', 'Nigeria']</t>
+          <t>['Nigeria', 'Paraguay']</t>
         </is>
       </c>
       <c r="K140" t="inlineStr">
@@ -17427,7 +17427,7 @@
       </c>
       <c r="J141" t="inlineStr">
         <is>
-          <t>['Paraguay', 'Nigeria']</t>
+          <t>['Nigeria', 'Paraguay']</t>
         </is>
       </c>
       <c r="K141" t="inlineStr">
@@ -17555,7 +17555,7 @@
       </c>
       <c r="J142" t="inlineStr">
         <is>
-          <t>['Paraguay', 'Nigeria']</t>
+          <t>['Nigeria', 'Paraguay']</t>
         </is>
       </c>
       <c r="K142" t="inlineStr">
@@ -17683,7 +17683,7 @@
       </c>
       <c r="J143" t="inlineStr">
         <is>
-          <t>['Paraguay', 'Nigeria']</t>
+          <t>['Nigeria', 'Paraguay']</t>
         </is>
       </c>
       <c r="K143" t="inlineStr">
@@ -17811,7 +17811,7 @@
       </c>
       <c r="J144" t="inlineStr">
         <is>
-          <t>['Paraguay', 'Nigeria']</t>
+          <t>['Nigeria', 'Paraguay']</t>
         </is>
       </c>
       <c r="K144" t="inlineStr">
@@ -18149,7 +18149,7 @@
       </c>
       <c r="J147" t="inlineStr">
         <is>
-          <t>['Belgium', 'Netherlands']</t>
+          <t>['Netherlands', 'Belgium']</t>
         </is>
       </c>
       <c r="K147" t="inlineStr">
@@ -18277,7 +18277,7 @@
       </c>
       <c r="J148" t="inlineStr">
         <is>
-          <t>['Belgium', 'Netherlands']</t>
+          <t>['Netherlands', 'Belgium']</t>
         </is>
       </c>
       <c r="K148" t="inlineStr">
@@ -22595,7 +22595,7 @@
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr">
         <is>
-          <t>['Spain', 'South Africa']</t>
+          <t>['South Africa', 'Spain']</t>
         </is>
       </c>
       <c r="K184" t="inlineStr">
@@ -22691,7 +22691,7 @@
       </c>
       <c r="J185" t="inlineStr">
         <is>
-          <t>['Spain', 'South Africa']</t>
+          <t>['South Africa', 'Spain']</t>
         </is>
       </c>
       <c r="K185" t="inlineStr">
@@ -22819,7 +22819,7 @@
       </c>
       <c r="J186" t="inlineStr">
         <is>
-          <t>['Spain', 'South Africa']</t>
+          <t>['South Africa', 'Spain']</t>
         </is>
       </c>
       <c r="K186" t="inlineStr">
@@ -22947,7 +22947,7 @@
       </c>
       <c r="J187" t="inlineStr">
         <is>
-          <t>['Spain', 'South Africa']</t>
+          <t>['South Africa', 'Spain']</t>
         </is>
       </c>
       <c r="K187" t="inlineStr">
@@ -23075,7 +23075,7 @@
       </c>
       <c r="J188" t="inlineStr">
         <is>
-          <t>['Spain', 'South Africa']</t>
+          <t>['South Africa', 'Spain']</t>
         </is>
       </c>
       <c r="K188" t="inlineStr">
@@ -23203,7 +23203,7 @@
       </c>
       <c r="J189" t="inlineStr">
         <is>
-          <t>['Spain', 'South Africa']</t>
+          <t>['South Africa', 'Spain']</t>
         </is>
       </c>
       <c r="K189" t="inlineStr">
@@ -23331,7 +23331,7 @@
       </c>
       <c r="J190" t="inlineStr">
         <is>
-          <t>['Spain', 'South Africa']</t>
+          <t>['South Africa', 'Spain']</t>
         </is>
       </c>
       <c r="K190" t="inlineStr">
@@ -23459,7 +23459,7 @@
       </c>
       <c r="J191" t="inlineStr">
         <is>
-          <t>['Spain', 'South Africa']</t>
+          <t>['South Africa', 'Spain']</t>
         </is>
       </c>
       <c r="K191" t="inlineStr">
@@ -23587,7 +23587,7 @@
       </c>
       <c r="J192" t="inlineStr">
         <is>
-          <t>['Spain', 'South Africa']</t>
+          <t>['South Africa', 'Spain']</t>
         </is>
       </c>
       <c r="K192" t="inlineStr">
@@ -25753,7 +25753,7 @@
       </c>
       <c r="J210" t="inlineStr">
         <is>
-          <t>['Belgium', 'Japan']</t>
+          <t>['Japan', 'Belgium']</t>
         </is>
       </c>
       <c r="K210" t="inlineStr">
@@ -25881,7 +25881,7 @@
       </c>
       <c r="J211" t="inlineStr">
         <is>
-          <t>['Belgium', 'Japan']</t>
+          <t>['Japan', 'Belgium']</t>
         </is>
       </c>
       <c r="K211" t="inlineStr">
@@ -26265,7 +26265,7 @@
       </c>
       <c r="J214" t="inlineStr">
         <is>
-          <t>['Belgium', 'Japan']</t>
+          <t>['Japan', 'Belgium']</t>
         </is>
       </c>
       <c r="K214" t="inlineStr">
@@ -26393,7 +26393,7 @@
       </c>
       <c r="J215" t="inlineStr">
         <is>
-          <t>['Belgium', 'Japan']</t>
+          <t>['Japan', 'Belgium']</t>
         </is>
       </c>
       <c r="K215" t="inlineStr">
@@ -26521,7 +26521,7 @@
       </c>
       <c r="J216" t="inlineStr">
         <is>
-          <t>['Belgium', 'Japan']</t>
+          <t>['Japan', 'Belgium']</t>
         </is>
       </c>
       <c r="K216" t="inlineStr">
@@ -26635,7 +26635,7 @@
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr">
         <is>
-          <t>['United States', 'South Korea']</t>
+          <t>['South Korea', 'United States']</t>
         </is>
       </c>
       <c r="K217" t="inlineStr">
@@ -26731,7 +26731,7 @@
       </c>
       <c r="J218" t="inlineStr">
         <is>
-          <t>['United States', 'South Korea']</t>
+          <t>['South Korea', 'United States']</t>
         </is>
       </c>
       <c r="K218" t="inlineStr">
@@ -26859,7 +26859,7 @@
       </c>
       <c r="J219" t="inlineStr">
         <is>
-          <t>['United States', 'South Korea']</t>
+          <t>['South Korea', 'United States']</t>
         </is>
       </c>
       <c r="K219" t="inlineStr">
@@ -26987,7 +26987,7 @@
       </c>
       <c r="J220" t="inlineStr">
         <is>
-          <t>['United States', 'South Korea']</t>
+          <t>['South Korea', 'United States']</t>
         </is>
       </c>
       <c r="K220" t="inlineStr">
@@ -27115,7 +27115,7 @@
       </c>
       <c r="J221" t="inlineStr">
         <is>
-          <t>['United States', 'South Korea']</t>
+          <t>['South Korea', 'United States']</t>
         </is>
       </c>
       <c r="K221" t="inlineStr">
@@ -27243,7 +27243,7 @@
       </c>
       <c r="J222" t="inlineStr">
         <is>
-          <t>['United States', 'South Korea']</t>
+          <t>['South Korea', 'United States']</t>
         </is>
       </c>
       <c r="K222" t="inlineStr">
@@ -27357,7 +27357,7 @@
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr">
         <is>
-          <t>['Germany', 'Ecuador']</t>
+          <t>['Ecuador', 'Germany']</t>
         </is>
       </c>
       <c r="K223" t="inlineStr">
@@ -30501,7 +30501,7 @@
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr">
         <is>
-          <t>['Ghana', 'Italy']</t>
+          <t>['Italy', 'Ghana']</t>
         </is>
       </c>
       <c r="K249" t="inlineStr">
@@ -30597,7 +30597,7 @@
       </c>
       <c r="J250" t="inlineStr">
         <is>
-          <t>['Ghana', 'Italy']</t>
+          <t>['Italy', 'Ghana']</t>
         </is>
       </c>
       <c r="K250" t="inlineStr">
@@ -30725,7 +30725,7 @@
       </c>
       <c r="J251" t="inlineStr">
         <is>
-          <t>['Ghana', 'Italy']</t>
+          <t>['Italy', 'Ghana']</t>
         </is>
       </c>
       <c r="K251" t="inlineStr">
@@ -30853,7 +30853,7 @@
       </c>
       <c r="J252" t="inlineStr">
         <is>
-          <t>['Ghana', 'Italy']</t>
+          <t>['Italy', 'Ghana']</t>
         </is>
       </c>
       <c r="K252" t="inlineStr">
@@ -30981,7 +30981,7 @@
       </c>
       <c r="J253" t="inlineStr">
         <is>
-          <t>['Ghana', 'Italy']</t>
+          <t>['Italy', 'Ghana']</t>
         </is>
       </c>
       <c r="K253" t="inlineStr">
@@ -31109,7 +31109,7 @@
       </c>
       <c r="J254" t="inlineStr">
         <is>
-          <t>['Ghana', 'Italy']</t>
+          <t>['Italy', 'Ghana']</t>
         </is>
       </c>
       <c r="K254" t="inlineStr">
@@ -32457,7 +32457,7 @@
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr">
         <is>
-          <t>['Spain', 'Ukraine']</t>
+          <t>['Ukraine', 'Spain']</t>
         </is>
       </c>
       <c r="K265" t="inlineStr">
@@ -32553,7 +32553,7 @@
       </c>
       <c r="J266" t="inlineStr">
         <is>
-          <t>['Spain', 'Ukraine']</t>
+          <t>['Ukraine', 'Spain']</t>
         </is>
       </c>
       <c r="K266" t="inlineStr">
@@ -32681,7 +32681,7 @@
       </c>
       <c r="J267" t="inlineStr">
         <is>
-          <t>['Spain', 'Ukraine']</t>
+          <t>['Ukraine', 'Spain']</t>
         </is>
       </c>
       <c r="K267" t="inlineStr">
@@ -34079,7 +34079,7 @@
       </c>
       <c r="J279" t="inlineStr">
         <is>
-          <t>['Greece', 'Argentina']</t>
+          <t>['Argentina', 'Greece']</t>
         </is>
       </c>
       <c r="K279" t="inlineStr">
@@ -34833,7 +34833,7 @@
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr">
         <is>
-          <t>['United States', 'Slovenia']</t>
+          <t>['Slovenia', 'United States']</t>
         </is>
       </c>
       <c r="K285" t="inlineStr">
@@ -35057,7 +35057,7 @@
       </c>
       <c r="J287" t="inlineStr">
         <is>
-          <t>['United States', 'England']</t>
+          <t>['England', 'United States']</t>
         </is>
       </c>
       <c r="K287" t="inlineStr">
@@ -35267,7 +35267,7 @@
       </c>
       <c r="J289" t="inlineStr">
         <is>
-          <t>['Germany', 'Ghana']</t>
+          <t>['Ghana', 'Germany']</t>
         </is>
       </c>
       <c r="K289" t="inlineStr">
@@ -35395,7 +35395,7 @@
       </c>
       <c r="J290" t="inlineStr">
         <is>
-          <t>['Germany', 'Ghana']</t>
+          <t>['Ghana', 'Germany']</t>
         </is>
       </c>
       <c r="K290" t="inlineStr">
@@ -35523,7 +35523,7 @@
       </c>
       <c r="J291" t="inlineStr">
         <is>
-          <t>['Germany', 'Ghana']</t>
+          <t>['Ghana', 'Germany']</t>
         </is>
       </c>
       <c r="K291" t="inlineStr">
@@ -35651,7 +35651,7 @@
       </c>
       <c r="J292" t="inlineStr">
         <is>
-          <t>['Germany', 'Ghana']</t>
+          <t>['Ghana', 'Germany']</t>
         </is>
       </c>
       <c r="K292" t="inlineStr">
@@ -35765,7 +35765,7 @@
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr">
         <is>
-          <t>['Paraguay', 'Italy']</t>
+          <t>['Italy', 'Paraguay']</t>
         </is>
       </c>
       <c r="K293" t="inlineStr">
@@ -35861,7 +35861,7 @@
       </c>
       <c r="J294" t="inlineStr">
         <is>
-          <t>['Paraguay', 'Slovakia']</t>
+          <t>['Slovakia', 'Paraguay']</t>
         </is>
       </c>
       <c r="K294" t="inlineStr">
@@ -35989,7 +35989,7 @@
       </c>
       <c r="J295" t="inlineStr">
         <is>
-          <t>['Paraguay', 'Slovakia']</t>
+          <t>['Slovakia', 'Paraguay']</t>
         </is>
       </c>
       <c r="K295" t="inlineStr">
@@ -36117,7 +36117,7 @@
       </c>
       <c r="J296" t="inlineStr">
         <is>
-          <t>['Paraguay', 'Slovakia']</t>
+          <t>['Slovakia', 'Paraguay']</t>
         </is>
       </c>
       <c r="K296" t="inlineStr">
@@ -36245,7 +36245,7 @@
       </c>
       <c r="J297" t="inlineStr">
         <is>
-          <t>['Paraguay', 'Slovakia']</t>
+          <t>['Slovakia', 'Paraguay']</t>
         </is>
       </c>
       <c r="K297" t="inlineStr">
@@ -36373,7 +36373,7 @@
       </c>
       <c r="J298" t="inlineStr">
         <is>
-          <t>['Paraguay', 'Slovakia']</t>
+          <t>['Slovakia', 'Paraguay']</t>
         </is>
       </c>
       <c r="K298" t="inlineStr">
@@ -40353,7 +40353,7 @@
       <c r="I331" t="inlineStr"/>
       <c r="J331" t="inlineStr">
         <is>
-          <t>['Costa Rica', 'Italy']</t>
+          <t>['Italy', 'Costa Rica']</t>
         </is>
       </c>
       <c r="K331" t="inlineStr">
@@ -40563,7 +40563,7 @@
       <c r="I333" t="inlineStr"/>
       <c r="J333" t="inlineStr">
         <is>
-          <t>['Ivory Coast', 'Colombia']</t>
+          <t>['Colombia', 'Ivory Coast']</t>
         </is>
       </c>
       <c r="K333" t="inlineStr">
@@ -40659,7 +40659,7 @@
       </c>
       <c r="J334" t="inlineStr">
         <is>
-          <t>['Ivory Coast', 'Colombia']</t>
+          <t>['Colombia', 'Ivory Coast']</t>
         </is>
       </c>
       <c r="K334" t="inlineStr">
@@ -40787,7 +40787,7 @@
       </c>
       <c r="J335" t="inlineStr">
         <is>
-          <t>['Greece', 'Colombia']</t>
+          <t>['Colombia', 'Greece']</t>
         </is>
       </c>
       <c r="K335" t="inlineStr">
@@ -40915,7 +40915,7 @@
       </c>
       <c r="J336" t="inlineStr">
         <is>
-          <t>['Greece', 'Colombia']</t>
+          <t>['Colombia', 'Greece']</t>
         </is>
       </c>
       <c r="K336" t="inlineStr">
@@ -41043,7 +41043,7 @@
       </c>
       <c r="J337" t="inlineStr">
         <is>
-          <t>['Greece', 'Colombia']</t>
+          <t>['Colombia', 'Greece']</t>
         </is>
       </c>
       <c r="K337" t="inlineStr">
@@ -41171,7 +41171,7 @@
       </c>
       <c r="J338" t="inlineStr">
         <is>
-          <t>['Ivory Coast', 'Colombia']</t>
+          <t>['Colombia', 'Ivory Coast']</t>
         </is>
       </c>
       <c r="K338" t="inlineStr">
@@ -41299,7 +41299,7 @@
       </c>
       <c r="J339" t="inlineStr">
         <is>
-          <t>['Ivory Coast', 'Colombia']</t>
+          <t>['Colombia', 'Ivory Coast']</t>
         </is>
       </c>
       <c r="K339" t="inlineStr">
@@ -41427,7 +41427,7 @@
       </c>
       <c r="J340" t="inlineStr">
         <is>
-          <t>['Ivory Coast', 'Colombia']</t>
+          <t>['Colombia', 'Ivory Coast']</t>
         </is>
       </c>
       <c r="K340" t="inlineStr">
@@ -41555,7 +41555,7 @@
       </c>
       <c r="J341" t="inlineStr">
         <is>
-          <t>['Greece', 'Colombia']</t>
+          <t>['Colombia', 'Greece']</t>
         </is>
       </c>
       <c r="K341" t="inlineStr">
@@ -41669,7 +41669,7 @@
       <c r="I342" t="inlineStr"/>
       <c r="J342" t="inlineStr">
         <is>
-          <t>['Argentina', 'Nigeria']</t>
+          <t>['Nigeria', 'Argentina']</t>
         </is>
       </c>
       <c r="K342" t="inlineStr">
@@ -41765,7 +41765,7 @@
       </c>
       <c r="J343" t="inlineStr">
         <is>
-          <t>['Argentina', 'Nigeria']</t>
+          <t>['Nigeria', 'Argentina']</t>
         </is>
       </c>
       <c r="K343" t="inlineStr">
@@ -41893,7 +41893,7 @@
       </c>
       <c r="J344" t="inlineStr">
         <is>
-          <t>['Argentina', 'Nigeria']</t>
+          <t>['Nigeria', 'Argentina']</t>
         </is>
       </c>
       <c r="K344" t="inlineStr">
@@ -42021,7 +42021,7 @@
       </c>
       <c r="J345" t="inlineStr">
         <is>
-          <t>['Argentina', 'Nigeria']</t>
+          <t>['Nigeria', 'Argentina']</t>
         </is>
       </c>
       <c r="K345" t="inlineStr">
@@ -42149,7 +42149,7 @@
       </c>
       <c r="J346" t="inlineStr">
         <is>
-          <t>['Argentina', 'Nigeria']</t>
+          <t>['Nigeria', 'Argentina']</t>
         </is>
       </c>
       <c r="K346" t="inlineStr">
@@ -42277,7 +42277,7 @@
       </c>
       <c r="J347" t="inlineStr">
         <is>
-          <t>['Argentina', 'Nigeria']</t>
+          <t>['Nigeria', 'Argentina']</t>
         </is>
       </c>
       <c r="K347" t="inlineStr">
@@ -42405,7 +42405,7 @@
       </c>
       <c r="J348" t="inlineStr">
         <is>
-          <t>['Argentina', 'Nigeria']</t>
+          <t>['Nigeria', 'Argentina']</t>
         </is>
       </c>
       <c r="K348" t="inlineStr">
@@ -42533,7 +42533,7 @@
       </c>
       <c r="J349" t="inlineStr">
         <is>
-          <t>['Argentina', 'Nigeria']</t>
+          <t>['Nigeria', 'Argentina']</t>
         </is>
       </c>
       <c r="K349" t="inlineStr">
@@ -42661,7 +42661,7 @@
       </c>
       <c r="J350" t="inlineStr">
         <is>
-          <t>['Argentina', 'Nigeria']</t>
+          <t>['Nigeria', 'Argentina']</t>
         </is>
       </c>
       <c r="K350" t="inlineStr">
@@ -42789,7 +42789,7 @@
       </c>
       <c r="J351" t="inlineStr">
         <is>
-          <t>['Argentina', 'Nigeria']</t>
+          <t>['Nigeria', 'Argentina']</t>
         </is>
       </c>
       <c r="K351" t="inlineStr">
@@ -43963,7 +43963,7 @@
       <c r="I361" t="inlineStr"/>
       <c r="J361" t="inlineStr">
         <is>
-          <t>['Belgium', 'Algeria']</t>
+          <t>['Algeria', 'Belgium']</t>
         </is>
       </c>
       <c r="K361" t="inlineStr">
@@ -44059,7 +44059,7 @@
       </c>
       <c r="J362" t="inlineStr">
         <is>
-          <t>['Belgium', 'Russia']</t>
+          <t>['Russia', 'Belgium']</t>
         </is>
       </c>
       <c r="K362" t="inlineStr">
@@ -44187,7 +44187,7 @@
       </c>
       <c r="J363" t="inlineStr">
         <is>
-          <t>['Belgium', 'Algeria']</t>
+          <t>['Algeria', 'Belgium']</t>
         </is>
       </c>
       <c r="K363" t="inlineStr">
@@ -44315,7 +44315,7 @@
       </c>
       <c r="J364" t="inlineStr">
         <is>
-          <t>['Belgium', 'Algeria']</t>
+          <t>['Algeria', 'Belgium']</t>
         </is>
       </c>
       <c r="K364" t="inlineStr">
@@ -45279,7 +45279,7 @@
       <c r="I372" t="inlineStr"/>
       <c r="J372" t="inlineStr">
         <is>
-          <t>['Spain', 'Portugal']</t>
+          <t>['Portugal', 'Spain']</t>
         </is>
       </c>
       <c r="K372" t="inlineStr">
@@ -45375,7 +45375,7 @@
       </c>
       <c r="J373" t="inlineStr">
         <is>
-          <t>['Spain', 'Portugal']</t>
+          <t>['Portugal', 'Spain']</t>
         </is>
       </c>
       <c r="K373" t="inlineStr">
@@ -45503,7 +45503,7 @@
       </c>
       <c r="J374" t="inlineStr">
         <is>
-          <t>['Spain', 'Portugal']</t>
+          <t>['Portugal', 'Spain']</t>
         </is>
       </c>
       <c r="K374" t="inlineStr">
@@ -45631,7 +45631,7 @@
       </c>
       <c r="J375" t="inlineStr">
         <is>
-          <t>['Spain', 'Portugal']</t>
+          <t>['Portugal', 'Spain']</t>
         </is>
       </c>
       <c r="K375" t="inlineStr">
@@ -45759,7 +45759,7 @@
       </c>
       <c r="J376" t="inlineStr">
         <is>
-          <t>['Spain', 'Portugal']</t>
+          <t>['Portugal', 'Spain']</t>
         </is>
       </c>
       <c r="K376" t="inlineStr">
@@ -45887,7 +45887,7 @@
       </c>
       <c r="J377" t="inlineStr">
         <is>
-          <t>['Spain', 'Portugal']</t>
+          <t>['Portugal', 'Spain']</t>
         </is>
       </c>
       <c r="K377" t="inlineStr">
@@ -46015,7 +46015,7 @@
       </c>
       <c r="J378" t="inlineStr">
         <is>
-          <t>['Spain', 'Portugal']</t>
+          <t>['Portugal', 'Spain']</t>
         </is>
       </c>
       <c r="K378" t="inlineStr">
@@ -46467,7 +46467,7 @@
       <c r="I382" t="inlineStr"/>
       <c r="J382" t="inlineStr">
         <is>
-          <t>['Croatia', 'Nigeria']</t>
+          <t>['Nigeria', 'Croatia']</t>
         </is>
       </c>
       <c r="K382" t="inlineStr">
@@ -46691,7 +46691,7 @@
       </c>
       <c r="J384" t="inlineStr">
         <is>
-          <t>['Croatia', 'Nigeria']</t>
+          <t>['Nigeria', 'Croatia']</t>
         </is>
       </c>
       <c r="K384" t="inlineStr">
@@ -46819,7 +46819,7 @@
       </c>
       <c r="J385" t="inlineStr">
         <is>
-          <t>['Croatia', 'Nigeria']</t>
+          <t>['Nigeria', 'Croatia']</t>
         </is>
       </c>
       <c r="K385" t="inlineStr">
@@ -46947,7 +46947,7 @@
       </c>
       <c r="J386" t="inlineStr">
         <is>
-          <t>['Croatia', 'Nigeria']</t>
+          <t>['Nigeria', 'Croatia']</t>
         </is>
       </c>
       <c r="K386" t="inlineStr">
@@ -47317,7 +47317,7 @@
       <c r="I389" t="inlineStr"/>
       <c r="J389" t="inlineStr">
         <is>
-          <t>['Germany', 'Mexico']</t>
+          <t>['Mexico', 'Germany']</t>
         </is>
       </c>
       <c r="K389" t="inlineStr">
@@ -49113,7 +49113,7 @@
       </c>
       <c r="J404" t="inlineStr">
         <is>
-          <t>['Senegal', 'Colombia']</t>
+          <t>['Colombia', 'Senegal']</t>
         </is>
       </c>
       <c r="K404" t="inlineStr">
@@ -49227,7 +49227,7 @@
       <c r="I405" t="inlineStr"/>
       <c r="J405" t="inlineStr">
         <is>
-          <t>['Belgium', 'England']</t>
+          <t>['England', 'Belgium']</t>
         </is>
       </c>
       <c r="K405" t="inlineStr">
@@ -49323,7 +49323,7 @@
       </c>
       <c r="J406" t="inlineStr">
         <is>
-          <t>['Belgium', 'England']</t>
+          <t>['England', 'Belgium']</t>
         </is>
       </c>
       <c r="K406" t="inlineStr">
@@ -49451,7 +49451,7 @@
       </c>
       <c r="J407" t="inlineStr">
         <is>
-          <t>['Belgium', 'England']</t>
+          <t>['England', 'Belgium']</t>
         </is>
       </c>
       <c r="K407" t="inlineStr">
@@ -49579,7 +49579,7 @@
       </c>
       <c r="J408" t="inlineStr">
         <is>
-          <t>['Belgium', 'England']</t>
+          <t>['England', 'Belgium']</t>
         </is>
       </c>
       <c r="K408" t="inlineStr">
@@ -49707,7 +49707,7 @@
       </c>
       <c r="J409" t="inlineStr">
         <is>
-          <t>['Belgium', 'England']</t>
+          <t>['England', 'Belgium']</t>
         </is>
       </c>
       <c r="K409" t="inlineStr">
@@ -49821,7 +49821,7 @@
       <c r="I410" t="inlineStr"/>
       <c r="J410" t="inlineStr">
         <is>
-          <t>['Ecuador', 'Netherlands']</t>
+          <t>['Netherlands', 'Ecuador']</t>
         </is>
       </c>
       <c r="K410" t="inlineStr">
@@ -49917,7 +49917,7 @@
       </c>
       <c r="J411" t="inlineStr">
         <is>
-          <t>['Ecuador', 'Netherlands']</t>
+          <t>['Netherlands', 'Ecuador']</t>
         </is>
       </c>
       <c r="K411" t="inlineStr">
@@ -50301,7 +50301,7 @@
       </c>
       <c r="J414" t="inlineStr">
         <is>
-          <t>['Ecuador', 'Netherlands']</t>
+          <t>['Netherlands', 'Ecuador']</t>
         </is>
       </c>
       <c r="K414" t="inlineStr">
@@ -50639,7 +50639,7 @@
       </c>
       <c r="J417" t="inlineStr">
         <is>
-          <t>['United States', 'England']</t>
+          <t>['England', 'United States']</t>
         </is>
       </c>
       <c r="K417" t="inlineStr">
@@ -50767,7 +50767,7 @@
       </c>
       <c r="J418" t="inlineStr">
         <is>
-          <t>['United States', 'England']</t>
+          <t>['England', 'United States']</t>
         </is>
       </c>
       <c r="K418" t="inlineStr">
@@ -50895,7 +50895,7 @@
       </c>
       <c r="J419" t="inlineStr">
         <is>
-          <t>['United States', 'England']</t>
+          <t>['England', 'United States']</t>
         </is>
       </c>
       <c r="K419" t="inlineStr">
@@ -51023,7 +51023,7 @@
       </c>
       <c r="J420" t="inlineStr">
         <is>
-          <t>['United States', 'England']</t>
+          <t>['England', 'United States']</t>
         </is>
       </c>
       <c r="K420" t="inlineStr">
@@ -51475,7 +51475,7 @@
       <c r="I424" t="inlineStr"/>
       <c r="J424" t="inlineStr">
         <is>
-          <t>['Saudi Arabia', 'Poland']</t>
+          <t>['Poland', 'Saudi Arabia']</t>
         </is>
       </c>
       <c r="K424" t="inlineStr">
@@ -52663,7 +52663,7 @@
       <c r="I434" t="inlineStr"/>
       <c r="J434" t="inlineStr">
         <is>
-          <t>['Spain', 'Costa Rica']</t>
+          <t>['Costa Rica', 'Spain']</t>
         </is>
       </c>
       <c r="K434" t="inlineStr">
@@ -52759,7 +52759,7 @@
       </c>
       <c r="J435" t="inlineStr">
         <is>
-          <t>['Spain', 'Japan']</t>
+          <t>['Japan', 'Spain']</t>
         </is>
       </c>
       <c r="K435" t="inlineStr">
@@ -53015,7 +53015,7 @@
       </c>
       <c r="J437" t="inlineStr">
         <is>
-          <t>['Spain', 'Japan']</t>
+          <t>['Japan', 'Spain']</t>
         </is>
       </c>
       <c r="K437" t="inlineStr">
@@ -53143,7 +53143,7 @@
       </c>
       <c r="J438" t="inlineStr">
         <is>
-          <t>['Spain', 'Japan']</t>
+          <t>['Japan', 'Spain']</t>
         </is>
       </c>
       <c r="K438" t="inlineStr">
@@ -53271,7 +53271,7 @@
       </c>
       <c r="J439" t="inlineStr">
         <is>
-          <t>['Spain', 'Japan']</t>
+          <t>['Japan', 'Spain']</t>
         </is>
       </c>
       <c r="K439" t="inlineStr">
@@ -53399,7 +53399,7 @@
       </c>
       <c r="J440" t="inlineStr">
         <is>
-          <t>['Costa Rica', 'Japan']</t>
+          <t>['Japan', 'Costa Rica']</t>
         </is>
       </c>
       <c r="K440" t="inlineStr">
@@ -53527,7 +53527,7 @@
       </c>
       <c r="J441" t="inlineStr">
         <is>
-          <t>['Spain', 'Japan']</t>
+          <t>['Japan', 'Spain']</t>
         </is>
       </c>
       <c r="K441" t="inlineStr">
@@ -53655,7 +53655,7 @@
       </c>
       <c r="J442" t="inlineStr">
         <is>
-          <t>['Spain', 'Japan']</t>
+          <t>['Japan', 'Spain']</t>
         </is>
       </c>
       <c r="K442" t="inlineStr">
@@ -53783,7 +53783,7 @@
       </c>
       <c r="J443" t="inlineStr">
         <is>
-          <t>['Spain', 'Japan']</t>
+          <t>['Japan', 'Spain']</t>
         </is>
       </c>
       <c r="K443" t="inlineStr">
